--- a/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7503200</v>
+        <v>7451700</v>
       </c>
       <c r="E8" s="3">
-        <v>6255200</v>
+        <v>6212300</v>
       </c>
       <c r="F8" s="3">
-        <v>7846900</v>
+        <v>7793100</v>
       </c>
       <c r="G8" s="3">
-        <v>6584900</v>
+        <v>6539700</v>
       </c>
       <c r="H8" s="3">
-        <v>5707600</v>
+        <v>5668400</v>
       </c>
       <c r="I8" s="3">
-        <v>5258700</v>
+        <v>5222600</v>
       </c>
       <c r="J8" s="3">
-        <v>4945700</v>
+        <v>4911800</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4711000</v>
+        <v>4678700</v>
       </c>
       <c r="E9" s="3">
-        <v>4684100</v>
+        <v>4651900</v>
       </c>
       <c r="F9" s="3">
-        <v>4639200</v>
+        <v>4607300</v>
       </c>
       <c r="G9" s="3">
-        <v>4006800</v>
+        <v>3979400</v>
       </c>
       <c r="H9" s="3">
-        <v>3810600</v>
+        <v>3784500</v>
       </c>
       <c r="I9" s="3">
-        <v>3686200</v>
+        <v>3660900</v>
       </c>
       <c r="J9" s="3">
-        <v>3255200</v>
+        <v>3232900</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2792200</v>
+        <v>2773100</v>
       </c>
       <c r="E10" s="3">
-        <v>1571200</v>
+        <v>1560400</v>
       </c>
       <c r="F10" s="3">
-        <v>3207800</v>
+        <v>3185800</v>
       </c>
       <c r="G10" s="3">
-        <v>2578000</v>
+        <v>2560300</v>
       </c>
       <c r="H10" s="3">
-        <v>1897000</v>
+        <v>1884000</v>
       </c>
       <c r="I10" s="3">
-        <v>1572500</v>
+        <v>1561700</v>
       </c>
       <c r="J10" s="3">
-        <v>1690500</v>
+        <v>1678900</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>42300</v>
+        <v>42000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -886,25 +886,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>42300</v>
+        <v>42000</v>
       </c>
       <c r="E15" s="3">
-        <v>332200</v>
+        <v>329900</v>
       </c>
       <c r="F15" s="3">
-        <v>329600</v>
+        <v>327400</v>
       </c>
       <c r="G15" s="3">
-        <v>269300</v>
+        <v>267500</v>
       </c>
       <c r="H15" s="3">
-        <v>252700</v>
+        <v>250900</v>
       </c>
       <c r="I15" s="3">
-        <v>245000</v>
+        <v>243300</v>
       </c>
       <c r="J15" s="3">
-        <v>218000</v>
+        <v>216500</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6094900</v>
+        <v>6053100</v>
       </c>
       <c r="E17" s="3">
-        <v>6459200</v>
+        <v>6414900</v>
       </c>
       <c r="F17" s="3">
-        <v>6472000</v>
+        <v>6427600</v>
       </c>
       <c r="G17" s="3">
-        <v>5469000</v>
+        <v>5431500</v>
       </c>
       <c r="H17" s="3">
-        <v>5089400</v>
+        <v>5054400</v>
       </c>
       <c r="I17" s="3">
-        <v>4939300</v>
+        <v>4905400</v>
       </c>
       <c r="J17" s="3">
-        <v>4425000</v>
+        <v>4394600</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1408300</v>
+        <v>1398600</v>
       </c>
       <c r="E18" s="3">
-        <v>-203900</v>
+        <v>-202500</v>
       </c>
       <c r="F18" s="3">
-        <v>1374900</v>
+        <v>1365500</v>
       </c>
       <c r="G18" s="3">
-        <v>1115900</v>
+        <v>1108200</v>
       </c>
       <c r="H18" s="3">
-        <v>618200</v>
+        <v>614000</v>
       </c>
       <c r="I18" s="3">
-        <v>319400</v>
+        <v>317200</v>
       </c>
       <c r="J18" s="3">
-        <v>520700</v>
+        <v>517200</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16700</v>
+        <v>-16600</v>
       </c>
       <c r="E20" s="3">
-        <v>-20500</v>
+        <v>-20400</v>
       </c>
       <c r="F20" s="3">
-        <v>43600</v>
+        <v>43300</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
       <c r="I20" s="3">
-        <v>-89800</v>
+        <v>-89200</v>
       </c>
       <c r="J20" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,25 +1017,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1735800</v>
+        <v>1729900</v>
       </c>
       <c r="E21" s="3">
-        <v>103300</v>
+        <v>108200</v>
       </c>
       <c r="F21" s="3">
-        <v>1743800</v>
+        <v>1737400</v>
       </c>
       <c r="G21" s="3">
-        <v>1381600</v>
+        <v>1376700</v>
       </c>
       <c r="H21" s="3">
-        <v>849600</v>
+        <v>848000</v>
       </c>
       <c r="I21" s="3">
-        <v>471300</v>
+        <v>472200</v>
       </c>
       <c r="J21" s="3">
-        <v>725600</v>
+        <v>724300</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1044,25 +1044,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55200</v>
+        <v>54800</v>
       </c>
       <c r="E22" s="3">
-        <v>56400</v>
+        <v>56000</v>
       </c>
       <c r="F22" s="3">
-        <v>43600</v>
+        <v>43300</v>
       </c>
       <c r="G22" s="3">
-        <v>30800</v>
+        <v>30600</v>
       </c>
       <c r="H22" s="3">
-        <v>30800</v>
+        <v>30600</v>
       </c>
       <c r="I22" s="3">
-        <v>29500</v>
+        <v>29300</v>
       </c>
       <c r="J22" s="3">
-        <v>29500</v>
+        <v>29300</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1336500</v>
+        <v>1327300</v>
       </c>
       <c r="E23" s="3">
-        <v>-280900</v>
+        <v>-279000</v>
       </c>
       <c r="F23" s="3">
-        <v>1374900</v>
+        <v>1365500</v>
       </c>
       <c r="G23" s="3">
-        <v>1085100</v>
+        <v>1077600</v>
       </c>
       <c r="H23" s="3">
-        <v>569500</v>
+        <v>565600</v>
       </c>
       <c r="I23" s="3">
-        <v>200100</v>
+        <v>198700</v>
       </c>
       <c r="J23" s="3">
-        <v>481000</v>
+        <v>477700</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>341200</v>
+        <v>338800</v>
       </c>
       <c r="E24" s="3">
-        <v>-88500</v>
+        <v>-87900</v>
       </c>
       <c r="F24" s="3">
-        <v>336000</v>
+        <v>333700</v>
       </c>
       <c r="G24" s="3">
-        <v>320700</v>
+        <v>318500</v>
       </c>
       <c r="H24" s="3">
-        <v>151300</v>
+        <v>150300</v>
       </c>
       <c r="I24" s="3">
-        <v>66700</v>
+        <v>66200</v>
       </c>
       <c r="J24" s="3">
-        <v>148800</v>
+        <v>147800</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>995300</v>
+        <v>988500</v>
       </c>
       <c r="E26" s="3">
-        <v>-192400</v>
+        <v>-191100</v>
       </c>
       <c r="F26" s="3">
-        <v>1038900</v>
+        <v>1031800</v>
       </c>
       <c r="G26" s="3">
-        <v>764400</v>
+        <v>759200</v>
       </c>
       <c r="H26" s="3">
-        <v>418100</v>
+        <v>415300</v>
       </c>
       <c r="I26" s="3">
-        <v>133400</v>
+        <v>132500</v>
       </c>
       <c r="J26" s="3">
-        <v>332200</v>
+        <v>329900</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>995300</v>
+        <v>988500</v>
       </c>
       <c r="E27" s="3">
-        <v>-192400</v>
+        <v>-191100</v>
       </c>
       <c r="F27" s="3">
-        <v>1038900</v>
+        <v>1031800</v>
       </c>
       <c r="G27" s="3">
-        <v>764400</v>
+        <v>759200</v>
       </c>
       <c r="H27" s="3">
-        <v>418100</v>
+        <v>415300</v>
       </c>
       <c r="I27" s="3">
-        <v>133400</v>
+        <v>132500</v>
       </c>
       <c r="J27" s="3">
-        <v>332200</v>
+        <v>329900</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="E32" s="3">
-        <v>20500</v>
+        <v>20400</v>
       </c>
       <c r="F32" s="3">
-        <v>-43600</v>
+        <v>-43300</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="I32" s="3">
-        <v>89800</v>
+        <v>89200</v>
       </c>
       <c r="J32" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>995300</v>
+        <v>988500</v>
       </c>
       <c r="E33" s="3">
-        <v>-192400</v>
+        <v>-191100</v>
       </c>
       <c r="F33" s="3">
-        <v>1038900</v>
+        <v>1031800</v>
       </c>
       <c r="G33" s="3">
-        <v>764400</v>
+        <v>759200</v>
       </c>
       <c r="H33" s="3">
-        <v>418100</v>
+        <v>415300</v>
       </c>
       <c r="I33" s="3">
-        <v>133400</v>
+        <v>132500</v>
       </c>
       <c r="J33" s="3">
-        <v>332200</v>
+        <v>329900</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>995300</v>
+        <v>988500</v>
       </c>
       <c r="E35" s="3">
-        <v>-192400</v>
+        <v>-191100</v>
       </c>
       <c r="F35" s="3">
-        <v>1038900</v>
+        <v>1031800</v>
       </c>
       <c r="G35" s="3">
-        <v>764400</v>
+        <v>759200</v>
       </c>
       <c r="H35" s="3">
-        <v>418100</v>
+        <v>415300</v>
       </c>
       <c r="I35" s="3">
-        <v>133400</v>
+        <v>132500</v>
       </c>
       <c r="J35" s="3">
-        <v>332200</v>
+        <v>329900</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>591300</v>
+        <v>587200</v>
       </c>
       <c r="E41" s="3">
-        <v>20500</v>
+        <v>20400</v>
       </c>
       <c r="F41" s="3">
-        <v>205200</v>
+        <v>203800</v>
       </c>
       <c r="G41" s="3">
-        <v>330900</v>
+        <v>328600</v>
       </c>
       <c r="H41" s="3">
-        <v>64100</v>
+        <v>63700</v>
       </c>
       <c r="I41" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="J41" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>818300</v>
+        <v>812700</v>
       </c>
       <c r="E43" s="3">
-        <v>504100</v>
+        <v>500600</v>
       </c>
       <c r="F43" s="3">
-        <v>487400</v>
+        <v>484000</v>
       </c>
       <c r="G43" s="3">
-        <v>451500</v>
+        <v>448400</v>
       </c>
       <c r="H43" s="3">
-        <v>380900</v>
+        <v>378300</v>
       </c>
       <c r="I43" s="3">
-        <v>396300</v>
+        <v>393600</v>
       </c>
       <c r="J43" s="3">
-        <v>369400</v>
+        <v>366900</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>741300</v>
+        <v>736300</v>
       </c>
       <c r="E44" s="3">
-        <v>935000</v>
+        <v>928600</v>
       </c>
       <c r="F44" s="3">
-        <v>1014500</v>
+        <v>1007600</v>
       </c>
       <c r="G44" s="3">
-        <v>859300</v>
+        <v>853400</v>
       </c>
       <c r="H44" s="3">
-        <v>745200</v>
+        <v>740100</v>
       </c>
       <c r="I44" s="3">
-        <v>809300</v>
+        <v>803800</v>
       </c>
       <c r="J44" s="3">
-        <v>751600</v>
+        <v>746400</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="E45" s="3">
         <v>11500</v>
       </c>
       <c r="F45" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="G45" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="H45" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="I45" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="J45" s="3">
-        <v>24400</v>
+        <v>24200</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1713600</v>
+        <v>1701800</v>
       </c>
       <c r="E46" s="3">
-        <v>1471100</v>
+        <v>1461000</v>
       </c>
       <c r="F46" s="3">
-        <v>1725100</v>
+        <v>1713300</v>
       </c>
       <c r="G46" s="3">
-        <v>1655800</v>
+        <v>1644500</v>
       </c>
       <c r="H46" s="3">
-        <v>1203100</v>
+        <v>1194800</v>
       </c>
       <c r="I46" s="3">
-        <v>1245400</v>
+        <v>1236900</v>
       </c>
       <c r="J46" s="3">
-        <v>1163300</v>
+        <v>1155300</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4831600</v>
+        <v>4798400</v>
       </c>
       <c r="E48" s="3">
-        <v>2744800</v>
+        <v>2725900</v>
       </c>
       <c r="F48" s="3">
-        <v>2637000</v>
+        <v>2618900</v>
       </c>
       <c r="G48" s="3">
-        <v>2426700</v>
+        <v>2410000</v>
       </c>
       <c r="H48" s="3">
-        <v>2161200</v>
+        <v>2146400</v>
       </c>
       <c r="I48" s="3">
-        <v>2063700</v>
+        <v>2049500</v>
       </c>
       <c r="J48" s="3">
-        <v>1884100</v>
+        <v>1871200</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2807600</v>
+        <v>2788300</v>
       </c>
       <c r="E49" s="3">
-        <v>1622500</v>
+        <v>1611400</v>
       </c>
       <c r="F49" s="3">
-        <v>1641700</v>
+        <v>1630500</v>
       </c>
       <c r="G49" s="3">
-        <v>1621200</v>
+        <v>1610100</v>
       </c>
       <c r="H49" s="3">
-        <v>1182600</v>
+        <v>1174400</v>
       </c>
       <c r="I49" s="3">
-        <v>1204400</v>
+        <v>1196100</v>
       </c>
       <c r="J49" s="3">
-        <v>1128700</v>
+        <v>1120900</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>341200</v>
+        <v>338800</v>
       </c>
       <c r="E52" s="3">
-        <v>148800</v>
+        <v>147800</v>
       </c>
       <c r="F52" s="3">
-        <v>141100</v>
+        <v>140100</v>
       </c>
       <c r="G52" s="3">
-        <v>89800</v>
+        <v>89200</v>
       </c>
       <c r="H52" s="3">
-        <v>70500</v>
+        <v>70100</v>
       </c>
       <c r="I52" s="3">
-        <v>148800</v>
+        <v>147800</v>
       </c>
       <c r="J52" s="3">
-        <v>180800</v>
+        <v>179600</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5358700</v>
+        <v>5321900</v>
       </c>
       <c r="E54" s="3">
-        <v>5987200</v>
+        <v>5946100</v>
       </c>
       <c r="F54" s="3">
-        <v>6144900</v>
+        <v>6102800</v>
       </c>
       <c r="G54" s="3">
-        <v>5793500</v>
+        <v>5753800</v>
       </c>
       <c r="H54" s="3">
-        <v>4617400</v>
+        <v>4585700</v>
       </c>
       <c r="I54" s="3">
-        <v>4662300</v>
+        <v>4630300</v>
       </c>
       <c r="J54" s="3">
-        <v>4357000</v>
+        <v>4327100</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>851600</v>
+        <v>845800</v>
       </c>
       <c r="E57" s="3">
-        <v>306500</v>
+        <v>304400</v>
       </c>
       <c r="F57" s="3">
-        <v>333500</v>
+        <v>331200</v>
       </c>
       <c r="G57" s="3">
-        <v>313000</v>
+        <v>310800</v>
       </c>
       <c r="H57" s="3">
-        <v>270600</v>
+        <v>268800</v>
       </c>
       <c r="I57" s="3">
-        <v>242400</v>
+        <v>240700</v>
       </c>
       <c r="J57" s="3">
-        <v>259100</v>
+        <v>257300</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="E58" s="3">
-        <v>516900</v>
+        <v>513300</v>
       </c>
       <c r="F58" s="3">
-        <v>94900</v>
+        <v>94300</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="I58" s="3">
-        <v>265500</v>
+        <v>263700</v>
       </c>
       <c r="J58" s="3">
-        <v>178300</v>
+        <v>177100</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>451500</v>
+        <v>448400</v>
       </c>
       <c r="E59" s="3">
-        <v>250100</v>
+        <v>248400</v>
       </c>
       <c r="F59" s="3">
-        <v>334800</v>
+        <v>332500</v>
       </c>
       <c r="G59" s="3">
-        <v>434800</v>
+        <v>431800</v>
       </c>
       <c r="H59" s="3">
-        <v>298800</v>
+        <v>296800</v>
       </c>
       <c r="I59" s="3">
-        <v>269300</v>
+        <v>267500</v>
       </c>
       <c r="J59" s="3">
-        <v>352700</v>
+        <v>350300</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>677200</v>
+        <v>672600</v>
       </c>
       <c r="E60" s="3">
-        <v>1073500</v>
+        <v>1066200</v>
       </c>
       <c r="F60" s="3">
-        <v>763100</v>
+        <v>757900</v>
       </c>
       <c r="G60" s="3">
-        <v>747800</v>
+        <v>742600</v>
       </c>
       <c r="H60" s="3">
-        <v>588700</v>
+        <v>584700</v>
       </c>
       <c r="I60" s="3">
-        <v>777300</v>
+        <v>771900</v>
       </c>
       <c r="J60" s="3">
-        <v>790100</v>
+        <v>784700</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>641300</v>
+        <v>636900</v>
       </c>
       <c r="E61" s="3">
-        <v>844000</v>
+        <v>838200</v>
       </c>
       <c r="F61" s="3">
-        <v>887600</v>
+        <v>881500</v>
       </c>
       <c r="G61" s="3">
-        <v>815700</v>
+        <v>810100</v>
       </c>
       <c r="H61" s="3">
-        <v>529700</v>
+        <v>526100</v>
       </c>
       <c r="I61" s="3">
-        <v>542500</v>
+        <v>538800</v>
       </c>
       <c r="J61" s="3">
-        <v>454000</v>
+        <v>450900</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>910600</v>
+        <v>904400</v>
       </c>
       <c r="E62" s="3">
-        <v>896500</v>
+        <v>890400</v>
       </c>
       <c r="F62" s="3">
-        <v>779800</v>
+        <v>774500</v>
       </c>
       <c r="G62" s="3">
-        <v>733600</v>
+        <v>728600</v>
       </c>
       <c r="H62" s="3">
-        <v>624600</v>
+        <v>620300</v>
       </c>
       <c r="I62" s="3">
-        <v>588700</v>
+        <v>584700</v>
       </c>
       <c r="J62" s="3">
-        <v>510500</v>
+        <v>507000</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2180400</v>
+        <v>2165500</v>
       </c>
       <c r="E66" s="3">
-        <v>2814000</v>
+        <v>2794700</v>
       </c>
       <c r="F66" s="3">
-        <v>2430500</v>
+        <v>2413900</v>
       </c>
       <c r="G66" s="3">
-        <v>2297100</v>
+        <v>2281400</v>
       </c>
       <c r="H66" s="3">
-        <v>1743100</v>
+        <v>1731100</v>
       </c>
       <c r="I66" s="3">
-        <v>1908500</v>
+        <v>1895400</v>
       </c>
       <c r="J66" s="3">
-        <v>1754600</v>
+        <v>1742600</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2869200</v>
+        <v>2849500</v>
       </c>
       <c r="E72" s="3">
-        <v>2384400</v>
+        <v>2368000</v>
       </c>
       <c r="F72" s="3">
-        <v>2866600</v>
+        <v>2846900</v>
       </c>
       <c r="G72" s="3">
-        <v>2653700</v>
+        <v>2635500</v>
       </c>
       <c r="H72" s="3">
-        <v>1977800</v>
+        <v>1964200</v>
       </c>
       <c r="I72" s="3">
-        <v>1800800</v>
+        <v>1788400</v>
       </c>
       <c r="J72" s="3">
-        <v>1779000</v>
+        <v>1766800</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3178300</v>
+        <v>3156500</v>
       </c>
       <c r="E76" s="3">
-        <v>3173200</v>
+        <v>3151400</v>
       </c>
       <c r="F76" s="3">
-        <v>3714400</v>
+        <v>3688900</v>
       </c>
       <c r="G76" s="3">
-        <v>3496400</v>
+        <v>3472400</v>
       </c>
       <c r="H76" s="3">
-        <v>2874300</v>
+        <v>2854600</v>
       </c>
       <c r="I76" s="3">
-        <v>2753700</v>
+        <v>2734800</v>
       </c>
       <c r="J76" s="3">
-        <v>2602400</v>
+        <v>2584500</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>995300</v>
+        <v>988500</v>
       </c>
       <c r="E81" s="3">
-        <v>-192400</v>
+        <v>-191100</v>
       </c>
       <c r="F81" s="3">
-        <v>1038900</v>
+        <v>1031800</v>
       </c>
       <c r="G81" s="3">
-        <v>764400</v>
+        <v>759200</v>
       </c>
       <c r="H81" s="3">
-        <v>418100</v>
+        <v>415300</v>
       </c>
       <c r="I81" s="3">
-        <v>133400</v>
+        <v>132500</v>
       </c>
       <c r="J81" s="3">
-        <v>332200</v>
+        <v>329900</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>348900</v>
+        <v>346500</v>
       </c>
       <c r="E83" s="3">
-        <v>332200</v>
+        <v>329900</v>
       </c>
       <c r="F83" s="3">
-        <v>329600</v>
+        <v>327400</v>
       </c>
       <c r="G83" s="3">
-        <v>269300</v>
+        <v>267500</v>
       </c>
       <c r="H83" s="3">
-        <v>252700</v>
+        <v>250900</v>
       </c>
       <c r="I83" s="3">
-        <v>245000</v>
+        <v>243300</v>
       </c>
       <c r="J83" s="3">
-        <v>218000</v>
+        <v>216500</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1661000</v>
+        <v>1649600</v>
       </c>
       <c r="E89" s="3">
-        <v>147500</v>
+        <v>146500</v>
       </c>
       <c r="F89" s="3">
-        <v>1165900</v>
+        <v>1157900</v>
       </c>
       <c r="G89" s="3">
-        <v>1156900</v>
+        <v>1149000</v>
       </c>
       <c r="H89" s="3">
-        <v>883700</v>
+        <v>877600</v>
       </c>
       <c r="I89" s="3">
-        <v>386100</v>
+        <v>383400</v>
       </c>
       <c r="J89" s="3">
-        <v>609200</v>
+        <v>605100</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-309100</v>
+        <v>-307000</v>
       </c>
       <c r="E91" s="3">
-        <v>-525900</v>
+        <v>-522300</v>
       </c>
       <c r="F91" s="3">
-        <v>-474600</v>
+        <v>-471300</v>
       </c>
       <c r="G91" s="3">
-        <v>-431000</v>
+        <v>-428000</v>
       </c>
       <c r="H91" s="3">
-        <v>-350100</v>
+        <v>-347700</v>
       </c>
       <c r="I91" s="3">
-        <v>-282200</v>
+        <v>-280200</v>
       </c>
       <c r="J91" s="3">
-        <v>-525900</v>
+        <v>-522300</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-284700</v>
+        <v>-282800</v>
       </c>
       <c r="E94" s="3">
-        <v>-501500</v>
+        <v>-498100</v>
       </c>
       <c r="F94" s="3">
-        <v>-454000</v>
+        <v>-450900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1095300</v>
+        <v>-1087800</v>
       </c>
       <c r="H94" s="3">
-        <v>-337300</v>
+        <v>-335000</v>
       </c>
       <c r="I94" s="3">
-        <v>-369400</v>
+        <v>-366900</v>
       </c>
       <c r="J94" s="3">
-        <v>-782400</v>
+        <v>-777000</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-70500</v>
+        <v>-70100</v>
       </c>
       <c r="E96" s="3">
-        <v>-70500</v>
+        <v>-70100</v>
       </c>
       <c r="F96" s="3">
-        <v>-47500</v>
+        <v>-47100</v>
       </c>
       <c r="G96" s="3">
-        <v>-35900</v>
+        <v>-35700</v>
       </c>
       <c r="H96" s="3">
-        <v>-28200</v>
+        <v>-28000</v>
       </c>
       <c r="I96" s="3">
-        <v>-29500</v>
+        <v>-29300</v>
       </c>
       <c r="J96" s="3">
-        <v>-30800</v>
+        <v>-30600</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-610500</v>
+        <v>-606300</v>
       </c>
       <c r="E100" s="3">
-        <v>166700</v>
+        <v>165600</v>
       </c>
       <c r="F100" s="3">
-        <v>-873500</v>
+        <v>-867500</v>
       </c>
       <c r="G100" s="3">
-        <v>232200</v>
+        <v>230600</v>
       </c>
       <c r="H100" s="3">
-        <v>-531000</v>
+        <v>-527400</v>
       </c>
       <c r="I100" s="3">
-        <v>-48700</v>
+        <v>-48400</v>
       </c>
       <c r="J100" s="3">
-        <v>-70500</v>
+        <v>-70100</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,25 +2967,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12800</v>
+        <v>-12700</v>
       </c>
       <c r="E101" s="3">
         <v>-1300</v>
       </c>
       <c r="F101" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="G101" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="H101" s="3">
-        <v>50000</v>
+        <v>49700</v>
       </c>
       <c r="I101" s="3">
-        <v>30800</v>
+        <v>30600</v>
       </c>
       <c r="J101" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>752900</v>
+        <v>747700</v>
       </c>
       <c r="E102" s="3">
-        <v>-188500</v>
+        <v>-187200</v>
       </c>
       <c r="F102" s="3">
-        <v>-142400</v>
+        <v>-141400</v>
       </c>
       <c r="G102" s="3">
-        <v>286000</v>
+        <v>284100</v>
       </c>
       <c r="H102" s="3">
-        <v>65400</v>
+        <v>65000</v>
       </c>
       <c r="I102" s="3">
         <v>-1300</v>
       </c>
       <c r="J102" s="3">
-        <v>-227000</v>
+        <v>-225500</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>WFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7451700</v>
+        <v>13403100</v>
       </c>
       <c r="E8" s="3">
-        <v>6212300</v>
+        <v>5572500</v>
       </c>
       <c r="F8" s="3">
-        <v>7793100</v>
+        <v>6214800</v>
       </c>
       <c r="G8" s="3">
-        <v>6539700</v>
+        <v>7796200</v>
       </c>
       <c r="H8" s="3">
-        <v>5668400</v>
+        <v>6542300</v>
       </c>
       <c r="I8" s="3">
-        <v>5222600</v>
+        <v>5670600</v>
       </c>
       <c r="J8" s="3">
+        <v>5224600</v>
+      </c>
+      <c r="K8" s="3">
         <v>4911800</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4678700</v>
+        <v>5919100</v>
       </c>
       <c r="E9" s="3">
-        <v>4651900</v>
+        <v>7941400</v>
       </c>
       <c r="F9" s="3">
-        <v>4607300</v>
+        <v>4653700</v>
       </c>
       <c r="G9" s="3">
-        <v>3979400</v>
+        <v>4609100</v>
       </c>
       <c r="H9" s="3">
-        <v>3784500</v>
+        <v>3980900</v>
       </c>
       <c r="I9" s="3">
-        <v>3660900</v>
+        <v>3785900</v>
       </c>
       <c r="J9" s="3">
+        <v>3662300</v>
+      </c>
+      <c r="K9" s="3">
         <v>3232900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2773100</v>
+        <v>7484000</v>
       </c>
       <c r="E10" s="3">
-        <v>1560400</v>
+        <v>-2368900</v>
       </c>
       <c r="F10" s="3">
-        <v>3185800</v>
+        <v>1561000</v>
       </c>
       <c r="G10" s="3">
-        <v>2560300</v>
+        <v>3187000</v>
       </c>
       <c r="H10" s="3">
-        <v>1884000</v>
+        <v>2561300</v>
       </c>
       <c r="I10" s="3">
-        <v>1561700</v>
+        <v>1884700</v>
       </c>
       <c r="J10" s="3">
+        <v>1562300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1678900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,20 +868,23 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>42000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>42100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -876,39 +895,45 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>42000</v>
+        <v>821900</v>
       </c>
       <c r="E15" s="3">
-        <v>329900</v>
+        <v>314800</v>
       </c>
       <c r="F15" s="3">
-        <v>327400</v>
+        <v>330000</v>
       </c>
       <c r="G15" s="3">
-        <v>267500</v>
+        <v>327500</v>
       </c>
       <c r="H15" s="3">
-        <v>250900</v>
+        <v>267600</v>
       </c>
       <c r="I15" s="3">
-        <v>243300</v>
+        <v>251000</v>
       </c>
       <c r="J15" s="3">
+        <v>243400</v>
+      </c>
+      <c r="K15" s="3">
         <v>216500</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6053100</v>
+        <v>8376000</v>
       </c>
       <c r="E17" s="3">
-        <v>6414900</v>
+        <v>4513600</v>
       </c>
       <c r="F17" s="3">
-        <v>6427600</v>
+        <v>6417400</v>
       </c>
       <c r="G17" s="3">
-        <v>5431500</v>
+        <v>6430100</v>
       </c>
       <c r="H17" s="3">
-        <v>5054400</v>
+        <v>5433600</v>
       </c>
       <c r="I17" s="3">
-        <v>4905400</v>
+        <v>5056400</v>
       </c>
       <c r="J17" s="3">
+        <v>4907300</v>
+      </c>
+      <c r="K17" s="3">
         <v>4394600</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1398600</v>
+        <v>5027100</v>
       </c>
       <c r="E18" s="3">
-        <v>-202500</v>
+        <v>1058900</v>
       </c>
       <c r="F18" s="3">
-        <v>1365500</v>
+        <v>-202600</v>
       </c>
       <c r="G18" s="3">
-        <v>1108200</v>
+        <v>1366000</v>
       </c>
       <c r="H18" s="3">
-        <v>614000</v>
+        <v>1108600</v>
       </c>
       <c r="I18" s="3">
-        <v>317200</v>
+        <v>614200</v>
       </c>
       <c r="J18" s="3">
+        <v>317300</v>
+      </c>
+      <c r="K18" s="3">
         <v>517200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16600</v>
+        <v>1300</v>
       </c>
       <c r="E20" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-20400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>43300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-17800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-89200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-10200</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1729900</v>
+        <v>5776100</v>
       </c>
       <c r="E21" s="3">
-        <v>108200</v>
+        <v>1307400</v>
       </c>
       <c r="F21" s="3">
-        <v>1737400</v>
+        <v>108600</v>
       </c>
       <c r="G21" s="3">
-        <v>1376700</v>
+        <v>1738400</v>
       </c>
       <c r="H21" s="3">
-        <v>848000</v>
+        <v>1377500</v>
       </c>
       <c r="I21" s="3">
-        <v>472200</v>
+        <v>848600</v>
       </c>
       <c r="J21" s="3">
+        <v>472700</v>
+      </c>
+      <c r="K21" s="3">
         <v>724300</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>54800</v>
+        <v>61200</v>
       </c>
       <c r="E22" s="3">
-        <v>56000</v>
+        <v>40800</v>
       </c>
       <c r="F22" s="3">
+        <v>56100</v>
+      </c>
+      <c r="G22" s="3">
         <v>43300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>30600</v>
       </c>
       <c r="H22" s="3">
         <v>30600</v>
       </c>
       <c r="I22" s="3">
-        <v>29300</v>
+        <v>30600</v>
       </c>
       <c r="J22" s="3">
         <v>29300</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>29300</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1327300</v>
+        <v>4967200</v>
       </c>
       <c r="E23" s="3">
-        <v>-279000</v>
+        <v>1006700</v>
       </c>
       <c r="F23" s="3">
-        <v>1365500</v>
+        <v>-279100</v>
       </c>
       <c r="G23" s="3">
-        <v>1077600</v>
+        <v>1366000</v>
       </c>
       <c r="H23" s="3">
-        <v>565600</v>
+        <v>1078100</v>
       </c>
       <c r="I23" s="3">
-        <v>198700</v>
+        <v>565800</v>
       </c>
       <c r="J23" s="3">
+        <v>198800</v>
+      </c>
+      <c r="K23" s="3">
         <v>477700</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>338800</v>
+        <v>1211900</v>
       </c>
       <c r="E24" s="3">
+        <v>257400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-87900</v>
       </c>
-      <c r="F24" s="3">
-        <v>333700</v>
-      </c>
       <c r="G24" s="3">
-        <v>318500</v>
+        <v>333900</v>
       </c>
       <c r="H24" s="3">
-        <v>150300</v>
+        <v>318600</v>
       </c>
       <c r="I24" s="3">
-        <v>66200</v>
+        <v>150400</v>
       </c>
       <c r="J24" s="3">
+        <v>66300</v>
+      </c>
+      <c r="K24" s="3">
         <v>147800</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>988500</v>
+        <v>3755400</v>
       </c>
       <c r="E26" s="3">
+        <v>749300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-191100</v>
       </c>
-      <c r="F26" s="3">
-        <v>1031800</v>
-      </c>
       <c r="G26" s="3">
-        <v>759200</v>
+        <v>1032200</v>
       </c>
       <c r="H26" s="3">
-        <v>415300</v>
+        <v>759500</v>
       </c>
       <c r="I26" s="3">
+        <v>415400</v>
+      </c>
+      <c r="J26" s="3">
         <v>132500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>329900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>988500</v>
+        <v>3755400</v>
       </c>
       <c r="E27" s="3">
+        <v>749300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-191100</v>
       </c>
-      <c r="F27" s="3">
-        <v>1031800</v>
-      </c>
       <c r="G27" s="3">
-        <v>759200</v>
+        <v>1032200</v>
       </c>
       <c r="H27" s="3">
-        <v>415300</v>
+        <v>759500</v>
       </c>
       <c r="I27" s="3">
+        <v>415400</v>
+      </c>
+      <c r="J27" s="3">
         <v>132500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>329900</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16600</v>
+        <v>-1300</v>
       </c>
       <c r="E32" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F32" s="3">
         <v>20400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-43300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>17800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>89200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>10200</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>988500</v>
+        <v>3755400</v>
       </c>
       <c r="E33" s="3">
+        <v>749300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-191100</v>
       </c>
-      <c r="F33" s="3">
-        <v>1031800</v>
-      </c>
       <c r="G33" s="3">
-        <v>759200</v>
+        <v>1032200</v>
       </c>
       <c r="H33" s="3">
-        <v>415300</v>
+        <v>759500</v>
       </c>
       <c r="I33" s="3">
+        <v>415400</v>
+      </c>
+      <c r="J33" s="3">
         <v>132500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>329900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>988500</v>
+        <v>3755400</v>
       </c>
       <c r="E35" s="3">
+        <v>749300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-191100</v>
       </c>
-      <c r="F35" s="3">
-        <v>1031800</v>
-      </c>
       <c r="G35" s="3">
-        <v>759200</v>
+        <v>1032200</v>
       </c>
       <c r="H35" s="3">
-        <v>415300</v>
+        <v>759500</v>
       </c>
       <c r="I35" s="3">
+        <v>415400</v>
+      </c>
+      <c r="J35" s="3">
         <v>132500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>329900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1559,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>587200</v>
+        <v>1998100</v>
       </c>
       <c r="E41" s="3">
+        <v>587500</v>
+      </c>
+      <c r="F41" s="3">
         <v>20400</v>
       </c>
-      <c r="F41" s="3">
-        <v>203800</v>
-      </c>
       <c r="G41" s="3">
-        <v>328600</v>
+        <v>203900</v>
       </c>
       <c r="H41" s="3">
+        <v>328800</v>
+      </c>
+      <c r="I41" s="3">
         <v>63700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17800</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,117 +1616,132 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>812700</v>
+        <v>700900</v>
       </c>
       <c r="E43" s="3">
-        <v>500600</v>
+        <v>759500</v>
       </c>
       <c r="F43" s="3">
-        <v>484000</v>
+        <v>500800</v>
       </c>
       <c r="G43" s="3">
-        <v>448400</v>
+        <v>484200</v>
       </c>
       <c r="H43" s="3">
-        <v>378300</v>
+        <v>448600</v>
       </c>
       <c r="I43" s="3">
-        <v>393600</v>
+        <v>378500</v>
       </c>
       <c r="J43" s="3">
+        <v>393800</v>
+      </c>
+      <c r="K43" s="3">
         <v>366900</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>736300</v>
+        <v>1352000</v>
       </c>
       <c r="E44" s="3">
-        <v>928600</v>
+        <v>736500</v>
       </c>
       <c r="F44" s="3">
-        <v>1007600</v>
+        <v>929000</v>
       </c>
       <c r="G44" s="3">
-        <v>853400</v>
+        <v>1008000</v>
       </c>
       <c r="H44" s="3">
-        <v>740100</v>
+        <v>853800</v>
       </c>
       <c r="I44" s="3">
-        <v>803800</v>
+        <v>740400</v>
       </c>
       <c r="J44" s="3">
+        <v>804100</v>
+      </c>
+      <c r="K44" s="3">
         <v>746400</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E45" s="3">
         <v>15300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24200</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1701800</v>
+        <v>4099400</v>
       </c>
       <c r="E46" s="3">
-        <v>1461000</v>
+        <v>1702500</v>
       </c>
       <c r="F46" s="3">
-        <v>1713300</v>
+        <v>1461600</v>
       </c>
       <c r="G46" s="3">
-        <v>1644500</v>
+        <v>1713900</v>
       </c>
       <c r="H46" s="3">
-        <v>1194800</v>
+        <v>1645100</v>
       </c>
       <c r="I46" s="3">
-        <v>1236900</v>
+        <v>1195300</v>
       </c>
       <c r="J46" s="3">
+        <v>1237300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1155300</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1662,63 +1766,72 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4798400</v>
+        <v>5224600</v>
       </c>
       <c r="E48" s="3">
-        <v>2725900</v>
+        <v>2111500</v>
       </c>
       <c r="F48" s="3">
-        <v>2618900</v>
+        <v>2727000</v>
       </c>
       <c r="G48" s="3">
-        <v>2410000</v>
+        <v>2620000</v>
       </c>
       <c r="H48" s="3">
-        <v>2146400</v>
+        <v>2411000</v>
       </c>
       <c r="I48" s="3">
-        <v>2049500</v>
+        <v>2147200</v>
       </c>
       <c r="J48" s="3">
+        <v>2050300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1871200</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2788300</v>
+        <v>3578200</v>
       </c>
       <c r="E49" s="3">
-        <v>1611400</v>
+        <v>1227200</v>
       </c>
       <c r="F49" s="3">
-        <v>1630500</v>
+        <v>1612000</v>
       </c>
       <c r="G49" s="3">
-        <v>1610100</v>
+        <v>1631100</v>
       </c>
       <c r="H49" s="3">
-        <v>1174400</v>
+        <v>1610700</v>
       </c>
       <c r="I49" s="3">
-        <v>1196100</v>
+        <v>1174900</v>
       </c>
       <c r="J49" s="3">
+        <v>1196600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1120900</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>338800</v>
+        <v>392500</v>
       </c>
       <c r="E52" s="3">
+        <v>282900</v>
+      </c>
+      <c r="F52" s="3">
         <v>147800</v>
       </c>
-      <c r="F52" s="3">
-        <v>140100</v>
-      </c>
       <c r="G52" s="3">
+        <v>140200</v>
+      </c>
+      <c r="H52" s="3">
         <v>89200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>70100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>147800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>179600</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5321900</v>
+        <v>13294800</v>
       </c>
       <c r="E54" s="3">
-        <v>5946100</v>
+        <v>5324000</v>
       </c>
       <c r="F54" s="3">
-        <v>6102800</v>
+        <v>5948400</v>
       </c>
       <c r="G54" s="3">
-        <v>5753800</v>
+        <v>6105200</v>
       </c>
       <c r="H54" s="3">
-        <v>4585700</v>
+        <v>5756000</v>
       </c>
       <c r="I54" s="3">
-        <v>4630300</v>
+        <v>4587500</v>
       </c>
       <c r="J54" s="3">
+        <v>4632100</v>
+      </c>
+      <c r="K54" s="3">
         <v>4327100</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>845800</v>
+        <v>688100</v>
       </c>
       <c r="E57" s="3">
-        <v>304400</v>
+        <v>288000</v>
       </c>
       <c r="F57" s="3">
-        <v>331200</v>
+        <v>304600</v>
       </c>
       <c r="G57" s="3">
-        <v>310800</v>
+        <v>331300</v>
       </c>
       <c r="H57" s="3">
-        <v>268800</v>
+        <v>310900</v>
       </c>
       <c r="I57" s="3">
-        <v>240700</v>
+        <v>268900</v>
       </c>
       <c r="J57" s="3">
+        <v>240800</v>
+      </c>
+      <c r="K57" s="3">
         <v>257300</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8900</v>
+        <v>14000</v>
       </c>
       <c r="E58" s="3">
-        <v>513300</v>
+        <v>11500</v>
       </c>
       <c r="F58" s="3">
+        <v>513500</v>
+      </c>
+      <c r="G58" s="3">
         <v>94300</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>19100</v>
       </c>
-      <c r="I58" s="3">
-        <v>263700</v>
-      </c>
       <c r="J58" s="3">
+        <v>263800</v>
+      </c>
+      <c r="K58" s="3">
         <v>177100</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>448400</v>
+        <v>834700</v>
       </c>
       <c r="E59" s="3">
-        <v>248400</v>
+        <v>373400</v>
       </c>
       <c r="F59" s="3">
-        <v>332500</v>
+        <v>248500</v>
       </c>
       <c r="G59" s="3">
-        <v>431800</v>
+        <v>332600</v>
       </c>
       <c r="H59" s="3">
-        <v>296800</v>
+        <v>432000</v>
       </c>
       <c r="I59" s="3">
-        <v>267500</v>
+        <v>296900</v>
       </c>
       <c r="J59" s="3">
+        <v>267600</v>
+      </c>
+      <c r="K59" s="3">
         <v>350300</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>672600</v>
+        <v>1536800</v>
       </c>
       <c r="E60" s="3">
-        <v>1066200</v>
+        <v>672800</v>
       </c>
       <c r="F60" s="3">
-        <v>757900</v>
+        <v>1066600</v>
       </c>
       <c r="G60" s="3">
-        <v>742600</v>
+        <v>758200</v>
       </c>
       <c r="H60" s="3">
-        <v>584700</v>
+        <v>742900</v>
       </c>
       <c r="I60" s="3">
-        <v>771900</v>
+        <v>584900</v>
       </c>
       <c r="J60" s="3">
+        <v>772200</v>
+      </c>
+      <c r="K60" s="3">
         <v>784700</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>636900</v>
+        <v>635900</v>
       </c>
       <c r="E61" s="3">
-        <v>838200</v>
+        <v>637100</v>
       </c>
       <c r="F61" s="3">
-        <v>881500</v>
+        <v>838500</v>
       </c>
       <c r="G61" s="3">
-        <v>810100</v>
+        <v>881800</v>
       </c>
       <c r="H61" s="3">
-        <v>526100</v>
+        <v>810500</v>
       </c>
       <c r="I61" s="3">
-        <v>538800</v>
+        <v>526300</v>
       </c>
       <c r="J61" s="3">
+        <v>539000</v>
+      </c>
+      <c r="K61" s="3">
         <v>450900</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>904400</v>
+        <v>1366000</v>
       </c>
       <c r="E62" s="3">
-        <v>890400</v>
+        <v>856300</v>
       </c>
       <c r="F62" s="3">
-        <v>774500</v>
+        <v>890700</v>
       </c>
       <c r="G62" s="3">
-        <v>728600</v>
+        <v>774800</v>
       </c>
       <c r="H62" s="3">
-        <v>620300</v>
+        <v>728900</v>
       </c>
       <c r="I62" s="3">
-        <v>584700</v>
+        <v>620600</v>
       </c>
       <c r="J62" s="3">
+        <v>584900</v>
+      </c>
+      <c r="K62" s="3">
         <v>507000</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2165500</v>
+        <v>3538700</v>
       </c>
       <c r="E66" s="3">
-        <v>2794700</v>
+        <v>2166300</v>
       </c>
       <c r="F66" s="3">
-        <v>2413900</v>
+        <v>2795800</v>
       </c>
       <c r="G66" s="3">
-        <v>2281400</v>
+        <v>2414800</v>
       </c>
       <c r="H66" s="3">
-        <v>1731100</v>
+        <v>2282300</v>
       </c>
       <c r="I66" s="3">
-        <v>1895400</v>
+        <v>1731800</v>
       </c>
       <c r="J66" s="3">
+        <v>1896200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1742600</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2849500</v>
+        <v>5738200</v>
       </c>
       <c r="E72" s="3">
-        <v>2368000</v>
+        <v>2850600</v>
       </c>
       <c r="F72" s="3">
-        <v>2846900</v>
+        <v>2368900</v>
       </c>
       <c r="G72" s="3">
-        <v>2635500</v>
+        <v>2848100</v>
       </c>
       <c r="H72" s="3">
-        <v>1964200</v>
+        <v>2636500</v>
       </c>
       <c r="I72" s="3">
-        <v>1788400</v>
+        <v>1965000</v>
       </c>
       <c r="J72" s="3">
+        <v>1789100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1766800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3156500</v>
+        <v>9756000</v>
       </c>
       <c r="E76" s="3">
-        <v>3151400</v>
+        <v>3157700</v>
       </c>
       <c r="F76" s="3">
-        <v>3688900</v>
+        <v>3152600</v>
       </c>
       <c r="G76" s="3">
-        <v>3472400</v>
+        <v>3690400</v>
       </c>
       <c r="H76" s="3">
-        <v>2854600</v>
+        <v>3473700</v>
       </c>
       <c r="I76" s="3">
-        <v>2734800</v>
+        <v>2855700</v>
       </c>
       <c r="J76" s="3">
+        <v>2735900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2584500</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>988500</v>
+        <v>3755400</v>
       </c>
       <c r="E81" s="3">
+        <v>749300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-191100</v>
       </c>
-      <c r="F81" s="3">
-        <v>1031800</v>
-      </c>
       <c r="G81" s="3">
-        <v>759200</v>
+        <v>1032200</v>
       </c>
       <c r="H81" s="3">
-        <v>415300</v>
+        <v>759500</v>
       </c>
       <c r="I81" s="3">
+        <v>415400</v>
+      </c>
+      <c r="J81" s="3">
         <v>132500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>329900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>346500</v>
+        <v>744200</v>
       </c>
       <c r="E83" s="3">
-        <v>329900</v>
+        <v>258700</v>
       </c>
       <c r="F83" s="3">
-        <v>327400</v>
+        <v>330000</v>
       </c>
       <c r="G83" s="3">
-        <v>267500</v>
+        <v>327500</v>
       </c>
       <c r="H83" s="3">
-        <v>250900</v>
+        <v>267600</v>
       </c>
       <c r="I83" s="3">
-        <v>243300</v>
+        <v>251000</v>
       </c>
       <c r="J83" s="3">
+        <v>243400</v>
+      </c>
+      <c r="K83" s="3">
         <v>216500</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1649600</v>
+        <v>4526300</v>
       </c>
       <c r="E89" s="3">
+        <v>1233500</v>
+      </c>
+      <c r="F89" s="3">
         <v>146500</v>
       </c>
-      <c r="F89" s="3">
-        <v>1157900</v>
-      </c>
       <c r="G89" s="3">
-        <v>1149000</v>
+        <v>1158300</v>
       </c>
       <c r="H89" s="3">
-        <v>877600</v>
+        <v>1149400</v>
       </c>
       <c r="I89" s="3">
-        <v>383400</v>
+        <v>878000</v>
       </c>
       <c r="J89" s="3">
+        <v>383600</v>
+      </c>
+      <c r="K89" s="3">
         <v>605100</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-307000</v>
+        <v>-809200</v>
       </c>
       <c r="E91" s="3">
+        <v>-229400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-522500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-471500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-428200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-347900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-280300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-522300</v>
       </c>
-      <c r="F91" s="3">
-        <v>-471300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-428000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-347700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-280200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-522300</v>
-      </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-282800</v>
+        <v>-364400</v>
       </c>
       <c r="E94" s="3">
-        <v>-498100</v>
+        <v>-211500</v>
       </c>
       <c r="F94" s="3">
-        <v>-450900</v>
+        <v>-498300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1087800</v>
+        <v>-451100</v>
       </c>
       <c r="H94" s="3">
-        <v>-335000</v>
+        <v>-1088300</v>
       </c>
       <c r="I94" s="3">
-        <v>-366900</v>
+        <v>-335100</v>
       </c>
       <c r="J94" s="3">
+        <v>-367000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-777000</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-70100</v>
       </c>
-      <c r="E96" s="3">
-        <v>-70100</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-47100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-35700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-28000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-29300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-30600</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-606300</v>
+        <v>-2757600</v>
       </c>
       <c r="E100" s="3">
-        <v>165600</v>
+        <v>-449800</v>
       </c>
       <c r="F100" s="3">
-        <v>-867500</v>
+        <v>165700</v>
       </c>
       <c r="G100" s="3">
+        <v>-867800</v>
+      </c>
+      <c r="H100" s="3">
         <v>230600</v>
       </c>
-      <c r="H100" s="3">
-        <v>-527400</v>
-      </c>
       <c r="I100" s="3">
+        <v>-527600</v>
+      </c>
+      <c r="J100" s="3">
         <v>-48400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-70100</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12700</v>
+        <v>6400</v>
       </c>
       <c r="E101" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>19100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-7600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>49700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>30600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>16600</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>747700</v>
+        <v>1410700</v>
       </c>
       <c r="E102" s="3">
-        <v>-187200</v>
+        <v>587500</v>
       </c>
       <c r="F102" s="3">
+        <v>-187300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-141400</v>
       </c>
-      <c r="G102" s="3">
-        <v>284100</v>
-      </c>
       <c r="H102" s="3">
+        <v>284200</v>
+      </c>
+      <c r="I102" s="3">
         <v>65000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-225500</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13403100</v>
+        <v>13719700</v>
       </c>
       <c r="E8" s="3">
-        <v>5572500</v>
+        <v>5704100</v>
       </c>
       <c r="F8" s="3">
-        <v>6214800</v>
+        <v>6361600</v>
       </c>
       <c r="G8" s="3">
-        <v>7796200</v>
+        <v>7980300</v>
       </c>
       <c r="H8" s="3">
-        <v>6542300</v>
+        <v>6696800</v>
       </c>
       <c r="I8" s="3">
-        <v>5670600</v>
+        <v>5804600</v>
       </c>
       <c r="J8" s="3">
-        <v>5224600</v>
+        <v>5348000</v>
       </c>
       <c r="K8" s="3">
         <v>4911800</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5919100</v>
+        <v>6058900</v>
       </c>
       <c r="E9" s="3">
-        <v>7941400</v>
+        <v>8129000</v>
       </c>
       <c r="F9" s="3">
-        <v>4653700</v>
+        <v>4763700</v>
       </c>
       <c r="G9" s="3">
-        <v>4609100</v>
+        <v>4718000</v>
       </c>
       <c r="H9" s="3">
-        <v>3980900</v>
+        <v>4074900</v>
       </c>
       <c r="I9" s="3">
-        <v>3785900</v>
+        <v>3875400</v>
       </c>
       <c r="J9" s="3">
-        <v>3662300</v>
+        <v>3748800</v>
       </c>
       <c r="K9" s="3">
         <v>3232900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7484000</v>
+        <v>7660700</v>
       </c>
       <c r="E10" s="3">
-        <v>-2368900</v>
+        <v>-2424900</v>
       </c>
       <c r="F10" s="3">
-        <v>1561000</v>
+        <v>1597900</v>
       </c>
       <c r="G10" s="3">
-        <v>3187000</v>
+        <v>3262300</v>
       </c>
       <c r="H10" s="3">
-        <v>2561300</v>
+        <v>2621800</v>
       </c>
       <c r="I10" s="3">
-        <v>1884700</v>
+        <v>1929200</v>
       </c>
       <c r="J10" s="3">
-        <v>1562300</v>
+        <v>1599200</v>
       </c>
       <c r="K10" s="3">
         <v>1678900</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>42100</v>
+        <v>43000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>821900</v>
+        <v>841300</v>
       </c>
       <c r="E15" s="3">
-        <v>314800</v>
+        <v>322200</v>
       </c>
       <c r="F15" s="3">
-        <v>330000</v>
+        <v>337800</v>
       </c>
       <c r="G15" s="3">
-        <v>327500</v>
+        <v>335200</v>
       </c>
       <c r="H15" s="3">
-        <v>267600</v>
+        <v>273900</v>
       </c>
       <c r="I15" s="3">
-        <v>251000</v>
+        <v>257000</v>
       </c>
       <c r="J15" s="3">
-        <v>243400</v>
+        <v>249100</v>
       </c>
       <c r="K15" s="3">
         <v>216500</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8376000</v>
+        <v>8573800</v>
       </c>
       <c r="E17" s="3">
-        <v>4513600</v>
+        <v>4620200</v>
       </c>
       <c r="F17" s="3">
-        <v>6417400</v>
+        <v>6569000</v>
       </c>
       <c r="G17" s="3">
-        <v>6430100</v>
+        <v>6582000</v>
       </c>
       <c r="H17" s="3">
-        <v>5433600</v>
+        <v>5562000</v>
       </c>
       <c r="I17" s="3">
-        <v>5056400</v>
+        <v>5175900</v>
       </c>
       <c r="J17" s="3">
-        <v>4907300</v>
+        <v>5023200</v>
       </c>
       <c r="K17" s="3">
         <v>4394600</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5027100</v>
+        <v>5145900</v>
       </c>
       <c r="E18" s="3">
-        <v>1058900</v>
+        <v>1084000</v>
       </c>
       <c r="F18" s="3">
-        <v>-202600</v>
+        <v>-207400</v>
       </c>
       <c r="G18" s="3">
-        <v>1366000</v>
+        <v>1398300</v>
       </c>
       <c r="H18" s="3">
-        <v>1108600</v>
+        <v>1134800</v>
       </c>
       <c r="I18" s="3">
-        <v>614200</v>
+        <v>628700</v>
       </c>
       <c r="J18" s="3">
-        <v>317300</v>
+        <v>324800</v>
       </c>
       <c r="K18" s="3">
         <v>517200</v>
@@ -1026,22 +1026,22 @@
         <v>1300</v>
       </c>
       <c r="E20" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="F20" s="3">
-        <v>-20400</v>
+        <v>-20900</v>
       </c>
       <c r="G20" s="3">
-        <v>43300</v>
+        <v>44300</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-17800</v>
+        <v>-18300</v>
       </c>
       <c r="J20" s="3">
-        <v>-89200</v>
+        <v>-91300</v>
       </c>
       <c r="K20" s="3">
         <v>-10200</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5776100</v>
+        <v>5906000</v>
       </c>
       <c r="E21" s="3">
-        <v>1307400</v>
+        <v>1336000</v>
       </c>
       <c r="F21" s="3">
-        <v>108600</v>
+        <v>108200</v>
       </c>
       <c r="G21" s="3">
-        <v>1738400</v>
+        <v>1776600</v>
       </c>
       <c r="H21" s="3">
-        <v>1377500</v>
+        <v>1407700</v>
       </c>
       <c r="I21" s="3">
-        <v>848600</v>
+        <v>866400</v>
       </c>
       <c r="J21" s="3">
-        <v>472700</v>
+        <v>481700</v>
       </c>
       <c r="K21" s="3">
         <v>724300</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>61200</v>
+        <v>62600</v>
       </c>
       <c r="E22" s="3">
-        <v>40800</v>
+        <v>41700</v>
       </c>
       <c r="F22" s="3">
-        <v>56100</v>
+        <v>57400</v>
       </c>
       <c r="G22" s="3">
-        <v>43300</v>
+        <v>44300</v>
       </c>
       <c r="H22" s="3">
-        <v>30600</v>
+        <v>31300</v>
       </c>
       <c r="I22" s="3">
-        <v>30600</v>
+        <v>31300</v>
       </c>
       <c r="J22" s="3">
-        <v>29300</v>
+        <v>30000</v>
       </c>
       <c r="K22" s="3">
         <v>29300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4967200</v>
+        <v>5084600</v>
       </c>
       <c r="E23" s="3">
-        <v>1006700</v>
+        <v>1030500</v>
       </c>
       <c r="F23" s="3">
-        <v>-279100</v>
+        <v>-285700</v>
       </c>
       <c r="G23" s="3">
-        <v>1366000</v>
+        <v>1398300</v>
       </c>
       <c r="H23" s="3">
-        <v>1078100</v>
+        <v>1103500</v>
       </c>
       <c r="I23" s="3">
-        <v>565800</v>
+        <v>579200</v>
       </c>
       <c r="J23" s="3">
-        <v>198800</v>
+        <v>203500</v>
       </c>
       <c r="K23" s="3">
         <v>477700</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1211900</v>
+        <v>1240500</v>
       </c>
       <c r="E24" s="3">
-        <v>257400</v>
+        <v>263500</v>
       </c>
       <c r="F24" s="3">
-        <v>-87900</v>
+        <v>-90000</v>
       </c>
       <c r="G24" s="3">
-        <v>333900</v>
+        <v>341800</v>
       </c>
       <c r="H24" s="3">
-        <v>318600</v>
+        <v>326100</v>
       </c>
       <c r="I24" s="3">
-        <v>150400</v>
+        <v>153900</v>
       </c>
       <c r="J24" s="3">
-        <v>66300</v>
+        <v>67800</v>
       </c>
       <c r="K24" s="3">
         <v>147800</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3755400</v>
+        <v>3844100</v>
       </c>
       <c r="E26" s="3">
-        <v>749300</v>
+        <v>767000</v>
       </c>
       <c r="F26" s="3">
-        <v>-191100</v>
+        <v>-195700</v>
       </c>
       <c r="G26" s="3">
-        <v>1032200</v>
+        <v>1056600</v>
       </c>
       <c r="H26" s="3">
-        <v>759500</v>
+        <v>777400</v>
       </c>
       <c r="I26" s="3">
-        <v>415400</v>
+        <v>425200</v>
       </c>
       <c r="J26" s="3">
-        <v>132500</v>
+        <v>135700</v>
       </c>
       <c r="K26" s="3">
         <v>329900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3755400</v>
+        <v>3844100</v>
       </c>
       <c r="E27" s="3">
-        <v>749300</v>
+        <v>767000</v>
       </c>
       <c r="F27" s="3">
-        <v>-191100</v>
+        <v>-195700</v>
       </c>
       <c r="G27" s="3">
-        <v>1032200</v>
+        <v>1056600</v>
       </c>
       <c r="H27" s="3">
-        <v>759500</v>
+        <v>777400</v>
       </c>
       <c r="I27" s="3">
-        <v>415400</v>
+        <v>425200</v>
       </c>
       <c r="J27" s="3">
-        <v>132500</v>
+        <v>135700</v>
       </c>
       <c r="K27" s="3">
         <v>329900</v>
@@ -1386,22 +1386,22 @@
         <v>-1300</v>
       </c>
       <c r="E32" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="F32" s="3">
-        <v>20400</v>
+        <v>20900</v>
       </c>
       <c r="G32" s="3">
-        <v>-43300</v>
+        <v>-44300</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="J32" s="3">
-        <v>89200</v>
+        <v>91300</v>
       </c>
       <c r="K32" s="3">
         <v>10200</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3755400</v>
+        <v>3844100</v>
       </c>
       <c r="E33" s="3">
-        <v>749300</v>
+        <v>767000</v>
       </c>
       <c r="F33" s="3">
-        <v>-191100</v>
+        <v>-195700</v>
       </c>
       <c r="G33" s="3">
-        <v>1032200</v>
+        <v>1056600</v>
       </c>
       <c r="H33" s="3">
-        <v>759500</v>
+        <v>777400</v>
       </c>
       <c r="I33" s="3">
-        <v>415400</v>
+        <v>425200</v>
       </c>
       <c r="J33" s="3">
-        <v>132500</v>
+        <v>135700</v>
       </c>
       <c r="K33" s="3">
         <v>329900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3755400</v>
+        <v>3844100</v>
       </c>
       <c r="E35" s="3">
-        <v>749300</v>
+        <v>767000</v>
       </c>
       <c r="F35" s="3">
-        <v>-191100</v>
+        <v>-195700</v>
       </c>
       <c r="G35" s="3">
-        <v>1032200</v>
+        <v>1056600</v>
       </c>
       <c r="H35" s="3">
-        <v>759500</v>
+        <v>777400</v>
       </c>
       <c r="I35" s="3">
-        <v>415400</v>
+        <v>425200</v>
       </c>
       <c r="J35" s="3">
-        <v>132500</v>
+        <v>135700</v>
       </c>
       <c r="K35" s="3">
         <v>329900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1998100</v>
+        <v>2045300</v>
       </c>
       <c r="E41" s="3">
-        <v>587500</v>
+        <v>601300</v>
       </c>
       <c r="F41" s="3">
-        <v>20400</v>
+        <v>20900</v>
       </c>
       <c r="G41" s="3">
-        <v>203900</v>
+        <v>208700</v>
       </c>
       <c r="H41" s="3">
-        <v>328800</v>
+        <v>336500</v>
       </c>
       <c r="I41" s="3">
-        <v>63700</v>
+        <v>65200</v>
       </c>
       <c r="J41" s="3">
-        <v>16600</v>
+        <v>17000</v>
       </c>
       <c r="K41" s="3">
         <v>17800</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700900</v>
+        <v>717400</v>
       </c>
       <c r="E43" s="3">
-        <v>759500</v>
+        <v>777400</v>
       </c>
       <c r="F43" s="3">
-        <v>500800</v>
+        <v>512600</v>
       </c>
       <c r="G43" s="3">
-        <v>484200</v>
+        <v>495700</v>
       </c>
       <c r="H43" s="3">
-        <v>448600</v>
+        <v>459100</v>
       </c>
       <c r="I43" s="3">
-        <v>378500</v>
+        <v>387400</v>
       </c>
       <c r="J43" s="3">
-        <v>393800</v>
+        <v>403100</v>
       </c>
       <c r="K43" s="3">
         <v>366900</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1352000</v>
+        <v>1384000</v>
       </c>
       <c r="E44" s="3">
-        <v>736500</v>
+        <v>753900</v>
       </c>
       <c r="F44" s="3">
-        <v>929000</v>
+        <v>950900</v>
       </c>
       <c r="G44" s="3">
-        <v>1008000</v>
+        <v>1031800</v>
       </c>
       <c r="H44" s="3">
-        <v>853800</v>
+        <v>873900</v>
       </c>
       <c r="I44" s="3">
-        <v>740400</v>
+        <v>757900</v>
       </c>
       <c r="J44" s="3">
-        <v>804100</v>
+        <v>823100</v>
       </c>
       <c r="K44" s="3">
         <v>746400</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>48400</v>
+        <v>49600</v>
       </c>
       <c r="E45" s="3">
-        <v>15300</v>
+        <v>15700</v>
       </c>
       <c r="F45" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="G45" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="H45" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="I45" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="J45" s="3">
-        <v>22900</v>
+        <v>23500</v>
       </c>
       <c r="K45" s="3">
         <v>24200</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4099400</v>
+        <v>4196300</v>
       </c>
       <c r="E46" s="3">
-        <v>1702500</v>
+        <v>1742700</v>
       </c>
       <c r="F46" s="3">
-        <v>1461600</v>
+        <v>1496100</v>
       </c>
       <c r="G46" s="3">
-        <v>1713900</v>
+        <v>1754400</v>
       </c>
       <c r="H46" s="3">
-        <v>1645100</v>
+        <v>1684000</v>
       </c>
       <c r="I46" s="3">
-        <v>1195300</v>
+        <v>1223500</v>
       </c>
       <c r="J46" s="3">
-        <v>1237300</v>
+        <v>1266600</v>
       </c>
       <c r="K46" s="3">
         <v>1155300</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5224600</v>
+        <v>5348000</v>
       </c>
       <c r="E48" s="3">
-        <v>2111500</v>
+        <v>2161400</v>
       </c>
       <c r="F48" s="3">
-        <v>2727000</v>
+        <v>2791400</v>
       </c>
       <c r="G48" s="3">
-        <v>2620000</v>
+        <v>2681800</v>
       </c>
       <c r="H48" s="3">
-        <v>2411000</v>
+        <v>2467900</v>
       </c>
       <c r="I48" s="3">
-        <v>2147200</v>
+        <v>2197900</v>
       </c>
       <c r="J48" s="3">
-        <v>2050300</v>
+        <v>2098800</v>
       </c>
       <c r="K48" s="3">
         <v>1871200</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3578200</v>
+        <v>3662800</v>
       </c>
       <c r="E49" s="3">
-        <v>1227200</v>
+        <v>1256100</v>
       </c>
       <c r="F49" s="3">
-        <v>1612000</v>
+        <v>1650100</v>
       </c>
       <c r="G49" s="3">
-        <v>1631100</v>
+        <v>1669600</v>
       </c>
       <c r="H49" s="3">
-        <v>1610700</v>
+        <v>1648800</v>
       </c>
       <c r="I49" s="3">
-        <v>1174900</v>
+        <v>1202700</v>
       </c>
       <c r="J49" s="3">
-        <v>1196600</v>
+        <v>1224800</v>
       </c>
       <c r="K49" s="3">
         <v>1120900</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>392500</v>
+        <v>401800</v>
       </c>
       <c r="E52" s="3">
-        <v>282900</v>
+        <v>289600</v>
       </c>
       <c r="F52" s="3">
-        <v>147800</v>
+        <v>151300</v>
       </c>
       <c r="G52" s="3">
-        <v>140200</v>
+        <v>143500</v>
       </c>
       <c r="H52" s="3">
-        <v>89200</v>
+        <v>91300</v>
       </c>
       <c r="I52" s="3">
-        <v>70100</v>
+        <v>71700</v>
       </c>
       <c r="J52" s="3">
-        <v>147800</v>
+        <v>151300</v>
       </c>
       <c r="K52" s="3">
         <v>179600</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13294800</v>
+        <v>13608800</v>
       </c>
       <c r="E54" s="3">
-        <v>5324000</v>
+        <v>5449800</v>
       </c>
       <c r="F54" s="3">
-        <v>5948400</v>
+        <v>6088900</v>
       </c>
       <c r="G54" s="3">
-        <v>6105200</v>
+        <v>6249400</v>
       </c>
       <c r="H54" s="3">
-        <v>5756000</v>
+        <v>5892000</v>
       </c>
       <c r="I54" s="3">
-        <v>4587500</v>
+        <v>4695800</v>
       </c>
       <c r="J54" s="3">
-        <v>4632100</v>
+        <v>4741500</v>
       </c>
       <c r="K54" s="3">
         <v>4327100</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>688100</v>
+        <v>704400</v>
       </c>
       <c r="E57" s="3">
-        <v>288000</v>
+        <v>294800</v>
       </c>
       <c r="F57" s="3">
-        <v>304600</v>
+        <v>311800</v>
       </c>
       <c r="G57" s="3">
-        <v>331300</v>
+        <v>339100</v>
       </c>
       <c r="H57" s="3">
-        <v>310900</v>
+        <v>318300</v>
       </c>
       <c r="I57" s="3">
-        <v>268900</v>
+        <v>275200</v>
       </c>
       <c r="J57" s="3">
-        <v>240800</v>
+        <v>246500</v>
       </c>
       <c r="K57" s="3">
         <v>257300</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="E58" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="F58" s="3">
-        <v>513500</v>
+        <v>525700</v>
       </c>
       <c r="G58" s="3">
-        <v>94300</v>
+        <v>96500</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>19100</v>
+        <v>19600</v>
       </c>
       <c r="J58" s="3">
-        <v>263800</v>
+        <v>270000</v>
       </c>
       <c r="K58" s="3">
         <v>177100</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>834700</v>
+        <v>854400</v>
       </c>
       <c r="E59" s="3">
-        <v>373400</v>
+        <v>382200</v>
       </c>
       <c r="F59" s="3">
-        <v>248500</v>
+        <v>254400</v>
       </c>
       <c r="G59" s="3">
-        <v>332600</v>
+        <v>340400</v>
       </c>
       <c r="H59" s="3">
-        <v>432000</v>
+        <v>442200</v>
       </c>
       <c r="I59" s="3">
-        <v>296900</v>
+        <v>303900</v>
       </c>
       <c r="J59" s="3">
-        <v>267600</v>
+        <v>273900</v>
       </c>
       <c r="K59" s="3">
         <v>350300</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1536800</v>
+        <v>1573100</v>
       </c>
       <c r="E60" s="3">
-        <v>672800</v>
+        <v>688700</v>
       </c>
       <c r="F60" s="3">
-        <v>1066600</v>
+        <v>1091800</v>
       </c>
       <c r="G60" s="3">
-        <v>758200</v>
+        <v>776100</v>
       </c>
       <c r="H60" s="3">
-        <v>742900</v>
+        <v>760500</v>
       </c>
       <c r="I60" s="3">
-        <v>584900</v>
+        <v>598700</v>
       </c>
       <c r="J60" s="3">
-        <v>772200</v>
+        <v>790500</v>
       </c>
       <c r="K60" s="3">
         <v>784700</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>635900</v>
+        <v>650900</v>
       </c>
       <c r="E61" s="3">
-        <v>637100</v>
+        <v>652200</v>
       </c>
       <c r="F61" s="3">
-        <v>838500</v>
+        <v>858300</v>
       </c>
       <c r="G61" s="3">
-        <v>881800</v>
+        <v>902600</v>
       </c>
       <c r="H61" s="3">
-        <v>810500</v>
+        <v>829600</v>
       </c>
       <c r="I61" s="3">
-        <v>526300</v>
+        <v>538700</v>
       </c>
       <c r="J61" s="3">
-        <v>539000</v>
+        <v>551800</v>
       </c>
       <c r="K61" s="3">
         <v>450900</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1366000</v>
+        <v>1398300</v>
       </c>
       <c r="E62" s="3">
-        <v>856300</v>
+        <v>876600</v>
       </c>
       <c r="F62" s="3">
-        <v>890700</v>
+        <v>911800</v>
       </c>
       <c r="G62" s="3">
-        <v>774800</v>
+        <v>793100</v>
       </c>
       <c r="H62" s="3">
-        <v>728900</v>
+        <v>746100</v>
       </c>
       <c r="I62" s="3">
-        <v>620600</v>
+        <v>635200</v>
       </c>
       <c r="J62" s="3">
-        <v>584900</v>
+        <v>598700</v>
       </c>
       <c r="K62" s="3">
         <v>507000</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3538700</v>
+        <v>3622300</v>
       </c>
       <c r="E66" s="3">
-        <v>2166300</v>
+        <v>2217500</v>
       </c>
       <c r="F66" s="3">
-        <v>2795800</v>
+        <v>2861900</v>
       </c>
       <c r="G66" s="3">
-        <v>2414800</v>
+        <v>2471800</v>
       </c>
       <c r="H66" s="3">
-        <v>2282300</v>
+        <v>2336200</v>
       </c>
       <c r="I66" s="3">
-        <v>1731800</v>
+        <v>1772700</v>
       </c>
       <c r="J66" s="3">
-        <v>1896200</v>
+        <v>1940900</v>
       </c>
       <c r="K66" s="3">
         <v>1742600</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5738200</v>
+        <v>5873700</v>
       </c>
       <c r="E72" s="3">
-        <v>2850600</v>
+        <v>2917900</v>
       </c>
       <c r="F72" s="3">
-        <v>2368900</v>
+        <v>2424900</v>
       </c>
       <c r="G72" s="3">
-        <v>2848100</v>
+        <v>2915300</v>
       </c>
       <c r="H72" s="3">
-        <v>2636500</v>
+        <v>2698800</v>
       </c>
       <c r="I72" s="3">
-        <v>1965000</v>
+        <v>2011400</v>
       </c>
       <c r="J72" s="3">
-        <v>1789100</v>
+        <v>1831400</v>
       </c>
       <c r="K72" s="3">
         <v>1766800</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9756000</v>
+        <v>9986500</v>
       </c>
       <c r="E76" s="3">
-        <v>3157700</v>
+        <v>3232300</v>
       </c>
       <c r="F76" s="3">
-        <v>3152600</v>
+        <v>3227100</v>
       </c>
       <c r="G76" s="3">
-        <v>3690400</v>
+        <v>3777500</v>
       </c>
       <c r="H76" s="3">
-        <v>3473700</v>
+        <v>3555800</v>
       </c>
       <c r="I76" s="3">
-        <v>2855700</v>
+        <v>2923200</v>
       </c>
       <c r="J76" s="3">
-        <v>2735900</v>
+        <v>2800500</v>
       </c>
       <c r="K76" s="3">
         <v>2584500</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3755400</v>
+        <v>3844100</v>
       </c>
       <c r="E81" s="3">
-        <v>749300</v>
+        <v>767000</v>
       </c>
       <c r="F81" s="3">
-        <v>-191100</v>
+        <v>-195700</v>
       </c>
       <c r="G81" s="3">
-        <v>1032200</v>
+        <v>1056600</v>
       </c>
       <c r="H81" s="3">
-        <v>759500</v>
+        <v>777400</v>
       </c>
       <c r="I81" s="3">
-        <v>415400</v>
+        <v>425200</v>
       </c>
       <c r="J81" s="3">
-        <v>132500</v>
+        <v>135700</v>
       </c>
       <c r="K81" s="3">
         <v>329900</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>744200</v>
+        <v>761800</v>
       </c>
       <c r="E83" s="3">
-        <v>258700</v>
+        <v>264800</v>
       </c>
       <c r="F83" s="3">
-        <v>330000</v>
+        <v>337800</v>
       </c>
       <c r="G83" s="3">
-        <v>327500</v>
+        <v>335200</v>
       </c>
       <c r="H83" s="3">
-        <v>267600</v>
+        <v>273900</v>
       </c>
       <c r="I83" s="3">
-        <v>251000</v>
+        <v>257000</v>
       </c>
       <c r="J83" s="3">
-        <v>243400</v>
+        <v>249100</v>
       </c>
       <c r="K83" s="3">
         <v>216500</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4526300</v>
+        <v>4633200</v>
       </c>
       <c r="E89" s="3">
-        <v>1233500</v>
+        <v>1262700</v>
       </c>
       <c r="F89" s="3">
-        <v>146500</v>
+        <v>150000</v>
       </c>
       <c r="G89" s="3">
-        <v>1158300</v>
+        <v>1185700</v>
       </c>
       <c r="H89" s="3">
-        <v>1149400</v>
+        <v>1176600</v>
       </c>
       <c r="I89" s="3">
-        <v>878000</v>
+        <v>898700</v>
       </c>
       <c r="J89" s="3">
-        <v>383600</v>
+        <v>392600</v>
       </c>
       <c r="K89" s="3">
         <v>605100</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-809200</v>
+        <v>-828300</v>
       </c>
       <c r="E91" s="3">
-        <v>-229400</v>
+        <v>-234800</v>
       </c>
       <c r="F91" s="3">
-        <v>-522500</v>
+        <v>-534800</v>
       </c>
       <c r="G91" s="3">
-        <v>-471500</v>
+        <v>-482600</v>
       </c>
       <c r="H91" s="3">
-        <v>-428200</v>
+        <v>-438300</v>
       </c>
       <c r="I91" s="3">
-        <v>-347900</v>
+        <v>-356100</v>
       </c>
       <c r="J91" s="3">
-        <v>-280300</v>
+        <v>-287000</v>
       </c>
       <c r="K91" s="3">
         <v>-522300</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-364400</v>
+        <v>-373100</v>
       </c>
       <c r="E94" s="3">
-        <v>-211500</v>
+        <v>-216500</v>
       </c>
       <c r="F94" s="3">
-        <v>-498300</v>
+        <v>-510000</v>
       </c>
       <c r="G94" s="3">
-        <v>-451100</v>
+        <v>-461800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1088300</v>
+        <v>-1114000</v>
       </c>
       <c r="I94" s="3">
-        <v>-335100</v>
+        <v>-343100</v>
       </c>
       <c r="J94" s="3">
-        <v>-367000</v>
+        <v>-375700</v>
       </c>
       <c r="K94" s="3">
         <v>-777000</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-95600</v>
+        <v>-97800</v>
       </c>
       <c r="E96" s="3">
-        <v>-52200</v>
+        <v>-53500</v>
       </c>
       <c r="F96" s="3">
-        <v>-70100</v>
+        <v>-71700</v>
       </c>
       <c r="G96" s="3">
-        <v>-47100</v>
+        <v>-48300</v>
       </c>
       <c r="H96" s="3">
-        <v>-35700</v>
+        <v>-36500</v>
       </c>
       <c r="I96" s="3">
-        <v>-28000</v>
+        <v>-28700</v>
       </c>
       <c r="J96" s="3">
-        <v>-29300</v>
+        <v>-30000</v>
       </c>
       <c r="K96" s="3">
         <v>-30600</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2757600</v>
+        <v>-2822700</v>
       </c>
       <c r="E100" s="3">
-        <v>-449800</v>
+        <v>-460500</v>
       </c>
       <c r="F100" s="3">
-        <v>165700</v>
+        <v>169600</v>
       </c>
       <c r="G100" s="3">
-        <v>-867800</v>
+        <v>-888300</v>
       </c>
       <c r="H100" s="3">
-        <v>230600</v>
+        <v>236100</v>
       </c>
       <c r="I100" s="3">
-        <v>-527600</v>
+        <v>-540000</v>
       </c>
       <c r="J100" s="3">
-        <v>-48400</v>
+        <v>-49600</v>
       </c>
       <c r="K100" s="3">
         <v>-70100</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="E101" s="3">
-        <v>15300</v>
+        <v>15700</v>
       </c>
       <c r="F101" s="3">
         <v>-1300</v>
       </c>
       <c r="G101" s="3">
-        <v>19100</v>
+        <v>19600</v>
       </c>
       <c r="H101" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="I101" s="3">
-        <v>49700</v>
+        <v>50900</v>
       </c>
       <c r="J101" s="3">
-        <v>30600</v>
+        <v>31300</v>
       </c>
       <c r="K101" s="3">
         <v>16600</v>
@@ -3245,22 +3245,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1410700</v>
+        <v>1444000</v>
       </c>
       <c r="E102" s="3">
-        <v>587500</v>
+        <v>601300</v>
       </c>
       <c r="F102" s="3">
-        <v>-187300</v>
+        <v>-191700</v>
       </c>
       <c r="G102" s="3">
-        <v>-141400</v>
+        <v>-144800</v>
       </c>
       <c r="H102" s="3">
-        <v>284200</v>
+        <v>290900</v>
       </c>
       <c r="I102" s="3">
-        <v>65000</v>
+        <v>66500</v>
       </c>
       <c r="J102" s="3">
         <v>-1300</v>

--- a/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13719700</v>
+        <v>13593500</v>
       </c>
       <c r="E8" s="3">
-        <v>5704100</v>
+        <v>5651700</v>
       </c>
       <c r="F8" s="3">
-        <v>6361600</v>
+        <v>6303000</v>
       </c>
       <c r="G8" s="3">
-        <v>7980300</v>
+        <v>7906900</v>
       </c>
       <c r="H8" s="3">
-        <v>6696800</v>
+        <v>6635200</v>
       </c>
       <c r="I8" s="3">
-        <v>5804600</v>
+        <v>5751200</v>
       </c>
       <c r="J8" s="3">
-        <v>5348000</v>
+        <v>5298800</v>
       </c>
       <c r="K8" s="3">
         <v>4911800</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6058900</v>
+        <v>6003200</v>
       </c>
       <c r="E9" s="3">
-        <v>8129000</v>
+        <v>8054200</v>
       </c>
       <c r="F9" s="3">
-        <v>4763700</v>
+        <v>4719800</v>
       </c>
       <c r="G9" s="3">
-        <v>4718000</v>
+        <v>4674600</v>
       </c>
       <c r="H9" s="3">
-        <v>4074900</v>
+        <v>4037500</v>
       </c>
       <c r="I9" s="3">
-        <v>3875400</v>
+        <v>3839700</v>
       </c>
       <c r="J9" s="3">
-        <v>3748800</v>
+        <v>3714400</v>
       </c>
       <c r="K9" s="3">
         <v>3232900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7660700</v>
+        <v>7590300</v>
       </c>
       <c r="E10" s="3">
-        <v>-2424900</v>
+        <v>-2402600</v>
       </c>
       <c r="F10" s="3">
-        <v>1597900</v>
+        <v>1583200</v>
       </c>
       <c r="G10" s="3">
-        <v>3262300</v>
+        <v>3232300</v>
       </c>
       <c r="H10" s="3">
-        <v>2621800</v>
+        <v>2597700</v>
       </c>
       <c r="I10" s="3">
-        <v>1929200</v>
+        <v>1911500</v>
       </c>
       <c r="J10" s="3">
-        <v>1599200</v>
+        <v>1584500</v>
       </c>
       <c r="K10" s="3">
         <v>1678900</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>43000</v>
+        <v>42600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>841300</v>
+        <v>833600</v>
       </c>
       <c r="E15" s="3">
-        <v>322200</v>
+        <v>319200</v>
       </c>
       <c r="F15" s="3">
-        <v>337800</v>
+        <v>334700</v>
       </c>
       <c r="G15" s="3">
-        <v>335200</v>
+        <v>332100</v>
       </c>
       <c r="H15" s="3">
-        <v>273900</v>
+        <v>271400</v>
       </c>
       <c r="I15" s="3">
-        <v>257000</v>
+        <v>254600</v>
       </c>
       <c r="J15" s="3">
-        <v>249100</v>
+        <v>246800</v>
       </c>
       <c r="K15" s="3">
         <v>216500</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8573800</v>
+        <v>8494900</v>
       </c>
       <c r="E17" s="3">
-        <v>4620200</v>
+        <v>4577700</v>
       </c>
       <c r="F17" s="3">
-        <v>6569000</v>
+        <v>6508500</v>
       </c>
       <c r="G17" s="3">
-        <v>6582000</v>
+        <v>6521500</v>
       </c>
       <c r="H17" s="3">
-        <v>5562000</v>
+        <v>5510800</v>
       </c>
       <c r="I17" s="3">
-        <v>5175900</v>
+        <v>5128200</v>
       </c>
       <c r="J17" s="3">
-        <v>5023200</v>
+        <v>4977000</v>
       </c>
       <c r="K17" s="3">
         <v>4394600</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5145900</v>
+        <v>5098500</v>
       </c>
       <c r="E18" s="3">
-        <v>1084000</v>
+        <v>1074000</v>
       </c>
       <c r="F18" s="3">
-        <v>-207400</v>
+        <v>-205500</v>
       </c>
       <c r="G18" s="3">
-        <v>1398300</v>
+        <v>1385500</v>
       </c>
       <c r="H18" s="3">
-        <v>1134800</v>
+        <v>1124400</v>
       </c>
       <c r="I18" s="3">
-        <v>628700</v>
+        <v>622900</v>
       </c>
       <c r="J18" s="3">
-        <v>324800</v>
+        <v>321800</v>
       </c>
       <c r="K18" s="3">
         <v>517200</v>
@@ -1026,22 +1026,22 @@
         <v>1300</v>
       </c>
       <c r="E20" s="3">
-        <v>-11700</v>
+        <v>-11600</v>
       </c>
       <c r="F20" s="3">
-        <v>-20900</v>
+        <v>-20700</v>
       </c>
       <c r="G20" s="3">
-        <v>44300</v>
+        <v>43900</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-18300</v>
+        <v>-18100</v>
       </c>
       <c r="J20" s="3">
-        <v>-91300</v>
+        <v>-90500</v>
       </c>
       <c r="K20" s="3">
         <v>-10200</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5906000</v>
+        <v>5857000</v>
       </c>
       <c r="E21" s="3">
-        <v>1336000</v>
+        <v>1325500</v>
       </c>
       <c r="F21" s="3">
-        <v>108200</v>
+        <v>109600</v>
       </c>
       <c r="G21" s="3">
-        <v>1776600</v>
+        <v>1762600</v>
       </c>
       <c r="H21" s="3">
-        <v>1407700</v>
+        <v>1396700</v>
       </c>
       <c r="I21" s="3">
-        <v>866400</v>
+        <v>860300</v>
       </c>
       <c r="J21" s="3">
-        <v>481700</v>
+        <v>479000</v>
       </c>
       <c r="K21" s="3">
         <v>724300</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>62600</v>
+        <v>62000</v>
       </c>
       <c r="E22" s="3">
-        <v>41700</v>
+        <v>41400</v>
       </c>
       <c r="F22" s="3">
-        <v>57400</v>
+        <v>56900</v>
       </c>
       <c r="G22" s="3">
-        <v>44300</v>
+        <v>43900</v>
       </c>
       <c r="H22" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="I22" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="J22" s="3">
-        <v>30000</v>
+        <v>29700</v>
       </c>
       <c r="K22" s="3">
         <v>29300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5084600</v>
+        <v>5037800</v>
       </c>
       <c r="E23" s="3">
-        <v>1030500</v>
+        <v>1021000</v>
       </c>
       <c r="F23" s="3">
-        <v>-285700</v>
+        <v>-283000</v>
       </c>
       <c r="G23" s="3">
-        <v>1398300</v>
+        <v>1385500</v>
       </c>
       <c r="H23" s="3">
-        <v>1103500</v>
+        <v>1093400</v>
       </c>
       <c r="I23" s="3">
-        <v>579200</v>
+        <v>573800</v>
       </c>
       <c r="J23" s="3">
-        <v>203500</v>
+        <v>201600</v>
       </c>
       <c r="K23" s="3">
         <v>477700</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1240500</v>
+        <v>1229100</v>
       </c>
       <c r="E24" s="3">
-        <v>263500</v>
+        <v>261100</v>
       </c>
       <c r="F24" s="3">
-        <v>-90000</v>
+        <v>-89200</v>
       </c>
       <c r="G24" s="3">
-        <v>341800</v>
+        <v>338600</v>
       </c>
       <c r="H24" s="3">
-        <v>326100</v>
+        <v>323100</v>
       </c>
       <c r="I24" s="3">
-        <v>153900</v>
+        <v>152500</v>
       </c>
       <c r="J24" s="3">
-        <v>67800</v>
+        <v>67200</v>
       </c>
       <c r="K24" s="3">
         <v>147800</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3844100</v>
+        <v>3808700</v>
       </c>
       <c r="E26" s="3">
-        <v>767000</v>
+        <v>759900</v>
       </c>
       <c r="F26" s="3">
-        <v>-195700</v>
+        <v>-193900</v>
       </c>
       <c r="G26" s="3">
-        <v>1056600</v>
+        <v>1046800</v>
       </c>
       <c r="H26" s="3">
-        <v>777400</v>
+        <v>770300</v>
       </c>
       <c r="I26" s="3">
-        <v>425200</v>
+        <v>421300</v>
       </c>
       <c r="J26" s="3">
-        <v>135700</v>
+        <v>134400</v>
       </c>
       <c r="K26" s="3">
         <v>329900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3844100</v>
+        <v>3808700</v>
       </c>
       <c r="E27" s="3">
-        <v>767000</v>
+        <v>759900</v>
       </c>
       <c r="F27" s="3">
-        <v>-195700</v>
+        <v>-193900</v>
       </c>
       <c r="G27" s="3">
-        <v>1056600</v>
+        <v>1046800</v>
       </c>
       <c r="H27" s="3">
-        <v>777400</v>
+        <v>770300</v>
       </c>
       <c r="I27" s="3">
-        <v>425200</v>
+        <v>421300</v>
       </c>
       <c r="J27" s="3">
-        <v>135700</v>
+        <v>134400</v>
       </c>
       <c r="K27" s="3">
         <v>329900</v>
@@ -1386,22 +1386,22 @@
         <v>-1300</v>
       </c>
       <c r="E32" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="F32" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="G32" s="3">
-        <v>-44300</v>
+        <v>-43900</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="J32" s="3">
-        <v>91300</v>
+        <v>90500</v>
       </c>
       <c r="K32" s="3">
         <v>10200</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3844100</v>
+        <v>3808700</v>
       </c>
       <c r="E33" s="3">
-        <v>767000</v>
+        <v>759900</v>
       </c>
       <c r="F33" s="3">
-        <v>-195700</v>
+        <v>-193900</v>
       </c>
       <c r="G33" s="3">
-        <v>1056600</v>
+        <v>1046800</v>
       </c>
       <c r="H33" s="3">
-        <v>777400</v>
+        <v>770300</v>
       </c>
       <c r="I33" s="3">
-        <v>425200</v>
+        <v>421300</v>
       </c>
       <c r="J33" s="3">
-        <v>135700</v>
+        <v>134400</v>
       </c>
       <c r="K33" s="3">
         <v>329900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3844100</v>
+        <v>3808700</v>
       </c>
       <c r="E35" s="3">
-        <v>767000</v>
+        <v>759900</v>
       </c>
       <c r="F35" s="3">
-        <v>-195700</v>
+        <v>-193900</v>
       </c>
       <c r="G35" s="3">
-        <v>1056600</v>
+        <v>1046800</v>
       </c>
       <c r="H35" s="3">
-        <v>777400</v>
+        <v>770300</v>
       </c>
       <c r="I35" s="3">
-        <v>425200</v>
+        <v>421300</v>
       </c>
       <c r="J35" s="3">
-        <v>135700</v>
+        <v>134400</v>
       </c>
       <c r="K35" s="3">
         <v>329900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2045300</v>
+        <v>2026500</v>
       </c>
       <c r="E41" s="3">
-        <v>601300</v>
+        <v>595800</v>
       </c>
       <c r="F41" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="G41" s="3">
-        <v>208700</v>
+        <v>206800</v>
       </c>
       <c r="H41" s="3">
-        <v>336500</v>
+        <v>333400</v>
       </c>
       <c r="I41" s="3">
-        <v>65200</v>
+        <v>64600</v>
       </c>
       <c r="J41" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="K41" s="3">
         <v>17800</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>717400</v>
+        <v>710800</v>
       </c>
       <c r="E43" s="3">
-        <v>777400</v>
+        <v>770300</v>
       </c>
       <c r="F43" s="3">
-        <v>512600</v>
+        <v>507900</v>
       </c>
       <c r="G43" s="3">
-        <v>495700</v>
+        <v>491100</v>
       </c>
       <c r="H43" s="3">
-        <v>459100</v>
+        <v>454900</v>
       </c>
       <c r="I43" s="3">
-        <v>387400</v>
+        <v>383800</v>
       </c>
       <c r="J43" s="3">
-        <v>403100</v>
+        <v>399400</v>
       </c>
       <c r="K43" s="3">
         <v>366900</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1384000</v>
+        <v>1371200</v>
       </c>
       <c r="E44" s="3">
-        <v>753900</v>
+        <v>747000</v>
       </c>
       <c r="F44" s="3">
-        <v>950900</v>
+        <v>942200</v>
       </c>
       <c r="G44" s="3">
-        <v>1031800</v>
+        <v>1022300</v>
       </c>
       <c r="H44" s="3">
-        <v>873900</v>
+        <v>865900</v>
       </c>
       <c r="I44" s="3">
-        <v>757900</v>
+        <v>750900</v>
       </c>
       <c r="J44" s="3">
-        <v>823100</v>
+        <v>815500</v>
       </c>
       <c r="K44" s="3">
         <v>746400</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>49600</v>
+        <v>49100</v>
       </c>
       <c r="E45" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
       <c r="F45" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="G45" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="H45" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="I45" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="J45" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="K45" s="3">
         <v>24200</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4196300</v>
+        <v>4157700</v>
       </c>
       <c r="E46" s="3">
-        <v>1742700</v>
+        <v>1726600</v>
       </c>
       <c r="F46" s="3">
-        <v>1496100</v>
+        <v>1482400</v>
       </c>
       <c r="G46" s="3">
-        <v>1754400</v>
+        <v>1738300</v>
       </c>
       <c r="H46" s="3">
-        <v>1684000</v>
+        <v>1668500</v>
       </c>
       <c r="I46" s="3">
-        <v>1223500</v>
+        <v>1212300</v>
       </c>
       <c r="J46" s="3">
-        <v>1266600</v>
+        <v>1254900</v>
       </c>
       <c r="K46" s="3">
         <v>1155300</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5348000</v>
+        <v>5298800</v>
       </c>
       <c r="E48" s="3">
-        <v>2161400</v>
+        <v>2141500</v>
       </c>
       <c r="F48" s="3">
-        <v>2791400</v>
+        <v>2765700</v>
       </c>
       <c r="G48" s="3">
-        <v>2681800</v>
+        <v>2657200</v>
       </c>
       <c r="H48" s="3">
-        <v>2467900</v>
+        <v>2445200</v>
       </c>
       <c r="I48" s="3">
-        <v>2197900</v>
+        <v>2177700</v>
       </c>
       <c r="J48" s="3">
-        <v>2098800</v>
+        <v>2079500</v>
       </c>
       <c r="K48" s="3">
         <v>1871200</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3662800</v>
+        <v>3629100</v>
       </c>
       <c r="E49" s="3">
-        <v>1256100</v>
+        <v>1244600</v>
       </c>
       <c r="F49" s="3">
-        <v>1650100</v>
+        <v>1634900</v>
       </c>
       <c r="G49" s="3">
-        <v>1669600</v>
+        <v>1654300</v>
       </c>
       <c r="H49" s="3">
-        <v>1648800</v>
+        <v>1633600</v>
       </c>
       <c r="I49" s="3">
-        <v>1202700</v>
+        <v>1191600</v>
       </c>
       <c r="J49" s="3">
-        <v>1224800</v>
+        <v>1213600</v>
       </c>
       <c r="K49" s="3">
         <v>1120900</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>401800</v>
+        <v>398100</v>
       </c>
       <c r="E52" s="3">
-        <v>289600</v>
+        <v>286900</v>
       </c>
       <c r="F52" s="3">
-        <v>151300</v>
+        <v>149900</v>
       </c>
       <c r="G52" s="3">
-        <v>143500</v>
+        <v>142200</v>
       </c>
       <c r="H52" s="3">
-        <v>91300</v>
+        <v>90500</v>
       </c>
       <c r="I52" s="3">
-        <v>71700</v>
+        <v>71100</v>
       </c>
       <c r="J52" s="3">
-        <v>151300</v>
+        <v>149900</v>
       </c>
       <c r="K52" s="3">
         <v>179600</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13608800</v>
+        <v>13483600</v>
       </c>
       <c r="E54" s="3">
-        <v>5449800</v>
+        <v>5399600</v>
       </c>
       <c r="F54" s="3">
-        <v>6088900</v>
+        <v>6032900</v>
       </c>
       <c r="G54" s="3">
-        <v>6249400</v>
+        <v>6191900</v>
       </c>
       <c r="H54" s="3">
-        <v>5892000</v>
+        <v>5837800</v>
       </c>
       <c r="I54" s="3">
-        <v>4695800</v>
+        <v>4652600</v>
       </c>
       <c r="J54" s="3">
-        <v>4741500</v>
+        <v>4697900</v>
       </c>
       <c r="K54" s="3">
         <v>4327100</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>704400</v>
+        <v>697900</v>
       </c>
       <c r="E57" s="3">
-        <v>294800</v>
+        <v>292100</v>
       </c>
       <c r="F57" s="3">
-        <v>311800</v>
+        <v>308900</v>
       </c>
       <c r="G57" s="3">
-        <v>339100</v>
+        <v>336000</v>
       </c>
       <c r="H57" s="3">
-        <v>318300</v>
+        <v>315300</v>
       </c>
       <c r="I57" s="3">
-        <v>275200</v>
+        <v>272700</v>
       </c>
       <c r="J57" s="3">
-        <v>246500</v>
+        <v>244300</v>
       </c>
       <c r="K57" s="3">
         <v>257300</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="E58" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="F58" s="3">
-        <v>525700</v>
+        <v>520800</v>
       </c>
       <c r="G58" s="3">
-        <v>96500</v>
+        <v>95600</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="J58" s="3">
-        <v>270000</v>
+        <v>267500</v>
       </c>
       <c r="K58" s="3">
         <v>177100</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>854400</v>
+        <v>846500</v>
       </c>
       <c r="E59" s="3">
-        <v>382200</v>
+        <v>378700</v>
       </c>
       <c r="F59" s="3">
-        <v>254400</v>
+        <v>252000</v>
       </c>
       <c r="G59" s="3">
-        <v>340400</v>
+        <v>337300</v>
       </c>
       <c r="H59" s="3">
-        <v>442200</v>
+        <v>438100</v>
       </c>
       <c r="I59" s="3">
-        <v>303900</v>
+        <v>301100</v>
       </c>
       <c r="J59" s="3">
-        <v>273900</v>
+        <v>271400</v>
       </c>
       <c r="K59" s="3">
         <v>350300</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1573100</v>
+        <v>1558600</v>
       </c>
       <c r="E60" s="3">
-        <v>688700</v>
+        <v>682400</v>
       </c>
       <c r="F60" s="3">
-        <v>1091800</v>
+        <v>1081700</v>
       </c>
       <c r="G60" s="3">
-        <v>776100</v>
+        <v>769000</v>
       </c>
       <c r="H60" s="3">
-        <v>760500</v>
+        <v>753500</v>
       </c>
       <c r="I60" s="3">
-        <v>598700</v>
+        <v>593200</v>
       </c>
       <c r="J60" s="3">
-        <v>790500</v>
+        <v>783200</v>
       </c>
       <c r="K60" s="3">
         <v>784700</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>650900</v>
+        <v>644900</v>
       </c>
       <c r="E61" s="3">
-        <v>652200</v>
+        <v>646200</v>
       </c>
       <c r="F61" s="3">
-        <v>858300</v>
+        <v>850400</v>
       </c>
       <c r="G61" s="3">
-        <v>902600</v>
+        <v>894300</v>
       </c>
       <c r="H61" s="3">
-        <v>829600</v>
+        <v>822000</v>
       </c>
       <c r="I61" s="3">
-        <v>538700</v>
+        <v>533800</v>
       </c>
       <c r="J61" s="3">
-        <v>551800</v>
+        <v>546700</v>
       </c>
       <c r="K61" s="3">
         <v>450900</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1398300</v>
+        <v>1385500</v>
       </c>
       <c r="E62" s="3">
-        <v>876600</v>
+        <v>868500</v>
       </c>
       <c r="F62" s="3">
-        <v>911800</v>
+        <v>903400</v>
       </c>
       <c r="G62" s="3">
-        <v>793100</v>
+        <v>785800</v>
       </c>
       <c r="H62" s="3">
-        <v>746100</v>
+        <v>739300</v>
       </c>
       <c r="I62" s="3">
-        <v>635200</v>
+        <v>629400</v>
       </c>
       <c r="J62" s="3">
-        <v>598700</v>
+        <v>593200</v>
       </c>
       <c r="K62" s="3">
         <v>507000</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3622300</v>
+        <v>3589000</v>
       </c>
       <c r="E66" s="3">
-        <v>2217500</v>
+        <v>2197100</v>
       </c>
       <c r="F66" s="3">
-        <v>2861900</v>
+        <v>2835500</v>
       </c>
       <c r="G66" s="3">
-        <v>2471800</v>
+        <v>2449100</v>
       </c>
       <c r="H66" s="3">
-        <v>2336200</v>
+        <v>2314700</v>
       </c>
       <c r="I66" s="3">
-        <v>1772700</v>
+        <v>1756400</v>
       </c>
       <c r="J66" s="3">
-        <v>1940900</v>
+        <v>1923100</v>
       </c>
       <c r="K66" s="3">
         <v>1742600</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5873700</v>
+        <v>5819700</v>
       </c>
       <c r="E72" s="3">
-        <v>2917900</v>
+        <v>2891100</v>
       </c>
       <c r="F72" s="3">
-        <v>2424900</v>
+        <v>2402600</v>
       </c>
       <c r="G72" s="3">
-        <v>2915300</v>
+        <v>2888500</v>
       </c>
       <c r="H72" s="3">
-        <v>2698800</v>
+        <v>2674000</v>
       </c>
       <c r="I72" s="3">
-        <v>2011400</v>
+        <v>1992900</v>
       </c>
       <c r="J72" s="3">
-        <v>1831400</v>
+        <v>1814500</v>
       </c>
       <c r="K72" s="3">
         <v>1766800</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9986500</v>
+        <v>9894600</v>
       </c>
       <c r="E76" s="3">
-        <v>3232300</v>
+        <v>3202600</v>
       </c>
       <c r="F76" s="3">
-        <v>3227100</v>
+        <v>3197400</v>
       </c>
       <c r="G76" s="3">
-        <v>3777500</v>
+        <v>3742800</v>
       </c>
       <c r="H76" s="3">
-        <v>3555800</v>
+        <v>3523100</v>
       </c>
       <c r="I76" s="3">
-        <v>2923200</v>
+        <v>2896300</v>
       </c>
       <c r="J76" s="3">
-        <v>2800500</v>
+        <v>2774800</v>
       </c>
       <c r="K76" s="3">
         <v>2584500</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3844100</v>
+        <v>3808700</v>
       </c>
       <c r="E81" s="3">
-        <v>767000</v>
+        <v>759900</v>
       </c>
       <c r="F81" s="3">
-        <v>-195700</v>
+        <v>-193900</v>
       </c>
       <c r="G81" s="3">
-        <v>1056600</v>
+        <v>1046800</v>
       </c>
       <c r="H81" s="3">
-        <v>777400</v>
+        <v>770300</v>
       </c>
       <c r="I81" s="3">
-        <v>425200</v>
+        <v>421300</v>
       </c>
       <c r="J81" s="3">
-        <v>135700</v>
+        <v>134400</v>
       </c>
       <c r="K81" s="3">
         <v>329900</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>761800</v>
+        <v>754800</v>
       </c>
       <c r="E83" s="3">
-        <v>264800</v>
+        <v>262400</v>
       </c>
       <c r="F83" s="3">
-        <v>337800</v>
+        <v>334700</v>
       </c>
       <c r="G83" s="3">
-        <v>335200</v>
+        <v>332100</v>
       </c>
       <c r="H83" s="3">
-        <v>273900</v>
+        <v>271400</v>
       </c>
       <c r="I83" s="3">
-        <v>257000</v>
+        <v>254600</v>
       </c>
       <c r="J83" s="3">
-        <v>249100</v>
+        <v>246800</v>
       </c>
       <c r="K83" s="3">
         <v>216500</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4633200</v>
+        <v>4590600</v>
       </c>
       <c r="E89" s="3">
-        <v>1262700</v>
+        <v>1251000</v>
       </c>
       <c r="F89" s="3">
-        <v>150000</v>
+        <v>148600</v>
       </c>
       <c r="G89" s="3">
-        <v>1185700</v>
+        <v>1174800</v>
       </c>
       <c r="H89" s="3">
-        <v>1176600</v>
+        <v>1165700</v>
       </c>
       <c r="I89" s="3">
-        <v>898700</v>
+        <v>890500</v>
       </c>
       <c r="J89" s="3">
-        <v>392600</v>
+        <v>389000</v>
       </c>
       <c r="K89" s="3">
         <v>605100</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-828300</v>
+        <v>-820700</v>
       </c>
       <c r="E91" s="3">
-        <v>-234800</v>
+        <v>-232600</v>
       </c>
       <c r="F91" s="3">
-        <v>-534800</v>
+        <v>-529900</v>
       </c>
       <c r="G91" s="3">
-        <v>-482600</v>
+        <v>-478200</v>
       </c>
       <c r="H91" s="3">
-        <v>-438300</v>
+        <v>-434200</v>
       </c>
       <c r="I91" s="3">
-        <v>-356100</v>
+        <v>-352800</v>
       </c>
       <c r="J91" s="3">
-        <v>-287000</v>
+        <v>-284300</v>
       </c>
       <c r="K91" s="3">
         <v>-522300</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-373100</v>
+        <v>-369600</v>
       </c>
       <c r="E94" s="3">
-        <v>-216500</v>
+        <v>-214500</v>
       </c>
       <c r="F94" s="3">
-        <v>-510000</v>
+        <v>-505300</v>
       </c>
       <c r="G94" s="3">
-        <v>-461800</v>
+        <v>-457500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1114000</v>
+        <v>-1103700</v>
       </c>
       <c r="I94" s="3">
-        <v>-343100</v>
+        <v>-339900</v>
       </c>
       <c r="J94" s="3">
-        <v>-375700</v>
+        <v>-372200</v>
       </c>
       <c r="K94" s="3">
         <v>-777000</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-97800</v>
+        <v>-96900</v>
       </c>
       <c r="E96" s="3">
-        <v>-53500</v>
+        <v>-53000</v>
       </c>
       <c r="F96" s="3">
-        <v>-71700</v>
+        <v>-71100</v>
       </c>
       <c r="G96" s="3">
-        <v>-48300</v>
+        <v>-47800</v>
       </c>
       <c r="H96" s="3">
-        <v>-36500</v>
+        <v>-36200</v>
       </c>
       <c r="I96" s="3">
-        <v>-28700</v>
+        <v>-28400</v>
       </c>
       <c r="J96" s="3">
-        <v>-30000</v>
+        <v>-29700</v>
       </c>
       <c r="K96" s="3">
         <v>-30600</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2822700</v>
+        <v>-2796800</v>
       </c>
       <c r="E100" s="3">
-        <v>-460500</v>
+        <v>-456200</v>
       </c>
       <c r="F100" s="3">
-        <v>169600</v>
+        <v>168000</v>
       </c>
       <c r="G100" s="3">
-        <v>-888300</v>
+        <v>-880100</v>
       </c>
       <c r="H100" s="3">
-        <v>236100</v>
+        <v>233900</v>
       </c>
       <c r="I100" s="3">
-        <v>-540000</v>
+        <v>-535100</v>
       </c>
       <c r="J100" s="3">
-        <v>-49600</v>
+        <v>-49100</v>
       </c>
       <c r="K100" s="3">
         <v>-70100</v>
@@ -3218,22 +3218,22 @@
         <v>6500</v>
       </c>
       <c r="E101" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
       <c r="F101" s="3">
         <v>-1300</v>
       </c>
       <c r="G101" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="H101" s="3">
         <v>-7800</v>
       </c>
       <c r="I101" s="3">
-        <v>50900</v>
+        <v>50400</v>
       </c>
       <c r="J101" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="K101" s="3">
         <v>16600</v>
@@ -3245,22 +3245,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1444000</v>
+        <v>1430700</v>
       </c>
       <c r="E102" s="3">
-        <v>601300</v>
+        <v>595800</v>
       </c>
       <c r="F102" s="3">
-        <v>-191700</v>
+        <v>-190000</v>
       </c>
       <c r="G102" s="3">
-        <v>-144800</v>
+        <v>-143500</v>
       </c>
       <c r="H102" s="3">
-        <v>290900</v>
+        <v>288200</v>
       </c>
       <c r="I102" s="3">
-        <v>66500</v>
+        <v>65900</v>
       </c>
       <c r="J102" s="3">
         <v>-1300</v>

--- a/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13593500</v>
+        <v>14007900</v>
       </c>
       <c r="E8" s="3">
-        <v>5651700</v>
+        <v>5824000</v>
       </c>
       <c r="F8" s="3">
-        <v>6303000</v>
+        <v>6495200</v>
       </c>
       <c r="G8" s="3">
-        <v>7906900</v>
+        <v>8148000</v>
       </c>
       <c r="H8" s="3">
-        <v>6635200</v>
+        <v>6837500</v>
       </c>
       <c r="I8" s="3">
-        <v>5751200</v>
+        <v>5926500</v>
       </c>
       <c r="J8" s="3">
-        <v>5298800</v>
+        <v>5460400</v>
       </c>
       <c r="K8" s="3">
         <v>4911800</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6003200</v>
+        <v>6186200</v>
       </c>
       <c r="E9" s="3">
-        <v>8054200</v>
+        <v>8299800</v>
       </c>
       <c r="F9" s="3">
-        <v>4719800</v>
+        <v>4863700</v>
       </c>
       <c r="G9" s="3">
-        <v>4674600</v>
+        <v>4817100</v>
       </c>
       <c r="H9" s="3">
-        <v>4037500</v>
+        <v>4160500</v>
       </c>
       <c r="I9" s="3">
-        <v>3839700</v>
+        <v>3956800</v>
       </c>
       <c r="J9" s="3">
-        <v>3714400</v>
+        <v>3827600</v>
       </c>
       <c r="K9" s="3">
         <v>3232900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7590300</v>
+        <v>7821700</v>
       </c>
       <c r="E10" s="3">
-        <v>-2402600</v>
+        <v>-2475800</v>
       </c>
       <c r="F10" s="3">
-        <v>1583200</v>
+        <v>1631500</v>
       </c>
       <c r="G10" s="3">
-        <v>3232300</v>
+        <v>3330800</v>
       </c>
       <c r="H10" s="3">
-        <v>2597700</v>
+        <v>2676900</v>
       </c>
       <c r="I10" s="3">
-        <v>1911500</v>
+        <v>1969700</v>
       </c>
       <c r="J10" s="3">
-        <v>1584500</v>
+        <v>1632800</v>
       </c>
       <c r="K10" s="3">
         <v>1678900</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>42600</v>
+        <v>43900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>833600</v>
+        <v>859000</v>
       </c>
       <c r="E15" s="3">
-        <v>319200</v>
+        <v>329000</v>
       </c>
       <c r="F15" s="3">
-        <v>334700</v>
+        <v>344900</v>
       </c>
       <c r="G15" s="3">
-        <v>332100</v>
+        <v>342300</v>
       </c>
       <c r="H15" s="3">
-        <v>271400</v>
+        <v>279700</v>
       </c>
       <c r="I15" s="3">
-        <v>254600</v>
+        <v>262400</v>
       </c>
       <c r="J15" s="3">
-        <v>246800</v>
+        <v>254400</v>
       </c>
       <c r="K15" s="3">
         <v>216500</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8494900</v>
+        <v>8753900</v>
       </c>
       <c r="E17" s="3">
-        <v>4577700</v>
+        <v>4717200</v>
       </c>
       <c r="F17" s="3">
-        <v>6508500</v>
+        <v>6706900</v>
       </c>
       <c r="G17" s="3">
-        <v>6521500</v>
+        <v>6720300</v>
       </c>
       <c r="H17" s="3">
-        <v>5510800</v>
+        <v>5678800</v>
       </c>
       <c r="I17" s="3">
-        <v>5128200</v>
+        <v>5284600</v>
       </c>
       <c r="J17" s="3">
-        <v>4977000</v>
+        <v>5128800</v>
       </c>
       <c r="K17" s="3">
         <v>4394600</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5098500</v>
+        <v>5254000</v>
       </c>
       <c r="E18" s="3">
-        <v>1074000</v>
+        <v>1106700</v>
       </c>
       <c r="F18" s="3">
-        <v>-205500</v>
+        <v>-211800</v>
       </c>
       <c r="G18" s="3">
-        <v>1385500</v>
+        <v>1427700</v>
       </c>
       <c r="H18" s="3">
-        <v>1124400</v>
+        <v>1158700</v>
       </c>
       <c r="I18" s="3">
-        <v>622900</v>
+        <v>641900</v>
       </c>
       <c r="J18" s="3">
-        <v>321800</v>
+        <v>331600</v>
       </c>
       <c r="K18" s="3">
         <v>517200</v>
@@ -1026,22 +1026,22 @@
         <v>1300</v>
       </c>
       <c r="E20" s="3">
-        <v>-11600</v>
+        <v>-12000</v>
       </c>
       <c r="F20" s="3">
-        <v>-20700</v>
+        <v>-21300</v>
       </c>
       <c r="G20" s="3">
-        <v>43900</v>
+        <v>45300</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-18100</v>
+        <v>-18600</v>
       </c>
       <c r="J20" s="3">
-        <v>-90500</v>
+        <v>-93200</v>
       </c>
       <c r="K20" s="3">
         <v>-10200</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5857000</v>
+        <v>6045200</v>
       </c>
       <c r="E21" s="3">
-        <v>1325500</v>
+        <v>1369300</v>
       </c>
       <c r="F21" s="3">
-        <v>109600</v>
+        <v>117300</v>
       </c>
       <c r="G21" s="3">
-        <v>1762600</v>
+        <v>1820600</v>
       </c>
       <c r="H21" s="3">
-        <v>1396700</v>
+        <v>1442700</v>
       </c>
       <c r="I21" s="3">
-        <v>860300</v>
+        <v>889700</v>
       </c>
       <c r="J21" s="3">
-        <v>479000</v>
+        <v>496700</v>
       </c>
       <c r="K21" s="3">
         <v>724300</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>62000</v>
+        <v>63900</v>
       </c>
       <c r="E22" s="3">
-        <v>41400</v>
+        <v>42600</v>
       </c>
       <c r="F22" s="3">
-        <v>56900</v>
+        <v>58600</v>
       </c>
       <c r="G22" s="3">
-        <v>43900</v>
+        <v>45300</v>
       </c>
       <c r="H22" s="3">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="I22" s="3">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="J22" s="3">
-        <v>29700</v>
+        <v>30600</v>
       </c>
       <c r="K22" s="3">
         <v>29300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5037800</v>
+        <v>5191400</v>
       </c>
       <c r="E23" s="3">
-        <v>1021000</v>
+        <v>1052100</v>
       </c>
       <c r="F23" s="3">
-        <v>-283000</v>
+        <v>-291700</v>
       </c>
       <c r="G23" s="3">
-        <v>1385500</v>
+        <v>1427700</v>
       </c>
       <c r="H23" s="3">
-        <v>1093400</v>
+        <v>1126700</v>
       </c>
       <c r="I23" s="3">
-        <v>573800</v>
+        <v>591300</v>
       </c>
       <c r="J23" s="3">
-        <v>201600</v>
+        <v>207800</v>
       </c>
       <c r="K23" s="3">
         <v>477700</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1229100</v>
+        <v>1266500</v>
       </c>
       <c r="E24" s="3">
-        <v>261100</v>
+        <v>269000</v>
       </c>
       <c r="F24" s="3">
-        <v>-89200</v>
+        <v>-91900</v>
       </c>
       <c r="G24" s="3">
-        <v>338600</v>
+        <v>348900</v>
       </c>
       <c r="H24" s="3">
-        <v>323100</v>
+        <v>333000</v>
       </c>
       <c r="I24" s="3">
-        <v>152500</v>
+        <v>157200</v>
       </c>
       <c r="J24" s="3">
-        <v>67200</v>
+        <v>69300</v>
       </c>
       <c r="K24" s="3">
         <v>147800</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3808700</v>
+        <v>3924800</v>
       </c>
       <c r="E26" s="3">
-        <v>759900</v>
+        <v>783100</v>
       </c>
       <c r="F26" s="3">
-        <v>-193900</v>
+        <v>-199800</v>
       </c>
       <c r="G26" s="3">
-        <v>1046800</v>
+        <v>1078800</v>
       </c>
       <c r="H26" s="3">
-        <v>770300</v>
+        <v>793800</v>
       </c>
       <c r="I26" s="3">
-        <v>421300</v>
+        <v>434200</v>
       </c>
       <c r="J26" s="3">
-        <v>134400</v>
+        <v>138500</v>
       </c>
       <c r="K26" s="3">
         <v>329900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3808700</v>
+        <v>3924800</v>
       </c>
       <c r="E27" s="3">
-        <v>759900</v>
+        <v>783100</v>
       </c>
       <c r="F27" s="3">
-        <v>-193900</v>
+        <v>-199800</v>
       </c>
       <c r="G27" s="3">
-        <v>1046800</v>
+        <v>1078800</v>
       </c>
       <c r="H27" s="3">
-        <v>770300</v>
+        <v>793800</v>
       </c>
       <c r="I27" s="3">
-        <v>421300</v>
+        <v>434200</v>
       </c>
       <c r="J27" s="3">
-        <v>134400</v>
+        <v>138500</v>
       </c>
       <c r="K27" s="3">
         <v>329900</v>
@@ -1386,22 +1386,22 @@
         <v>-1300</v>
       </c>
       <c r="E32" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="F32" s="3">
-        <v>20700</v>
+        <v>21300</v>
       </c>
       <c r="G32" s="3">
-        <v>-43900</v>
+        <v>-45300</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>18100</v>
+        <v>18600</v>
       </c>
       <c r="J32" s="3">
-        <v>90500</v>
+        <v>93200</v>
       </c>
       <c r="K32" s="3">
         <v>10200</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3808700</v>
+        <v>3924800</v>
       </c>
       <c r="E33" s="3">
-        <v>759900</v>
+        <v>783100</v>
       </c>
       <c r="F33" s="3">
-        <v>-193900</v>
+        <v>-199800</v>
       </c>
       <c r="G33" s="3">
-        <v>1046800</v>
+        <v>1078800</v>
       </c>
       <c r="H33" s="3">
-        <v>770300</v>
+        <v>793800</v>
       </c>
       <c r="I33" s="3">
-        <v>421300</v>
+        <v>434200</v>
       </c>
       <c r="J33" s="3">
-        <v>134400</v>
+        <v>138500</v>
       </c>
       <c r="K33" s="3">
         <v>329900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3808700</v>
+        <v>3924800</v>
       </c>
       <c r="E35" s="3">
-        <v>759900</v>
+        <v>783100</v>
       </c>
       <c r="F35" s="3">
-        <v>-193900</v>
+        <v>-199800</v>
       </c>
       <c r="G35" s="3">
-        <v>1046800</v>
+        <v>1078800</v>
       </c>
       <c r="H35" s="3">
-        <v>770300</v>
+        <v>793800</v>
       </c>
       <c r="I35" s="3">
-        <v>421300</v>
+        <v>434200</v>
       </c>
       <c r="J35" s="3">
-        <v>134400</v>
+        <v>138500</v>
       </c>
       <c r="K35" s="3">
         <v>329900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2026500</v>
+        <v>2088300</v>
       </c>
       <c r="E41" s="3">
-        <v>595800</v>
+        <v>614000</v>
       </c>
       <c r="F41" s="3">
-        <v>20700</v>
+        <v>21300</v>
       </c>
       <c r="G41" s="3">
-        <v>206800</v>
+        <v>213100</v>
       </c>
       <c r="H41" s="3">
-        <v>333400</v>
+        <v>343600</v>
       </c>
       <c r="I41" s="3">
-        <v>64600</v>
+        <v>66600</v>
       </c>
       <c r="J41" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="K41" s="3">
         <v>17800</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>710800</v>
+        <v>732500</v>
       </c>
       <c r="E43" s="3">
-        <v>770300</v>
+        <v>793800</v>
       </c>
       <c r="F43" s="3">
-        <v>507900</v>
+        <v>523400</v>
       </c>
       <c r="G43" s="3">
-        <v>491100</v>
+        <v>506100</v>
       </c>
       <c r="H43" s="3">
-        <v>454900</v>
+        <v>468800</v>
       </c>
       <c r="I43" s="3">
-        <v>383800</v>
+        <v>395500</v>
       </c>
       <c r="J43" s="3">
-        <v>399400</v>
+        <v>411500</v>
       </c>
       <c r="K43" s="3">
         <v>366900</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1371200</v>
+        <v>1413000</v>
       </c>
       <c r="E44" s="3">
-        <v>747000</v>
+        <v>769800</v>
       </c>
       <c r="F44" s="3">
-        <v>942200</v>
+        <v>970900</v>
       </c>
       <c r="G44" s="3">
-        <v>1022300</v>
+        <v>1053500</v>
       </c>
       <c r="H44" s="3">
-        <v>865900</v>
+        <v>892300</v>
       </c>
       <c r="I44" s="3">
-        <v>750900</v>
+        <v>773800</v>
       </c>
       <c r="J44" s="3">
-        <v>815500</v>
+        <v>840400</v>
       </c>
       <c r="K44" s="3">
         <v>746400</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>49100</v>
+        <v>50600</v>
       </c>
       <c r="E45" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="F45" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="G45" s="3">
-        <v>18100</v>
+        <v>18600</v>
       </c>
       <c r="H45" s="3">
-        <v>14200</v>
+        <v>14600</v>
       </c>
       <c r="I45" s="3">
-        <v>12900</v>
+        <v>13300</v>
       </c>
       <c r="J45" s="3">
-        <v>23300</v>
+        <v>24000</v>
       </c>
       <c r="K45" s="3">
         <v>24200</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4157700</v>
+        <v>4284400</v>
       </c>
       <c r="E46" s="3">
-        <v>1726600</v>
+        <v>1779300</v>
       </c>
       <c r="F46" s="3">
-        <v>1482400</v>
+        <v>1527600</v>
       </c>
       <c r="G46" s="3">
-        <v>1738300</v>
+        <v>1791300</v>
       </c>
       <c r="H46" s="3">
-        <v>1668500</v>
+        <v>1719400</v>
       </c>
       <c r="I46" s="3">
-        <v>1212300</v>
+        <v>1249200</v>
       </c>
       <c r="J46" s="3">
-        <v>1254900</v>
+        <v>1293200</v>
       </c>
       <c r="K46" s="3">
         <v>1155300</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5298800</v>
+        <v>5460400</v>
       </c>
       <c r="E48" s="3">
-        <v>2141500</v>
+        <v>2206800</v>
       </c>
       <c r="F48" s="3">
-        <v>2765700</v>
+        <v>2850100</v>
       </c>
       <c r="G48" s="3">
-        <v>2657200</v>
+        <v>2738200</v>
       </c>
       <c r="H48" s="3">
-        <v>2445200</v>
+        <v>2519800</v>
       </c>
       <c r="I48" s="3">
-        <v>2177700</v>
+        <v>2244100</v>
       </c>
       <c r="J48" s="3">
-        <v>2079500</v>
+        <v>2142900</v>
       </c>
       <c r="K48" s="3">
         <v>1871200</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3629100</v>
+        <v>3739700</v>
       </c>
       <c r="E49" s="3">
-        <v>1244600</v>
+        <v>1282500</v>
       </c>
       <c r="F49" s="3">
-        <v>1634900</v>
+        <v>1684700</v>
       </c>
       <c r="G49" s="3">
-        <v>1654300</v>
+        <v>1704700</v>
       </c>
       <c r="H49" s="3">
-        <v>1633600</v>
+        <v>1683400</v>
       </c>
       <c r="I49" s="3">
-        <v>1191600</v>
+        <v>1227900</v>
       </c>
       <c r="J49" s="3">
-        <v>1213600</v>
+        <v>1250600</v>
       </c>
       <c r="K49" s="3">
         <v>1120900</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>398100</v>
+        <v>410200</v>
       </c>
       <c r="E52" s="3">
-        <v>286900</v>
+        <v>295700</v>
       </c>
       <c r="F52" s="3">
-        <v>149900</v>
+        <v>154500</v>
       </c>
       <c r="G52" s="3">
-        <v>142200</v>
+        <v>146500</v>
       </c>
       <c r="H52" s="3">
-        <v>90500</v>
+        <v>93200</v>
       </c>
       <c r="I52" s="3">
-        <v>71100</v>
+        <v>73200</v>
       </c>
       <c r="J52" s="3">
-        <v>149900</v>
+        <v>154500</v>
       </c>
       <c r="K52" s="3">
         <v>179600</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13483600</v>
+        <v>13894700</v>
       </c>
       <c r="E54" s="3">
-        <v>5399600</v>
+        <v>5564300</v>
       </c>
       <c r="F54" s="3">
-        <v>6032900</v>
+        <v>6216800</v>
       </c>
       <c r="G54" s="3">
-        <v>6191900</v>
+        <v>6380700</v>
       </c>
       <c r="H54" s="3">
-        <v>5837800</v>
+        <v>6015700</v>
       </c>
       <c r="I54" s="3">
-        <v>4652600</v>
+        <v>4794500</v>
       </c>
       <c r="J54" s="3">
-        <v>4697900</v>
+        <v>4841100</v>
       </c>
       <c r="K54" s="3">
         <v>4327100</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>697900</v>
+        <v>719200</v>
       </c>
       <c r="E57" s="3">
-        <v>292100</v>
+        <v>301000</v>
       </c>
       <c r="F57" s="3">
-        <v>308900</v>
+        <v>318300</v>
       </c>
       <c r="G57" s="3">
-        <v>336000</v>
+        <v>346300</v>
       </c>
       <c r="H57" s="3">
-        <v>315300</v>
+        <v>325000</v>
       </c>
       <c r="I57" s="3">
-        <v>272700</v>
+        <v>281000</v>
       </c>
       <c r="J57" s="3">
-        <v>244300</v>
+        <v>251700</v>
       </c>
       <c r="K57" s="3">
         <v>257300</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14200</v>
+        <v>14600</v>
       </c>
       <c r="E58" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="F58" s="3">
-        <v>520800</v>
+        <v>536700</v>
       </c>
       <c r="G58" s="3">
-        <v>95600</v>
+        <v>98600</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>19400</v>
+        <v>20000</v>
       </c>
       <c r="J58" s="3">
-        <v>267500</v>
+        <v>275700</v>
       </c>
       <c r="K58" s="3">
         <v>177100</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>846500</v>
+        <v>872300</v>
       </c>
       <c r="E59" s="3">
-        <v>378700</v>
+        <v>390200</v>
       </c>
       <c r="F59" s="3">
-        <v>252000</v>
+        <v>259700</v>
       </c>
       <c r="G59" s="3">
-        <v>337300</v>
+        <v>347600</v>
       </c>
       <c r="H59" s="3">
-        <v>438100</v>
+        <v>451500</v>
       </c>
       <c r="I59" s="3">
-        <v>301100</v>
+        <v>310300</v>
       </c>
       <c r="J59" s="3">
-        <v>271400</v>
+        <v>279700</v>
       </c>
       <c r="K59" s="3">
         <v>350300</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1558600</v>
+        <v>1606200</v>
       </c>
       <c r="E60" s="3">
-        <v>682400</v>
+        <v>703200</v>
       </c>
       <c r="F60" s="3">
-        <v>1081700</v>
+        <v>1114700</v>
       </c>
       <c r="G60" s="3">
-        <v>769000</v>
+        <v>792400</v>
       </c>
       <c r="H60" s="3">
-        <v>753500</v>
+        <v>776400</v>
       </c>
       <c r="I60" s="3">
-        <v>593200</v>
+        <v>611300</v>
       </c>
       <c r="J60" s="3">
-        <v>783200</v>
+        <v>807100</v>
       </c>
       <c r="K60" s="3">
         <v>784700</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>644900</v>
+        <v>664600</v>
       </c>
       <c r="E61" s="3">
-        <v>646200</v>
+        <v>665900</v>
       </c>
       <c r="F61" s="3">
-        <v>850400</v>
+        <v>876300</v>
       </c>
       <c r="G61" s="3">
-        <v>894300</v>
+        <v>921600</v>
       </c>
       <c r="H61" s="3">
-        <v>822000</v>
+        <v>847000</v>
       </c>
       <c r="I61" s="3">
-        <v>533800</v>
+        <v>550000</v>
       </c>
       <c r="J61" s="3">
-        <v>546700</v>
+        <v>563400</v>
       </c>
       <c r="K61" s="3">
         <v>450900</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1385500</v>
+        <v>1427700</v>
       </c>
       <c r="E62" s="3">
-        <v>868500</v>
+        <v>895000</v>
       </c>
       <c r="F62" s="3">
-        <v>903400</v>
+        <v>930900</v>
       </c>
       <c r="G62" s="3">
-        <v>785800</v>
+        <v>809700</v>
       </c>
       <c r="H62" s="3">
-        <v>739300</v>
+        <v>761800</v>
       </c>
       <c r="I62" s="3">
-        <v>629400</v>
+        <v>648600</v>
       </c>
       <c r="J62" s="3">
-        <v>593200</v>
+        <v>611300</v>
       </c>
       <c r="K62" s="3">
         <v>507000</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3589000</v>
+        <v>3698400</v>
       </c>
       <c r="E66" s="3">
-        <v>2197100</v>
+        <v>2264100</v>
       </c>
       <c r="F66" s="3">
-        <v>2835500</v>
+        <v>2922000</v>
       </c>
       <c r="G66" s="3">
-        <v>2449100</v>
+        <v>2523800</v>
       </c>
       <c r="H66" s="3">
-        <v>2314700</v>
+        <v>2385300</v>
       </c>
       <c r="I66" s="3">
-        <v>1756400</v>
+        <v>1809900</v>
       </c>
       <c r="J66" s="3">
-        <v>1923100</v>
+        <v>1981700</v>
       </c>
       <c r="K66" s="3">
         <v>1742600</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5819700</v>
+        <v>5997100</v>
       </c>
       <c r="E72" s="3">
-        <v>2891100</v>
+        <v>2979200</v>
       </c>
       <c r="F72" s="3">
-        <v>2402600</v>
+        <v>2475800</v>
       </c>
       <c r="G72" s="3">
-        <v>2888500</v>
+        <v>2976600</v>
       </c>
       <c r="H72" s="3">
-        <v>2674000</v>
+        <v>2755500</v>
       </c>
       <c r="I72" s="3">
-        <v>1992900</v>
+        <v>2053600</v>
       </c>
       <c r="J72" s="3">
-        <v>1814500</v>
+        <v>1869800</v>
       </c>
       <c r="K72" s="3">
         <v>1766800</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9894600</v>
+        <v>10196300</v>
       </c>
       <c r="E76" s="3">
-        <v>3202600</v>
+        <v>3300200</v>
       </c>
       <c r="F76" s="3">
-        <v>3197400</v>
+        <v>3294900</v>
       </c>
       <c r="G76" s="3">
-        <v>3742800</v>
+        <v>3856900</v>
       </c>
       <c r="H76" s="3">
-        <v>3523100</v>
+        <v>3630500</v>
       </c>
       <c r="I76" s="3">
-        <v>2896300</v>
+        <v>2984600</v>
       </c>
       <c r="J76" s="3">
-        <v>2774800</v>
+        <v>2859400</v>
       </c>
       <c r="K76" s="3">
         <v>2584500</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3808700</v>
+        <v>3924800</v>
       </c>
       <c r="E81" s="3">
-        <v>759900</v>
+        <v>783100</v>
       </c>
       <c r="F81" s="3">
-        <v>-193900</v>
+        <v>-199800</v>
       </c>
       <c r="G81" s="3">
-        <v>1046800</v>
+        <v>1078800</v>
       </c>
       <c r="H81" s="3">
-        <v>770300</v>
+        <v>793800</v>
       </c>
       <c r="I81" s="3">
-        <v>421300</v>
+        <v>434200</v>
       </c>
       <c r="J81" s="3">
-        <v>134400</v>
+        <v>138500</v>
       </c>
       <c r="K81" s="3">
         <v>329900</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>754800</v>
+        <v>777800</v>
       </c>
       <c r="E83" s="3">
+        <v>270400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>344900</v>
+      </c>
+      <c r="G83" s="3">
+        <v>342300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>279700</v>
+      </c>
+      <c r="I83" s="3">
         <v>262400</v>
       </c>
-      <c r="F83" s="3">
-        <v>334700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>332100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>271400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>254600</v>
-      </c>
       <c r="J83" s="3">
-        <v>246800</v>
+        <v>254400</v>
       </c>
       <c r="K83" s="3">
         <v>216500</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4590600</v>
+        <v>4730600</v>
       </c>
       <c r="E89" s="3">
-        <v>1251000</v>
+        <v>1289200</v>
       </c>
       <c r="F89" s="3">
-        <v>148600</v>
+        <v>153200</v>
       </c>
       <c r="G89" s="3">
-        <v>1174800</v>
+        <v>1210600</v>
       </c>
       <c r="H89" s="3">
-        <v>1165700</v>
+        <v>1201300</v>
       </c>
       <c r="I89" s="3">
-        <v>890500</v>
+        <v>917600</v>
       </c>
       <c r="J89" s="3">
-        <v>389000</v>
+        <v>400900</v>
       </c>
       <c r="K89" s="3">
         <v>605100</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-820700</v>
+        <v>-845700</v>
       </c>
       <c r="E91" s="3">
-        <v>-232600</v>
+        <v>-239700</v>
       </c>
       <c r="F91" s="3">
-        <v>-529900</v>
+        <v>-546000</v>
       </c>
       <c r="G91" s="3">
-        <v>-478200</v>
+        <v>-492800</v>
       </c>
       <c r="H91" s="3">
-        <v>-434200</v>
+        <v>-447500</v>
       </c>
       <c r="I91" s="3">
-        <v>-352800</v>
+        <v>-363600</v>
       </c>
       <c r="J91" s="3">
-        <v>-284300</v>
+        <v>-293000</v>
       </c>
       <c r="K91" s="3">
         <v>-522300</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-369600</v>
+        <v>-380900</v>
       </c>
       <c r="E94" s="3">
-        <v>-214500</v>
+        <v>-221100</v>
       </c>
       <c r="F94" s="3">
-        <v>-505300</v>
+        <v>-520700</v>
       </c>
       <c r="G94" s="3">
-        <v>-457500</v>
+        <v>-471500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1103700</v>
+        <v>-1137400</v>
       </c>
       <c r="I94" s="3">
-        <v>-339900</v>
+        <v>-350300</v>
       </c>
       <c r="J94" s="3">
-        <v>-372200</v>
+        <v>-383600</v>
       </c>
       <c r="K94" s="3">
         <v>-777000</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-96900</v>
+        <v>-99900</v>
       </c>
       <c r="E96" s="3">
-        <v>-53000</v>
+        <v>-54600</v>
       </c>
       <c r="F96" s="3">
-        <v>-71100</v>
+        <v>-73200</v>
       </c>
       <c r="G96" s="3">
-        <v>-47800</v>
+        <v>-49300</v>
       </c>
       <c r="H96" s="3">
-        <v>-36200</v>
+        <v>-37300</v>
       </c>
       <c r="I96" s="3">
-        <v>-28400</v>
+        <v>-29300</v>
       </c>
       <c r="J96" s="3">
-        <v>-29700</v>
+        <v>-30600</v>
       </c>
       <c r="K96" s="3">
         <v>-30600</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2796800</v>
+        <v>-2882000</v>
       </c>
       <c r="E100" s="3">
-        <v>-456200</v>
+        <v>-470100</v>
       </c>
       <c r="F100" s="3">
-        <v>168000</v>
+        <v>173100</v>
       </c>
       <c r="G100" s="3">
-        <v>-880100</v>
+        <v>-907000</v>
       </c>
       <c r="H100" s="3">
-        <v>233900</v>
+        <v>241100</v>
       </c>
       <c r="I100" s="3">
-        <v>-535100</v>
+        <v>-551400</v>
       </c>
       <c r="J100" s="3">
-        <v>-49100</v>
+        <v>-50600</v>
       </c>
       <c r="K100" s="3">
         <v>-70100</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="E101" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="F101" s="3">
         <v>-1300</v>
       </c>
       <c r="G101" s="3">
-        <v>19400</v>
+        <v>20000</v>
       </c>
       <c r="H101" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="I101" s="3">
-        <v>50400</v>
+        <v>51900</v>
       </c>
       <c r="J101" s="3">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="K101" s="3">
         <v>16600</v>
@@ -3245,22 +3245,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1430700</v>
+        <v>1474300</v>
       </c>
       <c r="E102" s="3">
-        <v>595800</v>
+        <v>614000</v>
       </c>
       <c r="F102" s="3">
-        <v>-190000</v>
+        <v>-195800</v>
       </c>
       <c r="G102" s="3">
-        <v>-143500</v>
+        <v>-147800</v>
       </c>
       <c r="H102" s="3">
-        <v>288200</v>
+        <v>297000</v>
       </c>
       <c r="I102" s="3">
-        <v>65900</v>
+        <v>67900</v>
       </c>
       <c r="J102" s="3">
         <v>-1300</v>

--- a/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>WFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14007900</v>
+        <v>13413600</v>
       </c>
       <c r="E8" s="3">
-        <v>5824000</v>
+        <v>14543200</v>
       </c>
       <c r="F8" s="3">
-        <v>6495200</v>
+        <v>6046500</v>
       </c>
       <c r="G8" s="3">
-        <v>8148000</v>
+        <v>6743400</v>
       </c>
       <c r="H8" s="3">
-        <v>6837500</v>
+        <v>8459400</v>
       </c>
       <c r="I8" s="3">
-        <v>5926500</v>
+        <v>7098800</v>
       </c>
       <c r="J8" s="3">
+        <v>6153000</v>
+      </c>
+      <c r="K8" s="3">
         <v>5460400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4911800</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6186200</v>
+        <v>7109800</v>
       </c>
       <c r="E9" s="3">
-        <v>8299800</v>
+        <v>6422600</v>
       </c>
       <c r="F9" s="3">
-        <v>4863700</v>
+        <v>8617000</v>
       </c>
       <c r="G9" s="3">
-        <v>4817100</v>
+        <v>5049600</v>
       </c>
       <c r="H9" s="3">
-        <v>4160500</v>
+        <v>5001200</v>
       </c>
       <c r="I9" s="3">
-        <v>3956800</v>
+        <v>4319600</v>
       </c>
       <c r="J9" s="3">
+        <v>4108000</v>
+      </c>
+      <c r="K9" s="3">
         <v>3827600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3232900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7821700</v>
+        <v>6303700</v>
       </c>
       <c r="E10" s="3">
-        <v>-2475800</v>
+        <v>8120600</v>
       </c>
       <c r="F10" s="3">
-        <v>1631500</v>
+        <v>-2570400</v>
       </c>
       <c r="G10" s="3">
-        <v>3330800</v>
+        <v>1693800</v>
       </c>
       <c r="H10" s="3">
-        <v>2676900</v>
+        <v>3458100</v>
       </c>
       <c r="I10" s="3">
-        <v>1969700</v>
+        <v>2779200</v>
       </c>
       <c r="J10" s="3">
+        <v>2045000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1632800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1678900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,23 +887,26 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>43900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -898,42 +917,48 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>859000</v>
+        <v>915300</v>
       </c>
       <c r="E15" s="3">
-        <v>329000</v>
+        <v>891800</v>
       </c>
       <c r="F15" s="3">
-        <v>344900</v>
+        <v>341500</v>
       </c>
       <c r="G15" s="3">
-        <v>342300</v>
+        <v>358100</v>
       </c>
       <c r="H15" s="3">
-        <v>279700</v>
+        <v>355400</v>
       </c>
       <c r="I15" s="3">
-        <v>262400</v>
+        <v>290400</v>
       </c>
       <c r="J15" s="3">
+        <v>272400</v>
+      </c>
+      <c r="K15" s="3">
         <v>254400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>216500</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8753900</v>
+        <v>9875200</v>
       </c>
       <c r="E17" s="3">
-        <v>4717200</v>
+        <v>9088500</v>
       </c>
       <c r="F17" s="3">
-        <v>6706900</v>
+        <v>4897500</v>
       </c>
       <c r="G17" s="3">
-        <v>6720300</v>
+        <v>6963300</v>
       </c>
       <c r="H17" s="3">
-        <v>5678800</v>
+        <v>6977100</v>
       </c>
       <c r="I17" s="3">
-        <v>5284600</v>
+        <v>5895800</v>
       </c>
       <c r="J17" s="3">
+        <v>5486600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5128800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4394600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5254000</v>
+        <v>3538300</v>
       </c>
       <c r="E18" s="3">
-        <v>1106700</v>
+        <v>5454800</v>
       </c>
       <c r="F18" s="3">
-        <v>-211800</v>
+        <v>1149000</v>
       </c>
       <c r="G18" s="3">
-        <v>1427700</v>
+        <v>-219800</v>
       </c>
       <c r="H18" s="3">
-        <v>1158700</v>
+        <v>1482300</v>
       </c>
       <c r="I18" s="3">
-        <v>641900</v>
+        <v>1202900</v>
       </c>
       <c r="J18" s="3">
+        <v>666500</v>
+      </c>
+      <c r="K18" s="3">
         <v>331600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>517200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1300</v>
+        <v>80200</v>
       </c>
       <c r="E20" s="3">
-        <v>-12000</v>
+        <v>1400</v>
       </c>
       <c r="F20" s="3">
-        <v>-21300</v>
+        <v>-12400</v>
       </c>
       <c r="G20" s="3">
-        <v>45300</v>
+        <v>-22100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>47000</v>
       </c>
       <c r="I20" s="3">
-        <v>-18600</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-93200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6045200</v>
+        <v>4431600</v>
       </c>
       <c r="E21" s="3">
-        <v>1369300</v>
+        <v>6262300</v>
       </c>
       <c r="F21" s="3">
-        <v>117300</v>
+        <v>1416800</v>
       </c>
       <c r="G21" s="3">
-        <v>1820600</v>
+        <v>115600</v>
       </c>
       <c r="H21" s="3">
-        <v>1442700</v>
+        <v>1884000</v>
       </c>
       <c r="I21" s="3">
-        <v>889700</v>
+        <v>1492800</v>
       </c>
       <c r="J21" s="3">
+        <v>919000</v>
+      </c>
+      <c r="K21" s="3">
         <v>496700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>724300</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>63900</v>
+        <v>33200</v>
       </c>
       <c r="E22" s="3">
-        <v>42600</v>
+        <v>66400</v>
       </c>
       <c r="F22" s="3">
-        <v>58600</v>
+        <v>44200</v>
       </c>
       <c r="G22" s="3">
-        <v>45300</v>
+        <v>60800</v>
       </c>
       <c r="H22" s="3">
-        <v>32000</v>
+        <v>47000</v>
       </c>
       <c r="I22" s="3">
-        <v>32000</v>
+        <v>33200</v>
       </c>
       <c r="J22" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K22" s="3">
         <v>30600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>29300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5191400</v>
+        <v>3585300</v>
       </c>
       <c r="E23" s="3">
-        <v>1052100</v>
+        <v>5389800</v>
       </c>
       <c r="F23" s="3">
-        <v>-291700</v>
+        <v>1092300</v>
       </c>
       <c r="G23" s="3">
-        <v>1427700</v>
+        <v>-302800</v>
       </c>
       <c r="H23" s="3">
-        <v>1126700</v>
+        <v>1482300</v>
       </c>
       <c r="I23" s="3">
-        <v>591300</v>
+        <v>1169800</v>
       </c>
       <c r="J23" s="3">
+        <v>613900</v>
+      </c>
+      <c r="K23" s="3">
         <v>207800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>477700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1266500</v>
+        <v>854500</v>
       </c>
       <c r="E24" s="3">
-        <v>269000</v>
+        <v>1314900</v>
       </c>
       <c r="F24" s="3">
-        <v>-91900</v>
+        <v>279300</v>
       </c>
       <c r="G24" s="3">
-        <v>348900</v>
+        <v>-95400</v>
       </c>
       <c r="H24" s="3">
-        <v>333000</v>
+        <v>362300</v>
       </c>
       <c r="I24" s="3">
-        <v>157200</v>
+        <v>345700</v>
       </c>
       <c r="J24" s="3">
+        <v>163200</v>
+      </c>
+      <c r="K24" s="3">
         <v>69300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>147800</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3924800</v>
+        <v>2730800</v>
       </c>
       <c r="E26" s="3">
-        <v>783100</v>
+        <v>4074800</v>
       </c>
       <c r="F26" s="3">
-        <v>-199800</v>
+        <v>813000</v>
       </c>
       <c r="G26" s="3">
-        <v>1078800</v>
+        <v>-207400</v>
       </c>
       <c r="H26" s="3">
-        <v>793800</v>
+        <v>1120000</v>
       </c>
       <c r="I26" s="3">
-        <v>434200</v>
+        <v>824100</v>
       </c>
       <c r="J26" s="3">
+        <v>450800</v>
+      </c>
+      <c r="K26" s="3">
         <v>138500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>329900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3924800</v>
+        <v>2730800</v>
       </c>
       <c r="E27" s="3">
-        <v>783100</v>
+        <v>4074800</v>
       </c>
       <c r="F27" s="3">
-        <v>-199800</v>
+        <v>813000</v>
       </c>
       <c r="G27" s="3">
-        <v>1078800</v>
+        <v>-207400</v>
       </c>
       <c r="H27" s="3">
-        <v>793800</v>
+        <v>1120000</v>
       </c>
       <c r="I27" s="3">
-        <v>434200</v>
+        <v>824100</v>
       </c>
       <c r="J27" s="3">
+        <v>450800</v>
+      </c>
+      <c r="K27" s="3">
         <v>138500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>329900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1300</v>
+        <v>-80200</v>
       </c>
       <c r="E32" s="3">
-        <v>12000</v>
+        <v>-1400</v>
       </c>
       <c r="F32" s="3">
-        <v>21300</v>
+        <v>12400</v>
       </c>
       <c r="G32" s="3">
-        <v>-45300</v>
+        <v>22100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-47000</v>
       </c>
       <c r="I32" s="3">
-        <v>18600</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K32" s="3">
         <v>93200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3924800</v>
+        <v>2730800</v>
       </c>
       <c r="E33" s="3">
-        <v>783100</v>
+        <v>4074800</v>
       </c>
       <c r="F33" s="3">
-        <v>-199800</v>
+        <v>813000</v>
       </c>
       <c r="G33" s="3">
-        <v>1078800</v>
+        <v>-207400</v>
       </c>
       <c r="H33" s="3">
-        <v>793800</v>
+        <v>1120000</v>
       </c>
       <c r="I33" s="3">
-        <v>434200</v>
+        <v>824100</v>
       </c>
       <c r="J33" s="3">
+        <v>450800</v>
+      </c>
+      <c r="K33" s="3">
         <v>138500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>329900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3924800</v>
+        <v>2730800</v>
       </c>
       <c r="E35" s="3">
-        <v>783100</v>
+        <v>4074800</v>
       </c>
       <c r="F35" s="3">
-        <v>-199800</v>
+        <v>813000</v>
       </c>
       <c r="G35" s="3">
-        <v>1078800</v>
+        <v>-207400</v>
       </c>
       <c r="H35" s="3">
-        <v>793800</v>
+        <v>1120000</v>
       </c>
       <c r="I35" s="3">
-        <v>434200</v>
+        <v>824100</v>
       </c>
       <c r="J35" s="3">
+        <v>450800</v>
+      </c>
+      <c r="K35" s="3">
         <v>138500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>329900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2088300</v>
+        <v>1606700</v>
       </c>
       <c r="E41" s="3">
-        <v>614000</v>
+        <v>2168100</v>
       </c>
       <c r="F41" s="3">
-        <v>21300</v>
+        <v>637400</v>
       </c>
       <c r="G41" s="3">
-        <v>213100</v>
+        <v>22100</v>
       </c>
       <c r="H41" s="3">
-        <v>343600</v>
+        <v>221200</v>
       </c>
       <c r="I41" s="3">
-        <v>66600</v>
+        <v>356700</v>
       </c>
       <c r="J41" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K41" s="3">
         <v>17300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,129 +1708,144 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>732500</v>
+        <v>684400</v>
       </c>
       <c r="E43" s="3">
-        <v>793800</v>
+        <v>760500</v>
       </c>
       <c r="F43" s="3">
-        <v>523400</v>
+        <v>824100</v>
       </c>
       <c r="G43" s="3">
-        <v>506100</v>
+        <v>543400</v>
       </c>
       <c r="H43" s="3">
-        <v>468800</v>
+        <v>525400</v>
       </c>
       <c r="I43" s="3">
-        <v>395500</v>
+        <v>486700</v>
       </c>
       <c r="J43" s="3">
+        <v>410700</v>
+      </c>
+      <c r="K43" s="3">
         <v>411500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>366900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1413000</v>
+        <v>1426900</v>
       </c>
       <c r="E44" s="3">
-        <v>769800</v>
+        <v>1467000</v>
       </c>
       <c r="F44" s="3">
-        <v>970900</v>
+        <v>799200</v>
       </c>
       <c r="G44" s="3">
-        <v>1053500</v>
+        <v>1008000</v>
       </c>
       <c r="H44" s="3">
-        <v>892300</v>
+        <v>1093700</v>
       </c>
       <c r="I44" s="3">
-        <v>773800</v>
+        <v>926400</v>
       </c>
       <c r="J44" s="3">
+        <v>803300</v>
+      </c>
+      <c r="K44" s="3">
         <v>840400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>746400</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>50600</v>
+        <v>83000</v>
       </c>
       <c r="E45" s="3">
-        <v>16000</v>
+        <v>52500</v>
       </c>
       <c r="F45" s="3">
-        <v>12000</v>
+        <v>16600</v>
       </c>
       <c r="G45" s="3">
-        <v>18600</v>
+        <v>12400</v>
       </c>
       <c r="H45" s="3">
-        <v>14600</v>
+        <v>19400</v>
       </c>
       <c r="I45" s="3">
-        <v>13300</v>
+        <v>15200</v>
       </c>
       <c r="J45" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K45" s="3">
         <v>24000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4284400</v>
+        <v>3801000</v>
       </c>
       <c r="E46" s="3">
-        <v>1779300</v>
+        <v>4448100</v>
       </c>
       <c r="F46" s="3">
-        <v>1527600</v>
+        <v>1847300</v>
       </c>
       <c r="G46" s="3">
-        <v>1791300</v>
+        <v>1586000</v>
       </c>
       <c r="H46" s="3">
-        <v>1719400</v>
+        <v>1859700</v>
       </c>
       <c r="I46" s="3">
-        <v>1249200</v>
+        <v>1785100</v>
       </c>
       <c r="J46" s="3">
+        <v>1297000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1293200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1155300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1769,69 +1873,78 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5460400</v>
+        <v>5505900</v>
       </c>
       <c r="E48" s="3">
-        <v>2206800</v>
+        <v>5669100</v>
       </c>
       <c r="F48" s="3">
-        <v>2850100</v>
+        <v>2291100</v>
       </c>
       <c r="G48" s="3">
-        <v>2738200</v>
+        <v>2959000</v>
       </c>
       <c r="H48" s="3">
-        <v>2519800</v>
+        <v>2842800</v>
       </c>
       <c r="I48" s="3">
-        <v>2244100</v>
+        <v>2616100</v>
       </c>
       <c r="J48" s="3">
+        <v>2329800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2142900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1871200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3739700</v>
+        <v>3745700</v>
       </c>
       <c r="E49" s="3">
-        <v>1282500</v>
+        <v>3882600</v>
       </c>
       <c r="F49" s="3">
-        <v>1684700</v>
+        <v>1331500</v>
       </c>
       <c r="G49" s="3">
-        <v>1704700</v>
+        <v>1749100</v>
       </c>
       <c r="H49" s="3">
-        <v>1683400</v>
+        <v>1769900</v>
       </c>
       <c r="I49" s="3">
-        <v>1227900</v>
+        <v>1747700</v>
       </c>
       <c r="J49" s="3">
+        <v>1274800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1250600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1120900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>410200</v>
+        <v>737000</v>
       </c>
       <c r="E52" s="3">
-        <v>295700</v>
+        <v>425900</v>
       </c>
       <c r="F52" s="3">
+        <v>307000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>160400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>152100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>96800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K52" s="3">
         <v>154500</v>
       </c>
-      <c r="G52" s="3">
-        <v>146500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>93200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>73200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>154500</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>179600</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13894700</v>
+        <v>13789700</v>
       </c>
       <c r="E54" s="3">
-        <v>5564300</v>
+        <v>14425700</v>
       </c>
       <c r="F54" s="3">
-        <v>6216800</v>
+        <v>5776900</v>
       </c>
       <c r="G54" s="3">
-        <v>6380700</v>
+        <v>6454400</v>
       </c>
       <c r="H54" s="3">
-        <v>6015700</v>
+        <v>6624500</v>
       </c>
       <c r="I54" s="3">
-        <v>4794500</v>
+        <v>6245700</v>
       </c>
       <c r="J54" s="3">
+        <v>4977700</v>
+      </c>
+      <c r="K54" s="3">
         <v>4841100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4327100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>719200</v>
+        <v>622200</v>
       </c>
       <c r="E57" s="3">
-        <v>301000</v>
+        <v>746700</v>
       </c>
       <c r="F57" s="3">
-        <v>318300</v>
+        <v>312500</v>
       </c>
       <c r="G57" s="3">
-        <v>346300</v>
+        <v>330500</v>
       </c>
       <c r="H57" s="3">
-        <v>325000</v>
+        <v>359500</v>
       </c>
       <c r="I57" s="3">
-        <v>281000</v>
+        <v>337400</v>
       </c>
       <c r="J57" s="3">
+        <v>291700</v>
+      </c>
+      <c r="K57" s="3">
         <v>251700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>257300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14600</v>
+        <v>15200</v>
       </c>
       <c r="E58" s="3">
-        <v>12000</v>
+        <v>15200</v>
       </c>
       <c r="F58" s="3">
-        <v>536700</v>
+        <v>12400</v>
       </c>
       <c r="G58" s="3">
-        <v>98600</v>
+        <v>557200</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>102300</v>
       </c>
       <c r="I58" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K58" s="3">
         <v>275700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>177100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>872300</v>
+        <v>457700</v>
       </c>
       <c r="E59" s="3">
-        <v>390200</v>
+        <v>905700</v>
       </c>
       <c r="F59" s="3">
-        <v>259700</v>
+        <v>405100</v>
       </c>
       <c r="G59" s="3">
-        <v>347600</v>
+        <v>269600</v>
       </c>
       <c r="H59" s="3">
-        <v>451500</v>
+        <v>360900</v>
       </c>
       <c r="I59" s="3">
-        <v>310300</v>
+        <v>468700</v>
       </c>
       <c r="J59" s="3">
+        <v>322200</v>
+      </c>
+      <c r="K59" s="3">
         <v>279700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>350300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1606200</v>
+        <v>1095100</v>
       </c>
       <c r="E60" s="3">
-        <v>703200</v>
+        <v>1667500</v>
       </c>
       <c r="F60" s="3">
-        <v>1114700</v>
+        <v>730100</v>
       </c>
       <c r="G60" s="3">
-        <v>792400</v>
+        <v>1157300</v>
       </c>
       <c r="H60" s="3">
-        <v>776400</v>
+        <v>822700</v>
       </c>
       <c r="I60" s="3">
-        <v>611300</v>
+        <v>806100</v>
       </c>
       <c r="J60" s="3">
+        <v>634700</v>
+      </c>
+      <c r="K60" s="3">
         <v>807100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>784700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>664600</v>
+        <v>725900</v>
       </c>
       <c r="E61" s="3">
-        <v>665900</v>
+        <v>690000</v>
       </c>
       <c r="F61" s="3">
-        <v>876300</v>
+        <v>691400</v>
       </c>
       <c r="G61" s="3">
-        <v>921600</v>
+        <v>909800</v>
       </c>
       <c r="H61" s="3">
-        <v>847000</v>
+        <v>956800</v>
       </c>
       <c r="I61" s="3">
-        <v>550000</v>
+        <v>879400</v>
       </c>
       <c r="J61" s="3">
+        <v>571100</v>
+      </c>
+      <c r="K61" s="3">
         <v>563400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>450900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1427700</v>
+        <v>1433900</v>
       </c>
       <c r="E62" s="3">
-        <v>895000</v>
+        <v>1482300</v>
       </c>
       <c r="F62" s="3">
-        <v>930900</v>
+        <v>929200</v>
       </c>
       <c r="G62" s="3">
-        <v>809700</v>
+        <v>966500</v>
       </c>
       <c r="H62" s="3">
-        <v>761800</v>
+        <v>840700</v>
       </c>
       <c r="I62" s="3">
-        <v>648600</v>
+        <v>790900</v>
       </c>
       <c r="J62" s="3">
+        <v>673400</v>
+      </c>
+      <c r="K62" s="3">
         <v>611300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>507000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3698400</v>
+        <v>3254900</v>
       </c>
       <c r="E66" s="3">
-        <v>2264100</v>
+        <v>3839800</v>
       </c>
       <c r="F66" s="3">
-        <v>2922000</v>
+        <v>2350600</v>
       </c>
       <c r="G66" s="3">
-        <v>2523800</v>
+        <v>3033600</v>
       </c>
       <c r="H66" s="3">
-        <v>2385300</v>
+        <v>2620200</v>
       </c>
       <c r="I66" s="3">
-        <v>1809900</v>
+        <v>2476400</v>
       </c>
       <c r="J66" s="3">
+        <v>1879100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1981700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1742600</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5997100</v>
+        <v>7306200</v>
       </c>
       <c r="E72" s="3">
-        <v>2979200</v>
+        <v>6226300</v>
       </c>
       <c r="F72" s="3">
-        <v>2475800</v>
+        <v>3093100</v>
       </c>
       <c r="G72" s="3">
-        <v>2976600</v>
+        <v>2570400</v>
       </c>
       <c r="H72" s="3">
-        <v>2755500</v>
+        <v>3090300</v>
       </c>
       <c r="I72" s="3">
-        <v>2053600</v>
+        <v>2860800</v>
       </c>
       <c r="J72" s="3">
+        <v>2132100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1869800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1766800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10196300</v>
+        <v>10534800</v>
       </c>
       <c r="E76" s="3">
-        <v>3300200</v>
+        <v>10586000</v>
       </c>
       <c r="F76" s="3">
-        <v>3294900</v>
+        <v>3426300</v>
       </c>
       <c r="G76" s="3">
-        <v>3856900</v>
+        <v>3420800</v>
       </c>
       <c r="H76" s="3">
-        <v>3630500</v>
+        <v>4004300</v>
       </c>
       <c r="I76" s="3">
-        <v>2984600</v>
+        <v>3769200</v>
       </c>
       <c r="J76" s="3">
+        <v>3098600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2859400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2584500</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3924800</v>
+        <v>2730800</v>
       </c>
       <c r="E81" s="3">
-        <v>783100</v>
+        <v>4074800</v>
       </c>
       <c r="F81" s="3">
-        <v>-199800</v>
+        <v>813000</v>
       </c>
       <c r="G81" s="3">
-        <v>1078800</v>
+        <v>-207400</v>
       </c>
       <c r="H81" s="3">
-        <v>793800</v>
+        <v>1120000</v>
       </c>
       <c r="I81" s="3">
-        <v>434200</v>
+        <v>824100</v>
       </c>
       <c r="J81" s="3">
+        <v>450800</v>
+      </c>
+      <c r="K81" s="3">
         <v>138500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>329900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>777800</v>
+        <v>814400</v>
       </c>
       <c r="E83" s="3">
-        <v>270400</v>
+        <v>807500</v>
       </c>
       <c r="F83" s="3">
-        <v>344900</v>
+        <v>280700</v>
       </c>
       <c r="G83" s="3">
-        <v>342300</v>
+        <v>358100</v>
       </c>
       <c r="H83" s="3">
-        <v>279700</v>
+        <v>355400</v>
       </c>
       <c r="I83" s="3">
-        <v>262400</v>
+        <v>290400</v>
       </c>
       <c r="J83" s="3">
+        <v>272400</v>
+      </c>
+      <c r="K83" s="3">
         <v>254400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>216500</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4730600</v>
+        <v>3051600</v>
       </c>
       <c r="E89" s="3">
-        <v>1289200</v>
+        <v>4911400</v>
       </c>
       <c r="F89" s="3">
-        <v>153200</v>
+        <v>1338500</v>
       </c>
       <c r="G89" s="3">
-        <v>1210600</v>
+        <v>159000</v>
       </c>
       <c r="H89" s="3">
-        <v>1201300</v>
+        <v>1256900</v>
       </c>
       <c r="I89" s="3">
-        <v>917600</v>
+        <v>1247200</v>
       </c>
       <c r="J89" s="3">
+        <v>952700</v>
+      </c>
+      <c r="K89" s="3">
         <v>400900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>605100</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-845700</v>
+        <v>-659500</v>
       </c>
       <c r="E91" s="3">
-        <v>-239700</v>
+        <v>-878000</v>
       </c>
       <c r="F91" s="3">
-        <v>-546000</v>
+        <v>-248900</v>
       </c>
       <c r="G91" s="3">
-        <v>-492800</v>
+        <v>-566900</v>
       </c>
       <c r="H91" s="3">
-        <v>-447500</v>
+        <v>-511600</v>
       </c>
       <c r="I91" s="3">
-        <v>-363600</v>
+        <v>-464600</v>
       </c>
       <c r="J91" s="3">
+        <v>-377500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-293000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-522300</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-380900</v>
+        <v>-634700</v>
       </c>
       <c r="E94" s="3">
-        <v>-221100</v>
+        <v>-395500</v>
       </c>
       <c r="F94" s="3">
-        <v>-520700</v>
+        <v>-229500</v>
       </c>
       <c r="G94" s="3">
-        <v>-471500</v>
+        <v>-540600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1137400</v>
+        <v>-489500</v>
       </c>
       <c r="I94" s="3">
-        <v>-350300</v>
+        <v>-1180800</v>
       </c>
       <c r="J94" s="3">
+        <v>-363700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-383600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-777000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-99900</v>
+        <v>-136900</v>
       </c>
       <c r="E96" s="3">
-        <v>-54600</v>
+        <v>-103700</v>
       </c>
       <c r="F96" s="3">
-        <v>-73200</v>
+        <v>-56700</v>
       </c>
       <c r="G96" s="3">
-        <v>-49300</v>
+        <v>-76000</v>
       </c>
       <c r="H96" s="3">
-        <v>-37300</v>
+        <v>-51200</v>
       </c>
       <c r="I96" s="3">
-        <v>-29300</v>
+        <v>-38700</v>
       </c>
       <c r="J96" s="3">
-        <v>-30600</v>
+        <v>-30400</v>
       </c>
       <c r="K96" s="3">
         <v>-30600</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2882000</v>
+        <v>-2939600</v>
       </c>
       <c r="E100" s="3">
-        <v>-470100</v>
+        <v>-2992200</v>
       </c>
       <c r="F100" s="3">
-        <v>173100</v>
+        <v>-488100</v>
       </c>
       <c r="G100" s="3">
-        <v>-907000</v>
+        <v>179800</v>
       </c>
       <c r="H100" s="3">
-        <v>241100</v>
+        <v>-941600</v>
       </c>
       <c r="I100" s="3">
-        <v>-551400</v>
+        <v>250300</v>
       </c>
       <c r="J100" s="3">
+        <v>-572400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-50600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-70100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6700</v>
+        <v>-38700</v>
       </c>
       <c r="E101" s="3">
-        <v>16000</v>
+        <v>6900</v>
       </c>
       <c r="F101" s="3">
-        <v>-1300</v>
+        <v>16600</v>
       </c>
       <c r="G101" s="3">
-        <v>20000</v>
+        <v>-1400</v>
       </c>
       <c r="H101" s="3">
-        <v>-8000</v>
+        <v>20700</v>
       </c>
       <c r="I101" s="3">
-        <v>51900</v>
+        <v>-8300</v>
       </c>
       <c r="J101" s="3">
+        <v>53900</v>
+      </c>
+      <c r="K101" s="3">
         <v>32000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>16600</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1474300</v>
+        <v>-561400</v>
       </c>
       <c r="E102" s="3">
-        <v>614000</v>
+        <v>1530600</v>
       </c>
       <c r="F102" s="3">
-        <v>-195800</v>
+        <v>637400</v>
       </c>
       <c r="G102" s="3">
-        <v>-147800</v>
+        <v>-203300</v>
       </c>
       <c r="H102" s="3">
-        <v>297000</v>
+        <v>-153500</v>
       </c>
       <c r="I102" s="3">
-        <v>67900</v>
+        <v>308300</v>
       </c>
       <c r="J102" s="3">
+        <v>70500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-225500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13413600</v>
+        <v>13096400</v>
       </c>
       <c r="E8" s="3">
-        <v>14543200</v>
+        <v>14199300</v>
       </c>
       <c r="F8" s="3">
-        <v>6046500</v>
+        <v>5903600</v>
       </c>
       <c r="G8" s="3">
-        <v>6743400</v>
+        <v>6584000</v>
       </c>
       <c r="H8" s="3">
-        <v>8459400</v>
+        <v>8259300</v>
       </c>
       <c r="I8" s="3">
-        <v>7098800</v>
+        <v>6930900</v>
       </c>
       <c r="J8" s="3">
-        <v>6153000</v>
+        <v>6007500</v>
       </c>
       <c r="K8" s="3">
         <v>5460400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7109800</v>
+        <v>6941700</v>
       </c>
       <c r="E9" s="3">
-        <v>6422600</v>
+        <v>6270800</v>
       </c>
       <c r="F9" s="3">
-        <v>8617000</v>
+        <v>8413200</v>
       </c>
       <c r="G9" s="3">
-        <v>5049600</v>
+        <v>4930200</v>
       </c>
       <c r="H9" s="3">
-        <v>5001200</v>
+        <v>4883000</v>
       </c>
       <c r="I9" s="3">
-        <v>4319600</v>
+        <v>4217400</v>
       </c>
       <c r="J9" s="3">
-        <v>4108000</v>
+        <v>4010900</v>
       </c>
       <c r="K9" s="3">
         <v>3827600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6303700</v>
+        <v>6154700</v>
       </c>
       <c r="E10" s="3">
-        <v>8120600</v>
+        <v>7928600</v>
       </c>
       <c r="F10" s="3">
-        <v>-2570400</v>
+        <v>-2509700</v>
       </c>
       <c r="G10" s="3">
-        <v>1693800</v>
+        <v>1653800</v>
       </c>
       <c r="H10" s="3">
-        <v>3458100</v>
+        <v>3376400</v>
       </c>
       <c r="I10" s="3">
-        <v>2779200</v>
+        <v>2713500</v>
       </c>
       <c r="J10" s="3">
-        <v>2045000</v>
+        <v>1996700</v>
       </c>
       <c r="K10" s="3">
         <v>1632800</v>
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>83000</v>
+        <v>81000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>45600</v>
+        <v>44600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>915300</v>
+        <v>893700</v>
       </c>
       <c r="E15" s="3">
-        <v>891800</v>
+        <v>870800</v>
       </c>
       <c r="F15" s="3">
-        <v>341500</v>
+        <v>333500</v>
       </c>
       <c r="G15" s="3">
-        <v>358100</v>
+        <v>349700</v>
       </c>
       <c r="H15" s="3">
-        <v>355400</v>
+        <v>347000</v>
       </c>
       <c r="I15" s="3">
-        <v>290400</v>
+        <v>283500</v>
       </c>
       <c r="J15" s="3">
-        <v>272400</v>
+        <v>266000</v>
       </c>
       <c r="K15" s="3">
         <v>254400</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9875200</v>
+        <v>9641700</v>
       </c>
       <c r="E17" s="3">
-        <v>9088500</v>
+        <v>8873600</v>
       </c>
       <c r="F17" s="3">
-        <v>4897500</v>
+        <v>4781700</v>
       </c>
       <c r="G17" s="3">
-        <v>6963300</v>
+        <v>6798600</v>
       </c>
       <c r="H17" s="3">
-        <v>6977100</v>
+        <v>6812100</v>
       </c>
       <c r="I17" s="3">
-        <v>5895800</v>
+        <v>5756400</v>
       </c>
       <c r="J17" s="3">
-        <v>5486600</v>
+        <v>5356800</v>
       </c>
       <c r="K17" s="3">
         <v>5128800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3538300</v>
+        <v>3454700</v>
       </c>
       <c r="E18" s="3">
-        <v>5454800</v>
+        <v>5325800</v>
       </c>
       <c r="F18" s="3">
-        <v>1149000</v>
+        <v>1121900</v>
       </c>
       <c r="G18" s="3">
-        <v>-219800</v>
+        <v>-214700</v>
       </c>
       <c r="H18" s="3">
-        <v>1482300</v>
+        <v>1447200</v>
       </c>
       <c r="I18" s="3">
-        <v>1202900</v>
+        <v>1174500</v>
       </c>
       <c r="J18" s="3">
-        <v>666500</v>
+        <v>650700</v>
       </c>
       <c r="K18" s="3">
         <v>331600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>80200</v>
+        <v>78300</v>
       </c>
       <c r="E20" s="3">
         <v>1400</v>
       </c>
       <c r="F20" s="3">
-        <v>-12400</v>
+        <v>-12100</v>
       </c>
       <c r="G20" s="3">
-        <v>-22100</v>
+        <v>-21600</v>
       </c>
       <c r="H20" s="3">
-        <v>47000</v>
+        <v>45900</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-19400</v>
+        <v>-18900</v>
       </c>
       <c r="K20" s="3">
         <v>-93200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4431600</v>
+        <v>4325200</v>
       </c>
       <c r="E21" s="3">
-        <v>6262300</v>
+        <v>6112600</v>
       </c>
       <c r="F21" s="3">
-        <v>1416800</v>
+        <v>1382800</v>
       </c>
       <c r="G21" s="3">
-        <v>115600</v>
+        <v>112100</v>
       </c>
       <c r="H21" s="3">
-        <v>1884000</v>
+        <v>1838800</v>
       </c>
       <c r="I21" s="3">
-        <v>1492800</v>
+        <v>1457000</v>
       </c>
       <c r="J21" s="3">
-        <v>919000</v>
+        <v>896800</v>
       </c>
       <c r="K21" s="3">
         <v>496700</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33200</v>
+        <v>32400</v>
       </c>
       <c r="E22" s="3">
-        <v>66400</v>
+        <v>64800</v>
       </c>
       <c r="F22" s="3">
-        <v>44200</v>
+        <v>43200</v>
       </c>
       <c r="G22" s="3">
-        <v>60800</v>
+        <v>59400</v>
       </c>
       <c r="H22" s="3">
-        <v>47000</v>
+        <v>45900</v>
       </c>
       <c r="I22" s="3">
-        <v>33200</v>
+        <v>32400</v>
       </c>
       <c r="J22" s="3">
-        <v>33200</v>
+        <v>32400</v>
       </c>
       <c r="K22" s="3">
         <v>30600</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3585300</v>
+        <v>3500600</v>
       </c>
       <c r="E23" s="3">
-        <v>5389800</v>
+        <v>5262300</v>
       </c>
       <c r="F23" s="3">
-        <v>1092300</v>
+        <v>1066500</v>
       </c>
       <c r="G23" s="3">
-        <v>-302800</v>
+        <v>-295700</v>
       </c>
       <c r="H23" s="3">
-        <v>1482300</v>
+        <v>1447200</v>
       </c>
       <c r="I23" s="3">
-        <v>1169800</v>
+        <v>1142100</v>
       </c>
       <c r="J23" s="3">
-        <v>613900</v>
+        <v>599400</v>
       </c>
       <c r="K23" s="3">
         <v>207800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>854500</v>
+        <v>834300</v>
       </c>
       <c r="E24" s="3">
-        <v>1314900</v>
+        <v>1283900</v>
       </c>
       <c r="F24" s="3">
-        <v>279300</v>
+        <v>272700</v>
       </c>
       <c r="G24" s="3">
-        <v>-95400</v>
+        <v>-93200</v>
       </c>
       <c r="H24" s="3">
-        <v>362300</v>
+        <v>353700</v>
       </c>
       <c r="I24" s="3">
-        <v>345700</v>
+        <v>337500</v>
       </c>
       <c r="J24" s="3">
-        <v>163200</v>
+        <v>159300</v>
       </c>
       <c r="K24" s="3">
         <v>69300</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2730800</v>
+        <v>2666300</v>
       </c>
       <c r="E26" s="3">
-        <v>4074800</v>
+        <v>3978500</v>
       </c>
       <c r="F26" s="3">
-        <v>813000</v>
+        <v>793800</v>
       </c>
       <c r="G26" s="3">
-        <v>-207400</v>
+        <v>-202500</v>
       </c>
       <c r="H26" s="3">
-        <v>1120000</v>
+        <v>1093500</v>
       </c>
       <c r="I26" s="3">
-        <v>824100</v>
+        <v>804600</v>
       </c>
       <c r="J26" s="3">
-        <v>450800</v>
+        <v>440100</v>
       </c>
       <c r="K26" s="3">
         <v>138500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2730800</v>
+        <v>2666300</v>
       </c>
       <c r="E27" s="3">
-        <v>4074800</v>
+        <v>3978500</v>
       </c>
       <c r="F27" s="3">
-        <v>813000</v>
+        <v>793800</v>
       </c>
       <c r="G27" s="3">
-        <v>-207400</v>
+        <v>-202500</v>
       </c>
       <c r="H27" s="3">
-        <v>1120000</v>
+        <v>1093500</v>
       </c>
       <c r="I27" s="3">
-        <v>824100</v>
+        <v>804600</v>
       </c>
       <c r="J27" s="3">
-        <v>450800</v>
+        <v>440100</v>
       </c>
       <c r="K27" s="3">
         <v>138500</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-80200</v>
+        <v>-78300</v>
       </c>
       <c r="E32" s="3">
         <v>-1400</v>
       </c>
       <c r="F32" s="3">
-        <v>12400</v>
+        <v>12100</v>
       </c>
       <c r="G32" s="3">
-        <v>22100</v>
+        <v>21600</v>
       </c>
       <c r="H32" s="3">
-        <v>-47000</v>
+        <v>-45900</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>19400</v>
+        <v>18900</v>
       </c>
       <c r="K32" s="3">
         <v>93200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2730800</v>
+        <v>2666300</v>
       </c>
       <c r="E33" s="3">
-        <v>4074800</v>
+        <v>3978500</v>
       </c>
       <c r="F33" s="3">
-        <v>813000</v>
+        <v>793800</v>
       </c>
       <c r="G33" s="3">
-        <v>-207400</v>
+        <v>-202500</v>
       </c>
       <c r="H33" s="3">
-        <v>1120000</v>
+        <v>1093500</v>
       </c>
       <c r="I33" s="3">
-        <v>824100</v>
+        <v>804600</v>
       </c>
       <c r="J33" s="3">
-        <v>450800</v>
+        <v>440100</v>
       </c>
       <c r="K33" s="3">
         <v>138500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2730800</v>
+        <v>2666300</v>
       </c>
       <c r="E35" s="3">
-        <v>4074800</v>
+        <v>3978500</v>
       </c>
       <c r="F35" s="3">
-        <v>813000</v>
+        <v>793800</v>
       </c>
       <c r="G35" s="3">
-        <v>-207400</v>
+        <v>-202500</v>
       </c>
       <c r="H35" s="3">
-        <v>1120000</v>
+        <v>1093500</v>
       </c>
       <c r="I35" s="3">
-        <v>824100</v>
+        <v>804600</v>
       </c>
       <c r="J35" s="3">
-        <v>450800</v>
+        <v>440100</v>
       </c>
       <c r="K35" s="3">
         <v>138500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1606700</v>
+        <v>1568700</v>
       </c>
       <c r="E41" s="3">
-        <v>2168100</v>
+        <v>2116800</v>
       </c>
       <c r="F41" s="3">
-        <v>637400</v>
+        <v>622400</v>
       </c>
       <c r="G41" s="3">
-        <v>22100</v>
+        <v>21600</v>
       </c>
       <c r="H41" s="3">
-        <v>221200</v>
+        <v>216000</v>
       </c>
       <c r="I41" s="3">
-        <v>356700</v>
+        <v>348300</v>
       </c>
       <c r="J41" s="3">
-        <v>69100</v>
+        <v>67500</v>
       </c>
       <c r="K41" s="3">
         <v>17300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>684400</v>
+        <v>668300</v>
       </c>
       <c r="E43" s="3">
-        <v>760500</v>
+        <v>742500</v>
       </c>
       <c r="F43" s="3">
-        <v>824100</v>
+        <v>804600</v>
       </c>
       <c r="G43" s="3">
-        <v>543400</v>
+        <v>530600</v>
       </c>
       <c r="H43" s="3">
-        <v>525400</v>
+        <v>513000</v>
       </c>
       <c r="I43" s="3">
-        <v>486700</v>
+        <v>475200</v>
       </c>
       <c r="J43" s="3">
-        <v>410700</v>
+        <v>401000</v>
       </c>
       <c r="K43" s="3">
         <v>411500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1426900</v>
+        <v>1393200</v>
       </c>
       <c r="E44" s="3">
-        <v>1467000</v>
+        <v>1432400</v>
       </c>
       <c r="F44" s="3">
-        <v>799200</v>
+        <v>780300</v>
       </c>
       <c r="G44" s="3">
-        <v>1008000</v>
+        <v>984200</v>
       </c>
       <c r="H44" s="3">
-        <v>1093700</v>
+        <v>1067900</v>
       </c>
       <c r="I44" s="3">
-        <v>926400</v>
+        <v>904500</v>
       </c>
       <c r="J44" s="3">
-        <v>803300</v>
+        <v>784400</v>
       </c>
       <c r="K44" s="3">
         <v>840400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>83000</v>
+        <v>81000</v>
       </c>
       <c r="E45" s="3">
-        <v>52500</v>
+        <v>51300</v>
       </c>
       <c r="F45" s="3">
-        <v>16600</v>
+        <v>16200</v>
       </c>
       <c r="G45" s="3">
-        <v>12400</v>
+        <v>12200</v>
       </c>
       <c r="H45" s="3">
-        <v>19400</v>
+        <v>18900</v>
       </c>
       <c r="I45" s="3">
-        <v>15200</v>
+        <v>14900</v>
       </c>
       <c r="J45" s="3">
-        <v>13800</v>
+        <v>13500</v>
       </c>
       <c r="K45" s="3">
         <v>24000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3801000</v>
+        <v>3711200</v>
       </c>
       <c r="E46" s="3">
-        <v>4448100</v>
+        <v>4343000</v>
       </c>
       <c r="F46" s="3">
-        <v>1847300</v>
+        <v>1803600</v>
       </c>
       <c r="G46" s="3">
-        <v>1586000</v>
+        <v>1548500</v>
       </c>
       <c r="H46" s="3">
-        <v>1859700</v>
+        <v>1815800</v>
       </c>
       <c r="I46" s="3">
-        <v>1785100</v>
+        <v>1742900</v>
       </c>
       <c r="J46" s="3">
-        <v>1297000</v>
+        <v>1266300</v>
       </c>
       <c r="K46" s="3">
         <v>1293200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5505900</v>
+        <v>5375700</v>
       </c>
       <c r="E48" s="3">
-        <v>5669100</v>
+        <v>5535000</v>
       </c>
       <c r="F48" s="3">
-        <v>2291100</v>
+        <v>2237000</v>
       </c>
       <c r="G48" s="3">
-        <v>2959000</v>
+        <v>2889000</v>
       </c>
       <c r="H48" s="3">
-        <v>2842800</v>
+        <v>2775600</v>
       </c>
       <c r="I48" s="3">
-        <v>2616100</v>
+        <v>2554200</v>
       </c>
       <c r="J48" s="3">
-        <v>2329800</v>
+        <v>2274800</v>
       </c>
       <c r="K48" s="3">
         <v>2142900</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3745700</v>
+        <v>3657200</v>
       </c>
       <c r="E49" s="3">
-        <v>3882600</v>
+        <v>3790800</v>
       </c>
       <c r="F49" s="3">
-        <v>1331500</v>
+        <v>1300100</v>
       </c>
       <c r="G49" s="3">
-        <v>1749100</v>
+        <v>1707800</v>
       </c>
       <c r="H49" s="3">
-        <v>1769900</v>
+        <v>1728000</v>
       </c>
       <c r="I49" s="3">
-        <v>1747700</v>
+        <v>1706400</v>
       </c>
       <c r="J49" s="3">
-        <v>1274800</v>
+        <v>1244700</v>
       </c>
       <c r="K49" s="3">
         <v>1250600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>737000</v>
+        <v>719600</v>
       </c>
       <c r="E52" s="3">
-        <v>425900</v>
+        <v>415800</v>
       </c>
       <c r="F52" s="3">
-        <v>307000</v>
+        <v>299700</v>
       </c>
       <c r="G52" s="3">
-        <v>160400</v>
+        <v>156600</v>
       </c>
       <c r="H52" s="3">
-        <v>152100</v>
+        <v>148500</v>
       </c>
       <c r="I52" s="3">
-        <v>96800</v>
+        <v>94500</v>
       </c>
       <c r="J52" s="3">
-        <v>76000</v>
+        <v>74300</v>
       </c>
       <c r="K52" s="3">
         <v>154500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13789700</v>
+        <v>13463600</v>
       </c>
       <c r="E54" s="3">
-        <v>14425700</v>
+        <v>14084600</v>
       </c>
       <c r="F54" s="3">
-        <v>5776900</v>
+        <v>5640300</v>
       </c>
       <c r="G54" s="3">
-        <v>6454400</v>
+        <v>6301800</v>
       </c>
       <c r="H54" s="3">
-        <v>6624500</v>
+        <v>6467900</v>
       </c>
       <c r="I54" s="3">
-        <v>6245700</v>
+        <v>6098000</v>
       </c>
       <c r="J54" s="3">
-        <v>4977700</v>
+        <v>4860000</v>
       </c>
       <c r="K54" s="3">
         <v>4841100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>622200</v>
+        <v>607500</v>
       </c>
       <c r="E57" s="3">
-        <v>746700</v>
+        <v>729000</v>
       </c>
       <c r="F57" s="3">
-        <v>312500</v>
+        <v>305100</v>
       </c>
       <c r="G57" s="3">
-        <v>330500</v>
+        <v>322700</v>
       </c>
       <c r="H57" s="3">
-        <v>359500</v>
+        <v>351000</v>
       </c>
       <c r="I57" s="3">
-        <v>337400</v>
+        <v>329400</v>
       </c>
       <c r="J57" s="3">
-        <v>291700</v>
+        <v>284900</v>
       </c>
       <c r="K57" s="3">
         <v>251700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15200</v>
+        <v>14900</v>
       </c>
       <c r="E58" s="3">
-        <v>15200</v>
+        <v>14900</v>
       </c>
       <c r="F58" s="3">
-        <v>12400</v>
+        <v>12200</v>
       </c>
       <c r="G58" s="3">
-        <v>557200</v>
+        <v>544100</v>
       </c>
       <c r="H58" s="3">
-        <v>102300</v>
+        <v>99900</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>20700</v>
+        <v>20300</v>
       </c>
       <c r="K58" s="3">
         <v>275700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>446900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>884300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>395600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>263300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>352400</v>
+      </c>
+      <c r="I59" s="3">
         <v>457700</v>
       </c>
-      <c r="E59" s="3">
-        <v>905700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>405100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>269600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>360900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>468700</v>
-      </c>
       <c r="J59" s="3">
-        <v>322200</v>
+        <v>314600</v>
       </c>
       <c r="K59" s="3">
         <v>279700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1095100</v>
+        <v>1069200</v>
       </c>
       <c r="E60" s="3">
-        <v>1667500</v>
+        <v>1628100</v>
       </c>
       <c r="F60" s="3">
-        <v>730100</v>
+        <v>712800</v>
       </c>
       <c r="G60" s="3">
-        <v>1157300</v>
+        <v>1130000</v>
       </c>
       <c r="H60" s="3">
-        <v>822700</v>
+        <v>803300</v>
       </c>
       <c r="I60" s="3">
-        <v>806100</v>
+        <v>787100</v>
       </c>
       <c r="J60" s="3">
-        <v>634700</v>
+        <v>619700</v>
       </c>
       <c r="K60" s="3">
         <v>807100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>725900</v>
+        <v>708800</v>
       </c>
       <c r="E61" s="3">
-        <v>690000</v>
+        <v>673700</v>
       </c>
       <c r="F61" s="3">
-        <v>691400</v>
+        <v>675000</v>
       </c>
       <c r="G61" s="3">
-        <v>909800</v>
+        <v>888300</v>
       </c>
       <c r="H61" s="3">
-        <v>956800</v>
+        <v>934200</v>
       </c>
       <c r="I61" s="3">
-        <v>879400</v>
+        <v>858600</v>
       </c>
       <c r="J61" s="3">
-        <v>571100</v>
+        <v>557600</v>
       </c>
       <c r="K61" s="3">
         <v>563400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1433900</v>
+        <v>1400000</v>
       </c>
       <c r="E62" s="3">
-        <v>1482300</v>
+        <v>1447200</v>
       </c>
       <c r="F62" s="3">
-        <v>929200</v>
+        <v>907200</v>
       </c>
       <c r="G62" s="3">
-        <v>966500</v>
+        <v>943700</v>
       </c>
       <c r="H62" s="3">
-        <v>840700</v>
+        <v>820800</v>
       </c>
       <c r="I62" s="3">
-        <v>790900</v>
+        <v>772200</v>
       </c>
       <c r="J62" s="3">
-        <v>673400</v>
+        <v>657500</v>
       </c>
       <c r="K62" s="3">
         <v>611300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3254900</v>
+        <v>3177900</v>
       </c>
       <c r="E66" s="3">
-        <v>3839800</v>
+        <v>3749000</v>
       </c>
       <c r="F66" s="3">
-        <v>2350600</v>
+        <v>2295000</v>
       </c>
       <c r="G66" s="3">
-        <v>3033600</v>
+        <v>2961900</v>
       </c>
       <c r="H66" s="3">
-        <v>2620200</v>
+        <v>2558300</v>
       </c>
       <c r="I66" s="3">
-        <v>2476400</v>
+        <v>2417900</v>
       </c>
       <c r="J66" s="3">
-        <v>1879100</v>
+        <v>1834700</v>
       </c>
       <c r="K66" s="3">
         <v>1981700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7306200</v>
+        <v>7133400</v>
       </c>
       <c r="E72" s="3">
-        <v>6226300</v>
+        <v>6079100</v>
       </c>
       <c r="F72" s="3">
-        <v>3093100</v>
+        <v>3020000</v>
       </c>
       <c r="G72" s="3">
-        <v>2570400</v>
+        <v>2509700</v>
       </c>
       <c r="H72" s="3">
-        <v>3090300</v>
+        <v>3017300</v>
       </c>
       <c r="I72" s="3">
-        <v>2860800</v>
+        <v>2793200</v>
       </c>
       <c r="J72" s="3">
-        <v>2132100</v>
+        <v>2081700</v>
       </c>
       <c r="K72" s="3">
         <v>1869800</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10534800</v>
+        <v>10285700</v>
       </c>
       <c r="E76" s="3">
-        <v>10586000</v>
+        <v>10335600</v>
       </c>
       <c r="F76" s="3">
-        <v>3426300</v>
+        <v>3345300</v>
       </c>
       <c r="G76" s="3">
-        <v>3420800</v>
+        <v>3339900</v>
       </c>
       <c r="H76" s="3">
-        <v>4004300</v>
+        <v>3909600</v>
       </c>
       <c r="I76" s="3">
-        <v>3769200</v>
+        <v>3680100</v>
       </c>
       <c r="J76" s="3">
-        <v>3098600</v>
+        <v>3025400</v>
       </c>
       <c r="K76" s="3">
         <v>2859400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2730800</v>
+        <v>2666300</v>
       </c>
       <c r="E81" s="3">
-        <v>4074800</v>
+        <v>3978500</v>
       </c>
       <c r="F81" s="3">
-        <v>813000</v>
+        <v>793800</v>
       </c>
       <c r="G81" s="3">
-        <v>-207400</v>
+        <v>-202500</v>
       </c>
       <c r="H81" s="3">
-        <v>1120000</v>
+        <v>1093500</v>
       </c>
       <c r="I81" s="3">
-        <v>824100</v>
+        <v>804600</v>
       </c>
       <c r="J81" s="3">
-        <v>450800</v>
+        <v>440100</v>
       </c>
       <c r="K81" s="3">
         <v>138500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>814400</v>
+        <v>795200</v>
       </c>
       <c r="E83" s="3">
-        <v>807500</v>
+        <v>788400</v>
       </c>
       <c r="F83" s="3">
-        <v>280700</v>
+        <v>274100</v>
       </c>
       <c r="G83" s="3">
-        <v>358100</v>
+        <v>349700</v>
       </c>
       <c r="H83" s="3">
-        <v>355400</v>
+        <v>347000</v>
       </c>
       <c r="I83" s="3">
-        <v>290400</v>
+        <v>283500</v>
       </c>
       <c r="J83" s="3">
-        <v>272400</v>
+        <v>266000</v>
       </c>
       <c r="K83" s="3">
         <v>254400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3051600</v>
+        <v>2979500</v>
       </c>
       <c r="E89" s="3">
-        <v>4911400</v>
+        <v>4795200</v>
       </c>
       <c r="F89" s="3">
-        <v>1338500</v>
+        <v>1306800</v>
       </c>
       <c r="G89" s="3">
-        <v>159000</v>
+        <v>155300</v>
       </c>
       <c r="H89" s="3">
-        <v>1256900</v>
+        <v>1227200</v>
       </c>
       <c r="I89" s="3">
-        <v>1247200</v>
+        <v>1217700</v>
       </c>
       <c r="J89" s="3">
-        <v>952700</v>
+        <v>930200</v>
       </c>
       <c r="K89" s="3">
         <v>400900</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-659500</v>
+        <v>-644000</v>
       </c>
       <c r="E91" s="3">
-        <v>-878000</v>
+        <v>-857300</v>
       </c>
       <c r="F91" s="3">
-        <v>-248900</v>
+        <v>-243000</v>
       </c>
       <c r="G91" s="3">
-        <v>-566900</v>
+        <v>-553500</v>
       </c>
       <c r="H91" s="3">
-        <v>-511600</v>
+        <v>-499500</v>
       </c>
       <c r="I91" s="3">
-        <v>-464600</v>
+        <v>-453600</v>
       </c>
       <c r="J91" s="3">
-        <v>-377500</v>
+        <v>-368600</v>
       </c>
       <c r="K91" s="3">
         <v>-293000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-634700</v>
+        <v>-619700</v>
       </c>
       <c r="E94" s="3">
-        <v>-395500</v>
+        <v>-386100</v>
       </c>
       <c r="F94" s="3">
-        <v>-229500</v>
+        <v>-224100</v>
       </c>
       <c r="G94" s="3">
-        <v>-540600</v>
+        <v>-527900</v>
       </c>
       <c r="H94" s="3">
-        <v>-489500</v>
+        <v>-477900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1180800</v>
+        <v>-1152900</v>
       </c>
       <c r="J94" s="3">
-        <v>-363700</v>
+        <v>-355100</v>
       </c>
       <c r="K94" s="3">
         <v>-383600</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-136900</v>
+        <v>-133700</v>
       </c>
       <c r="E96" s="3">
-        <v>-103700</v>
+        <v>-101300</v>
       </c>
       <c r="F96" s="3">
-        <v>-56700</v>
+        <v>-55400</v>
       </c>
       <c r="G96" s="3">
-        <v>-76000</v>
+        <v>-74300</v>
       </c>
       <c r="H96" s="3">
-        <v>-51200</v>
+        <v>-50000</v>
       </c>
       <c r="I96" s="3">
-        <v>-38700</v>
+        <v>-37800</v>
       </c>
       <c r="J96" s="3">
-        <v>-30400</v>
+        <v>-29700</v>
       </c>
       <c r="K96" s="3">
         <v>-30600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2939600</v>
+        <v>-2870100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2992200</v>
+        <v>-2921400</v>
       </c>
       <c r="F100" s="3">
-        <v>-488100</v>
+        <v>-476600</v>
       </c>
       <c r="G100" s="3">
-        <v>179800</v>
+        <v>175500</v>
       </c>
       <c r="H100" s="3">
-        <v>-941600</v>
+        <v>-919400</v>
       </c>
       <c r="I100" s="3">
-        <v>250300</v>
+        <v>244400</v>
       </c>
       <c r="J100" s="3">
-        <v>-572400</v>
+        <v>-558900</v>
       </c>
       <c r="K100" s="3">
         <v>-50600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-38700</v>
+        <v>-37800</v>
       </c>
       <c r="E101" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="F101" s="3">
-        <v>16600</v>
+        <v>16200</v>
       </c>
       <c r="G101" s="3">
         <v>-1400</v>
       </c>
       <c r="H101" s="3">
-        <v>20700</v>
+        <v>20300</v>
       </c>
       <c r="I101" s="3">
-        <v>-8300</v>
+        <v>-8100</v>
       </c>
       <c r="J101" s="3">
-        <v>53900</v>
+        <v>52700</v>
       </c>
       <c r="K101" s="3">
         <v>32000</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-561400</v>
+        <v>-548100</v>
       </c>
       <c r="E102" s="3">
-        <v>1530600</v>
+        <v>1494500</v>
       </c>
       <c r="F102" s="3">
-        <v>637400</v>
+        <v>622400</v>
       </c>
       <c r="G102" s="3">
-        <v>-203300</v>
+        <v>-198500</v>
       </c>
       <c r="H102" s="3">
-        <v>-153500</v>
+        <v>-149900</v>
       </c>
       <c r="I102" s="3">
-        <v>308300</v>
+        <v>301100</v>
       </c>
       <c r="J102" s="3">
-        <v>70500</v>
+        <v>68900</v>
       </c>
       <c r="K102" s="3">
         <v>-1300</v>

--- a/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13096400</v>
+        <v>13103100</v>
       </c>
       <c r="E8" s="3">
-        <v>14199300</v>
+        <v>14206700</v>
       </c>
       <c r="F8" s="3">
-        <v>5903600</v>
+        <v>5906600</v>
       </c>
       <c r="G8" s="3">
-        <v>6584000</v>
+        <v>6587400</v>
       </c>
       <c r="H8" s="3">
-        <v>8259300</v>
+        <v>8263600</v>
       </c>
       <c r="I8" s="3">
-        <v>6930900</v>
+        <v>6934500</v>
       </c>
       <c r="J8" s="3">
-        <v>6007500</v>
+        <v>6010600</v>
       </c>
       <c r="K8" s="3">
         <v>5460400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6941700</v>
+        <v>6945300</v>
       </c>
       <c r="E9" s="3">
-        <v>6270800</v>
+        <v>6274000</v>
       </c>
       <c r="F9" s="3">
-        <v>8413200</v>
+        <v>8417600</v>
       </c>
       <c r="G9" s="3">
-        <v>4930200</v>
+        <v>4932800</v>
       </c>
       <c r="H9" s="3">
-        <v>4883000</v>
+        <v>4885500</v>
       </c>
       <c r="I9" s="3">
-        <v>4217400</v>
+        <v>4219600</v>
       </c>
       <c r="J9" s="3">
-        <v>4010900</v>
+        <v>4012900</v>
       </c>
       <c r="K9" s="3">
         <v>3827600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6154700</v>
+        <v>6157800</v>
       </c>
       <c r="E10" s="3">
-        <v>7928600</v>
+        <v>7932700</v>
       </c>
       <c r="F10" s="3">
-        <v>-2509700</v>
+        <v>-2511000</v>
       </c>
       <c r="G10" s="3">
-        <v>1653800</v>
+        <v>1654600</v>
       </c>
       <c r="H10" s="3">
-        <v>3376400</v>
+        <v>3378100</v>
       </c>
       <c r="I10" s="3">
-        <v>2713500</v>
+        <v>2714900</v>
       </c>
       <c r="J10" s="3">
-        <v>1996700</v>
+        <v>1997700</v>
       </c>
       <c r="K10" s="3">
         <v>1632800</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>893700</v>
+        <v>894200</v>
       </c>
       <c r="E15" s="3">
-        <v>870800</v>
+        <v>871200</v>
       </c>
       <c r="F15" s="3">
-        <v>333500</v>
+        <v>333600</v>
       </c>
       <c r="G15" s="3">
-        <v>349700</v>
+        <v>349800</v>
       </c>
       <c r="H15" s="3">
-        <v>347000</v>
+        <v>347100</v>
       </c>
       <c r="I15" s="3">
-        <v>283500</v>
+        <v>283600</v>
       </c>
       <c r="J15" s="3">
-        <v>266000</v>
+        <v>266100</v>
       </c>
       <c r="K15" s="3">
         <v>254400</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9641700</v>
+        <v>9646700</v>
       </c>
       <c r="E17" s="3">
-        <v>8873600</v>
+        <v>8878200</v>
       </c>
       <c r="F17" s="3">
-        <v>4781700</v>
+        <v>4784200</v>
       </c>
       <c r="G17" s="3">
-        <v>6798600</v>
+        <v>6802100</v>
       </c>
       <c r="H17" s="3">
-        <v>6812100</v>
+        <v>6815600</v>
       </c>
       <c r="I17" s="3">
-        <v>5756400</v>
+        <v>5759400</v>
       </c>
       <c r="J17" s="3">
-        <v>5356800</v>
+        <v>5359600</v>
       </c>
       <c r="K17" s="3">
         <v>5128800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3454700</v>
+        <v>3456400</v>
       </c>
       <c r="E18" s="3">
-        <v>5325800</v>
+        <v>5328500</v>
       </c>
       <c r="F18" s="3">
-        <v>1121900</v>
+        <v>1122400</v>
       </c>
       <c r="G18" s="3">
-        <v>-214700</v>
+        <v>-214800</v>
       </c>
       <c r="H18" s="3">
-        <v>1447200</v>
+        <v>1448000</v>
       </c>
       <c r="I18" s="3">
-        <v>1174500</v>
+        <v>1175100</v>
       </c>
       <c r="J18" s="3">
-        <v>650700</v>
+        <v>651000</v>
       </c>
       <c r="K18" s="3">
         <v>331600</v>
@@ -1062,7 +1062,7 @@
         <v>1400</v>
       </c>
       <c r="F20" s="3">
-        <v>-12100</v>
+        <v>-12200</v>
       </c>
       <c r="G20" s="3">
         <v>-21600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4325200</v>
+        <v>4330300</v>
       </c>
       <c r="E21" s="3">
-        <v>6112600</v>
+        <v>6118700</v>
       </c>
       <c r="F21" s="3">
-        <v>1382800</v>
+        <v>1384500</v>
       </c>
       <c r="G21" s="3">
-        <v>112100</v>
+        <v>113500</v>
       </c>
       <c r="H21" s="3">
-        <v>1838800</v>
+        <v>1841000</v>
       </c>
       <c r="I21" s="3">
-        <v>1457000</v>
+        <v>1458800</v>
       </c>
       <c r="J21" s="3">
-        <v>896800</v>
+        <v>898200</v>
       </c>
       <c r="K21" s="3">
         <v>496700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3500600</v>
+        <v>3502400</v>
       </c>
       <c r="E23" s="3">
-        <v>5262300</v>
+        <v>5265000</v>
       </c>
       <c r="F23" s="3">
-        <v>1066500</v>
+        <v>1067100</v>
       </c>
       <c r="G23" s="3">
-        <v>-295700</v>
+        <v>-295800</v>
       </c>
       <c r="H23" s="3">
-        <v>1447200</v>
+        <v>1448000</v>
       </c>
       <c r="I23" s="3">
-        <v>1142100</v>
+        <v>1142700</v>
       </c>
       <c r="J23" s="3">
-        <v>599400</v>
+        <v>599700</v>
       </c>
       <c r="K23" s="3">
         <v>207800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>834300</v>
+        <v>834700</v>
       </c>
       <c r="E24" s="3">
-        <v>1283900</v>
+        <v>1284500</v>
       </c>
       <c r="F24" s="3">
-        <v>272700</v>
+        <v>272800</v>
       </c>
       <c r="G24" s="3">
         <v>-93200</v>
       </c>
       <c r="H24" s="3">
-        <v>353700</v>
+        <v>353900</v>
       </c>
       <c r="I24" s="3">
-        <v>337500</v>
+        <v>337700</v>
       </c>
       <c r="J24" s="3">
-        <v>159300</v>
+        <v>159400</v>
       </c>
       <c r="K24" s="3">
         <v>69300</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2666300</v>
+        <v>2667600</v>
       </c>
       <c r="E26" s="3">
-        <v>3978500</v>
+        <v>3980500</v>
       </c>
       <c r="F26" s="3">
-        <v>793800</v>
+        <v>794200</v>
       </c>
       <c r="G26" s="3">
-        <v>-202500</v>
+        <v>-202600</v>
       </c>
       <c r="H26" s="3">
-        <v>1093500</v>
+        <v>1094100</v>
       </c>
       <c r="I26" s="3">
-        <v>804600</v>
+        <v>805000</v>
       </c>
       <c r="J26" s="3">
-        <v>440100</v>
+        <v>440300</v>
       </c>
       <c r="K26" s="3">
         <v>138500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2666300</v>
+        <v>2667600</v>
       </c>
       <c r="E27" s="3">
-        <v>3978500</v>
+        <v>3980500</v>
       </c>
       <c r="F27" s="3">
-        <v>793800</v>
+        <v>794200</v>
       </c>
       <c r="G27" s="3">
-        <v>-202500</v>
+        <v>-202600</v>
       </c>
       <c r="H27" s="3">
-        <v>1093500</v>
+        <v>1094100</v>
       </c>
       <c r="I27" s="3">
-        <v>804600</v>
+        <v>805000</v>
       </c>
       <c r="J27" s="3">
-        <v>440100</v>
+        <v>440300</v>
       </c>
       <c r="K27" s="3">
         <v>138500</v>
@@ -1458,7 +1458,7 @@
         <v>-1400</v>
       </c>
       <c r="F32" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="G32" s="3">
         <v>21600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2666300</v>
+        <v>2667600</v>
       </c>
       <c r="E33" s="3">
-        <v>3978500</v>
+        <v>3980500</v>
       </c>
       <c r="F33" s="3">
-        <v>793800</v>
+        <v>794200</v>
       </c>
       <c r="G33" s="3">
-        <v>-202500</v>
+        <v>-202600</v>
       </c>
       <c r="H33" s="3">
-        <v>1093500</v>
+        <v>1094100</v>
       </c>
       <c r="I33" s="3">
-        <v>804600</v>
+        <v>805000</v>
       </c>
       <c r="J33" s="3">
-        <v>440100</v>
+        <v>440300</v>
       </c>
       <c r="K33" s="3">
         <v>138500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2666300</v>
+        <v>2667600</v>
       </c>
       <c r="E35" s="3">
-        <v>3978500</v>
+        <v>3980500</v>
       </c>
       <c r="F35" s="3">
-        <v>793800</v>
+        <v>794200</v>
       </c>
       <c r="G35" s="3">
-        <v>-202500</v>
+        <v>-202600</v>
       </c>
       <c r="H35" s="3">
-        <v>1093500</v>
+        <v>1094100</v>
       </c>
       <c r="I35" s="3">
-        <v>804600</v>
+        <v>805000</v>
       </c>
       <c r="J35" s="3">
-        <v>440100</v>
+        <v>440300</v>
       </c>
       <c r="K35" s="3">
         <v>138500</v>
@@ -1652,22 +1652,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1568700</v>
+        <v>1569500</v>
       </c>
       <c r="E41" s="3">
-        <v>2116800</v>
+        <v>2117900</v>
       </c>
       <c r="F41" s="3">
-        <v>622400</v>
+        <v>622700</v>
       </c>
       <c r="G41" s="3">
         <v>21600</v>
       </c>
       <c r="H41" s="3">
-        <v>216000</v>
+        <v>216100</v>
       </c>
       <c r="I41" s="3">
-        <v>348300</v>
+        <v>348500</v>
       </c>
       <c r="J41" s="3">
         <v>67500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>668300</v>
+        <v>668600</v>
       </c>
       <c r="E43" s="3">
-        <v>742500</v>
+        <v>742900</v>
       </c>
       <c r="F43" s="3">
-        <v>804600</v>
+        <v>805000</v>
       </c>
       <c r="G43" s="3">
-        <v>530600</v>
+        <v>530800</v>
       </c>
       <c r="H43" s="3">
-        <v>513000</v>
+        <v>513300</v>
       </c>
       <c r="I43" s="3">
-        <v>475200</v>
+        <v>475400</v>
       </c>
       <c r="J43" s="3">
-        <v>401000</v>
+        <v>401200</v>
       </c>
       <c r="K43" s="3">
         <v>411500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1393200</v>
+        <v>1393900</v>
       </c>
       <c r="E44" s="3">
-        <v>1432400</v>
+        <v>1433100</v>
       </c>
       <c r="F44" s="3">
-        <v>780300</v>
+        <v>780700</v>
       </c>
       <c r="G44" s="3">
-        <v>984200</v>
+        <v>984700</v>
       </c>
       <c r="H44" s="3">
-        <v>1067900</v>
+        <v>1068400</v>
       </c>
       <c r="I44" s="3">
-        <v>904500</v>
+        <v>905000</v>
       </c>
       <c r="J44" s="3">
-        <v>784400</v>
+        <v>784800</v>
       </c>
       <c r="K44" s="3">
         <v>840400</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3711200</v>
+        <v>3713100</v>
       </c>
       <c r="E46" s="3">
-        <v>4343000</v>
+        <v>4345200</v>
       </c>
       <c r="F46" s="3">
-        <v>1803600</v>
+        <v>1804500</v>
       </c>
       <c r="G46" s="3">
-        <v>1548500</v>
+        <v>1549300</v>
       </c>
       <c r="H46" s="3">
-        <v>1815800</v>
+        <v>1816700</v>
       </c>
       <c r="I46" s="3">
-        <v>1742900</v>
+        <v>1743800</v>
       </c>
       <c r="J46" s="3">
-        <v>1266300</v>
+        <v>1267000</v>
       </c>
       <c r="K46" s="3">
         <v>1293200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5375700</v>
+        <v>5378500</v>
       </c>
       <c r="E48" s="3">
-        <v>5535000</v>
+        <v>5537900</v>
       </c>
       <c r="F48" s="3">
-        <v>2237000</v>
+        <v>2238100</v>
       </c>
       <c r="G48" s="3">
-        <v>2889000</v>
+        <v>2890500</v>
       </c>
       <c r="H48" s="3">
-        <v>2775600</v>
+        <v>2777000</v>
       </c>
       <c r="I48" s="3">
-        <v>2554200</v>
+        <v>2555500</v>
       </c>
       <c r="J48" s="3">
-        <v>2274800</v>
+        <v>2275900</v>
       </c>
       <c r="K48" s="3">
         <v>2142900</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3657200</v>
+        <v>3659000</v>
       </c>
       <c r="E49" s="3">
-        <v>3790800</v>
+        <v>3792800</v>
       </c>
       <c r="F49" s="3">
-        <v>1300100</v>
+        <v>1300700</v>
       </c>
       <c r="G49" s="3">
-        <v>1707800</v>
+        <v>1708600</v>
       </c>
       <c r="H49" s="3">
-        <v>1728000</v>
+        <v>1728900</v>
       </c>
       <c r="I49" s="3">
-        <v>1706400</v>
+        <v>1707300</v>
       </c>
       <c r="J49" s="3">
-        <v>1244700</v>
+        <v>1245300</v>
       </c>
       <c r="K49" s="3">
         <v>1250600</v>
@@ -2015,19 +2015,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>719600</v>
+        <v>719900</v>
       </c>
       <c r="E52" s="3">
-        <v>415800</v>
+        <v>416000</v>
       </c>
       <c r="F52" s="3">
-        <v>299700</v>
+        <v>299900</v>
       </c>
       <c r="G52" s="3">
-        <v>156600</v>
+        <v>156700</v>
       </c>
       <c r="H52" s="3">
-        <v>148500</v>
+        <v>148600</v>
       </c>
       <c r="I52" s="3">
         <v>94500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13463600</v>
+        <v>13470500</v>
       </c>
       <c r="E54" s="3">
-        <v>14084600</v>
+        <v>14091900</v>
       </c>
       <c r="F54" s="3">
-        <v>5640300</v>
+        <v>5643200</v>
       </c>
       <c r="G54" s="3">
-        <v>6301800</v>
+        <v>6305100</v>
       </c>
       <c r="H54" s="3">
-        <v>6467900</v>
+        <v>6471200</v>
       </c>
       <c r="I54" s="3">
-        <v>6098000</v>
+        <v>6101100</v>
       </c>
       <c r="J54" s="3">
-        <v>4860000</v>
+        <v>4862500</v>
       </c>
       <c r="K54" s="3">
         <v>4841100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>607500</v>
+        <v>607800</v>
       </c>
       <c r="E57" s="3">
-        <v>729000</v>
+        <v>729400</v>
       </c>
       <c r="F57" s="3">
-        <v>305100</v>
+        <v>305300</v>
       </c>
       <c r="G57" s="3">
-        <v>322700</v>
+        <v>322800</v>
       </c>
       <c r="H57" s="3">
-        <v>351000</v>
+        <v>351200</v>
       </c>
       <c r="I57" s="3">
-        <v>329400</v>
+        <v>329600</v>
       </c>
       <c r="J57" s="3">
-        <v>284900</v>
+        <v>285000</v>
       </c>
       <c r="K57" s="3">
         <v>251700</v>
@@ -2186,10 +2186,10 @@
         <v>12200</v>
       </c>
       <c r="G58" s="3">
-        <v>544100</v>
+        <v>544300</v>
       </c>
       <c r="H58" s="3">
-        <v>99900</v>
+        <v>100000</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>446900</v>
+        <v>447100</v>
       </c>
       <c r="E59" s="3">
-        <v>884300</v>
+        <v>884700</v>
       </c>
       <c r="F59" s="3">
-        <v>395600</v>
+        <v>395800</v>
       </c>
       <c r="G59" s="3">
-        <v>263300</v>
+        <v>263400</v>
       </c>
       <c r="H59" s="3">
-        <v>352400</v>
+        <v>352500</v>
       </c>
       <c r="I59" s="3">
-        <v>457700</v>
+        <v>457900</v>
       </c>
       <c r="J59" s="3">
-        <v>314600</v>
+        <v>314700</v>
       </c>
       <c r="K59" s="3">
         <v>279700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1069200</v>
+        <v>1069800</v>
       </c>
       <c r="E60" s="3">
-        <v>1628100</v>
+        <v>1628900</v>
       </c>
       <c r="F60" s="3">
-        <v>712800</v>
+        <v>713200</v>
       </c>
       <c r="G60" s="3">
-        <v>1130000</v>
+        <v>1130500</v>
       </c>
       <c r="H60" s="3">
-        <v>803300</v>
+        <v>803700</v>
       </c>
       <c r="I60" s="3">
-        <v>787100</v>
+        <v>787500</v>
       </c>
       <c r="J60" s="3">
-        <v>619700</v>
+        <v>620000</v>
       </c>
       <c r="K60" s="3">
         <v>807100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>708800</v>
+        <v>709100</v>
       </c>
       <c r="E61" s="3">
-        <v>673700</v>
+        <v>674000</v>
       </c>
       <c r="F61" s="3">
-        <v>675000</v>
+        <v>675400</v>
       </c>
       <c r="G61" s="3">
-        <v>888300</v>
+        <v>888800</v>
       </c>
       <c r="H61" s="3">
-        <v>934200</v>
+        <v>934700</v>
       </c>
       <c r="I61" s="3">
-        <v>858600</v>
+        <v>859000</v>
       </c>
       <c r="J61" s="3">
-        <v>557600</v>
+        <v>557800</v>
       </c>
       <c r="K61" s="3">
         <v>563400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1400000</v>
+        <v>1400700</v>
       </c>
       <c r="E62" s="3">
-        <v>1447200</v>
+        <v>1448000</v>
       </c>
       <c r="F62" s="3">
-        <v>907200</v>
+        <v>907700</v>
       </c>
       <c r="G62" s="3">
-        <v>943700</v>
+        <v>944100</v>
       </c>
       <c r="H62" s="3">
-        <v>820800</v>
+        <v>821200</v>
       </c>
       <c r="I62" s="3">
-        <v>772200</v>
+        <v>772600</v>
       </c>
       <c r="J62" s="3">
-        <v>657500</v>
+        <v>657800</v>
       </c>
       <c r="K62" s="3">
         <v>611300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3177900</v>
+        <v>3179500</v>
       </c>
       <c r="E66" s="3">
-        <v>3749000</v>
+        <v>3750900</v>
       </c>
       <c r="F66" s="3">
-        <v>2295000</v>
+        <v>2296200</v>
       </c>
       <c r="G66" s="3">
-        <v>2961900</v>
+        <v>2963400</v>
       </c>
       <c r="H66" s="3">
-        <v>2558300</v>
+        <v>2559600</v>
       </c>
       <c r="I66" s="3">
-        <v>2417900</v>
+        <v>2419100</v>
       </c>
       <c r="J66" s="3">
-        <v>1834700</v>
+        <v>1835600</v>
       </c>
       <c r="K66" s="3">
         <v>1981700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7133400</v>
+        <v>7137100</v>
       </c>
       <c r="E72" s="3">
-        <v>6079100</v>
+        <v>6082200</v>
       </c>
       <c r="F72" s="3">
-        <v>3020000</v>
+        <v>3021500</v>
       </c>
       <c r="G72" s="3">
-        <v>2509700</v>
+        <v>2511000</v>
       </c>
       <c r="H72" s="3">
-        <v>3017300</v>
+        <v>3018800</v>
       </c>
       <c r="I72" s="3">
-        <v>2793200</v>
+        <v>2794600</v>
       </c>
       <c r="J72" s="3">
-        <v>2081700</v>
+        <v>2082800</v>
       </c>
       <c r="K72" s="3">
         <v>1869800</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10285700</v>
+        <v>10291000</v>
       </c>
       <c r="E76" s="3">
-        <v>10335600</v>
+        <v>10341000</v>
       </c>
       <c r="F76" s="3">
-        <v>3345300</v>
+        <v>3347000</v>
       </c>
       <c r="G76" s="3">
-        <v>3339900</v>
+        <v>3341600</v>
       </c>
       <c r="H76" s="3">
-        <v>3909600</v>
+        <v>3911600</v>
       </c>
       <c r="I76" s="3">
-        <v>3680100</v>
+        <v>3682000</v>
       </c>
       <c r="J76" s="3">
-        <v>3025400</v>
+        <v>3026900</v>
       </c>
       <c r="K76" s="3">
         <v>2859400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2666300</v>
+        <v>2667600</v>
       </c>
       <c r="E81" s="3">
-        <v>3978500</v>
+        <v>3980500</v>
       </c>
       <c r="F81" s="3">
-        <v>793800</v>
+        <v>794200</v>
       </c>
       <c r="G81" s="3">
-        <v>-202500</v>
+        <v>-202600</v>
       </c>
       <c r="H81" s="3">
-        <v>1093500</v>
+        <v>1094100</v>
       </c>
       <c r="I81" s="3">
-        <v>804600</v>
+        <v>805000</v>
       </c>
       <c r="J81" s="3">
-        <v>440100</v>
+        <v>440300</v>
       </c>
       <c r="K81" s="3">
         <v>138500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>795200</v>
+        <v>795600</v>
       </c>
       <c r="E83" s="3">
-        <v>788400</v>
+        <v>788800</v>
       </c>
       <c r="F83" s="3">
-        <v>274100</v>
+        <v>274200</v>
       </c>
       <c r="G83" s="3">
-        <v>349700</v>
+        <v>349800</v>
       </c>
       <c r="H83" s="3">
-        <v>347000</v>
+        <v>347100</v>
       </c>
       <c r="I83" s="3">
-        <v>283500</v>
+        <v>283600</v>
       </c>
       <c r="J83" s="3">
-        <v>266000</v>
+        <v>266100</v>
       </c>
       <c r="K83" s="3">
         <v>254400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2979500</v>
+        <v>2981000</v>
       </c>
       <c r="E89" s="3">
-        <v>4795200</v>
+        <v>4797700</v>
       </c>
       <c r="F89" s="3">
-        <v>1306800</v>
+        <v>1307500</v>
       </c>
       <c r="G89" s="3">
         <v>155300</v>
       </c>
       <c r="H89" s="3">
-        <v>1227200</v>
+        <v>1227800</v>
       </c>
       <c r="I89" s="3">
-        <v>1217700</v>
+        <v>1218300</v>
       </c>
       <c r="J89" s="3">
-        <v>930200</v>
+        <v>930600</v>
       </c>
       <c r="K89" s="3">
         <v>400900</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-644000</v>
+        <v>-644300</v>
       </c>
       <c r="E91" s="3">
-        <v>-857300</v>
+        <v>-857700</v>
       </c>
       <c r="F91" s="3">
-        <v>-243000</v>
+        <v>-243100</v>
       </c>
       <c r="G91" s="3">
-        <v>-553500</v>
+        <v>-553800</v>
       </c>
       <c r="H91" s="3">
-        <v>-499500</v>
+        <v>-499800</v>
       </c>
       <c r="I91" s="3">
-        <v>-453600</v>
+        <v>-453800</v>
       </c>
       <c r="J91" s="3">
-        <v>-368600</v>
+        <v>-368700</v>
       </c>
       <c r="K91" s="3">
         <v>-293000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-619700</v>
+        <v>-620000</v>
       </c>
       <c r="E94" s="3">
-        <v>-386100</v>
+        <v>-386300</v>
       </c>
       <c r="F94" s="3">
-        <v>-224100</v>
+        <v>-224200</v>
       </c>
       <c r="G94" s="3">
-        <v>-527900</v>
+        <v>-528100</v>
       </c>
       <c r="H94" s="3">
-        <v>-477900</v>
+        <v>-478100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1152900</v>
+        <v>-1153500</v>
       </c>
       <c r="J94" s="3">
-        <v>-355100</v>
+        <v>-355200</v>
       </c>
       <c r="K94" s="3">
         <v>-383600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2870100</v>
+        <v>-2871600</v>
       </c>
       <c r="E100" s="3">
-        <v>-2921400</v>
+        <v>-2922900</v>
       </c>
       <c r="F100" s="3">
-        <v>-476600</v>
+        <v>-476800</v>
       </c>
       <c r="G100" s="3">
-        <v>175500</v>
+        <v>175600</v>
       </c>
       <c r="H100" s="3">
-        <v>-919400</v>
+        <v>-919800</v>
       </c>
       <c r="I100" s="3">
-        <v>244400</v>
+        <v>244500</v>
       </c>
       <c r="J100" s="3">
-        <v>-558900</v>
+        <v>-559200</v>
       </c>
       <c r="K100" s="3">
         <v>-50600</v>
@@ -3496,22 +3496,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-548100</v>
+        <v>-548400</v>
       </c>
       <c r="E102" s="3">
-        <v>1494500</v>
+        <v>1495200</v>
       </c>
       <c r="F102" s="3">
-        <v>622400</v>
+        <v>622700</v>
       </c>
       <c r="G102" s="3">
-        <v>-198500</v>
+        <v>-198600</v>
       </c>
       <c r="H102" s="3">
         <v>-149900</v>
       </c>
       <c r="I102" s="3">
-        <v>301100</v>
+        <v>301200</v>
       </c>
       <c r="J102" s="3">
         <v>68900</v>

--- a/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WFG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13103100</v>
+        <v>13343700</v>
       </c>
       <c r="E8" s="3">
-        <v>14206700</v>
+        <v>14467500</v>
       </c>
       <c r="F8" s="3">
-        <v>5906600</v>
+        <v>6015100</v>
       </c>
       <c r="G8" s="3">
-        <v>6587400</v>
+        <v>6708300</v>
       </c>
       <c r="H8" s="3">
-        <v>8263600</v>
+        <v>8415300</v>
       </c>
       <c r="I8" s="3">
-        <v>6934500</v>
+        <v>7061800</v>
       </c>
       <c r="J8" s="3">
-        <v>6010600</v>
+        <v>6121000</v>
       </c>
       <c r="K8" s="3">
         <v>5460400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6945300</v>
+        <v>7072800</v>
       </c>
       <c r="E9" s="3">
-        <v>6274000</v>
+        <v>6389200</v>
       </c>
       <c r="F9" s="3">
-        <v>8417600</v>
+        <v>8572100</v>
       </c>
       <c r="G9" s="3">
-        <v>4932800</v>
+        <v>5023300</v>
       </c>
       <c r="H9" s="3">
-        <v>4885500</v>
+        <v>4975200</v>
       </c>
       <c r="I9" s="3">
-        <v>4219600</v>
+        <v>4297100</v>
       </c>
       <c r="J9" s="3">
-        <v>4012900</v>
+        <v>4086600</v>
       </c>
       <c r="K9" s="3">
         <v>3827600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6157800</v>
+        <v>6270900</v>
       </c>
       <c r="E10" s="3">
-        <v>7932700</v>
+        <v>8078300</v>
       </c>
       <c r="F10" s="3">
-        <v>-2511000</v>
+        <v>-2557100</v>
       </c>
       <c r="G10" s="3">
-        <v>1654600</v>
+        <v>1685000</v>
       </c>
       <c r="H10" s="3">
-        <v>3378100</v>
+        <v>3440100</v>
       </c>
       <c r="I10" s="3">
-        <v>2714900</v>
+        <v>2764800</v>
       </c>
       <c r="J10" s="3">
-        <v>1997700</v>
+        <v>2034400</v>
       </c>
       <c r="K10" s="3">
         <v>1632800</v>
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>81000</v>
+        <v>82500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>44600</v>
+        <v>45400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>894200</v>
+        <v>910600</v>
       </c>
       <c r="E15" s="3">
-        <v>871200</v>
+        <v>887200</v>
       </c>
       <c r="F15" s="3">
-        <v>333600</v>
+        <v>339700</v>
       </c>
       <c r="G15" s="3">
-        <v>349800</v>
+        <v>356300</v>
       </c>
       <c r="H15" s="3">
-        <v>347100</v>
+        <v>353500</v>
       </c>
       <c r="I15" s="3">
-        <v>283600</v>
+        <v>288900</v>
       </c>
       <c r="J15" s="3">
-        <v>266100</v>
+        <v>271000</v>
       </c>
       <c r="K15" s="3">
         <v>254400</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9646700</v>
+        <v>9823800</v>
       </c>
       <c r="E17" s="3">
-        <v>8878200</v>
+        <v>9041200</v>
       </c>
       <c r="F17" s="3">
-        <v>4784200</v>
+        <v>4872000</v>
       </c>
       <c r="G17" s="3">
-        <v>6802100</v>
+        <v>6927000</v>
       </c>
       <c r="H17" s="3">
-        <v>6815600</v>
+        <v>6940800</v>
       </c>
       <c r="I17" s="3">
-        <v>5759400</v>
+        <v>5865100</v>
       </c>
       <c r="J17" s="3">
-        <v>5359600</v>
+        <v>5458000</v>
       </c>
       <c r="K17" s="3">
         <v>5128800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3456400</v>
+        <v>3519900</v>
       </c>
       <c r="E18" s="3">
-        <v>5328500</v>
+        <v>5426300</v>
       </c>
       <c r="F18" s="3">
-        <v>1122400</v>
+        <v>1143000</v>
       </c>
       <c r="G18" s="3">
-        <v>-214800</v>
+        <v>-218700</v>
       </c>
       <c r="H18" s="3">
-        <v>1448000</v>
+        <v>1474500</v>
       </c>
       <c r="I18" s="3">
-        <v>1175100</v>
+        <v>1196700</v>
       </c>
       <c r="J18" s="3">
-        <v>651000</v>
+        <v>663000</v>
       </c>
       <c r="K18" s="3">
         <v>331600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>78300</v>
+        <v>79800</v>
       </c>
       <c r="E20" s="3">
         <v>1400</v>
       </c>
       <c r="F20" s="3">
-        <v>-12200</v>
+        <v>-12400</v>
       </c>
       <c r="G20" s="3">
-        <v>-21600</v>
+        <v>-22000</v>
       </c>
       <c r="H20" s="3">
-        <v>45900</v>
+        <v>46800</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-18900</v>
+        <v>-19300</v>
       </c>
       <c r="K20" s="3">
         <v>-93200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4330300</v>
+        <v>4405300</v>
       </c>
       <c r="E21" s="3">
-        <v>6118700</v>
+        <v>6226500</v>
       </c>
       <c r="F21" s="3">
-        <v>1384500</v>
+        <v>1408300</v>
       </c>
       <c r="G21" s="3">
         <v>113500</v>
       </c>
       <c r="H21" s="3">
-        <v>1841000</v>
+        <v>1872800</v>
       </c>
       <c r="I21" s="3">
-        <v>1458800</v>
+        <v>1483900</v>
       </c>
       <c r="J21" s="3">
-        <v>898200</v>
+        <v>913200</v>
       </c>
       <c r="K21" s="3">
         <v>496700</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>32400</v>
+        <v>33000</v>
       </c>
       <c r="E22" s="3">
-        <v>64800</v>
+        <v>66000</v>
       </c>
       <c r="F22" s="3">
-        <v>43200</v>
+        <v>44000</v>
       </c>
       <c r="G22" s="3">
-        <v>59400</v>
+        <v>60500</v>
       </c>
       <c r="H22" s="3">
-        <v>45900</v>
+        <v>46800</v>
       </c>
       <c r="I22" s="3">
-        <v>32400</v>
+        <v>33000</v>
       </c>
       <c r="J22" s="3">
-        <v>32400</v>
+        <v>33000</v>
       </c>
       <c r="K22" s="3">
         <v>30600</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3502400</v>
+        <v>3566700</v>
       </c>
       <c r="E23" s="3">
-        <v>5265000</v>
+        <v>5361700</v>
       </c>
       <c r="F23" s="3">
-        <v>1067100</v>
+        <v>1086600</v>
       </c>
       <c r="G23" s="3">
-        <v>-295800</v>
+        <v>-301200</v>
       </c>
       <c r="H23" s="3">
-        <v>1448000</v>
+        <v>1474500</v>
       </c>
       <c r="I23" s="3">
-        <v>1142700</v>
+        <v>1163700</v>
       </c>
       <c r="J23" s="3">
-        <v>599700</v>
+        <v>610700</v>
       </c>
       <c r="K23" s="3">
         <v>207800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>834700</v>
+        <v>850100</v>
       </c>
       <c r="E24" s="3">
-        <v>1284500</v>
+        <v>1308100</v>
       </c>
       <c r="F24" s="3">
-        <v>272800</v>
+        <v>277900</v>
       </c>
       <c r="G24" s="3">
-        <v>-93200</v>
+        <v>-94900</v>
       </c>
       <c r="H24" s="3">
-        <v>353900</v>
+        <v>360400</v>
       </c>
       <c r="I24" s="3">
-        <v>337700</v>
+        <v>343900</v>
       </c>
       <c r="J24" s="3">
-        <v>159400</v>
+        <v>162300</v>
       </c>
       <c r="K24" s="3">
         <v>69300</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2667600</v>
+        <v>2716600</v>
       </c>
       <c r="E26" s="3">
-        <v>3980500</v>
+        <v>4053600</v>
       </c>
       <c r="F26" s="3">
-        <v>794200</v>
+        <v>808800</v>
       </c>
       <c r="G26" s="3">
-        <v>-202600</v>
+        <v>-206300</v>
       </c>
       <c r="H26" s="3">
-        <v>1094100</v>
+        <v>1114200</v>
       </c>
       <c r="I26" s="3">
-        <v>805000</v>
+        <v>819800</v>
       </c>
       <c r="J26" s="3">
-        <v>440300</v>
+        <v>448400</v>
       </c>
       <c r="K26" s="3">
         <v>138500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2667600</v>
+        <v>2716600</v>
       </c>
       <c r="E27" s="3">
-        <v>3980500</v>
+        <v>4053600</v>
       </c>
       <c r="F27" s="3">
-        <v>794200</v>
+        <v>808800</v>
       </c>
       <c r="G27" s="3">
-        <v>-202600</v>
+        <v>-206300</v>
       </c>
       <c r="H27" s="3">
-        <v>1094100</v>
+        <v>1114200</v>
       </c>
       <c r="I27" s="3">
-        <v>805000</v>
+        <v>819800</v>
       </c>
       <c r="J27" s="3">
-        <v>440300</v>
+        <v>448400</v>
       </c>
       <c r="K27" s="3">
         <v>138500</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-78300</v>
+        <v>-79800</v>
       </c>
       <c r="E32" s="3">
         <v>-1400</v>
       </c>
       <c r="F32" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="G32" s="3">
-        <v>21600</v>
+        <v>22000</v>
       </c>
       <c r="H32" s="3">
-        <v>-45900</v>
+        <v>-46800</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="K32" s="3">
         <v>93200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2667600</v>
+        <v>2716600</v>
       </c>
       <c r="E33" s="3">
-        <v>3980500</v>
+        <v>4053600</v>
       </c>
       <c r="F33" s="3">
-        <v>794200</v>
+        <v>808800</v>
       </c>
       <c r="G33" s="3">
-        <v>-202600</v>
+        <v>-206300</v>
       </c>
       <c r="H33" s="3">
-        <v>1094100</v>
+        <v>1114200</v>
       </c>
       <c r="I33" s="3">
-        <v>805000</v>
+        <v>819800</v>
       </c>
       <c r="J33" s="3">
-        <v>440300</v>
+        <v>448400</v>
       </c>
       <c r="K33" s="3">
         <v>138500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2667600</v>
+        <v>2716600</v>
       </c>
       <c r="E35" s="3">
-        <v>3980500</v>
+        <v>4053600</v>
       </c>
       <c r="F35" s="3">
-        <v>794200</v>
+        <v>808800</v>
       </c>
       <c r="G35" s="3">
-        <v>-202600</v>
+        <v>-206300</v>
       </c>
       <c r="H35" s="3">
-        <v>1094100</v>
+        <v>1114200</v>
       </c>
       <c r="I35" s="3">
-        <v>805000</v>
+        <v>819800</v>
       </c>
       <c r="J35" s="3">
-        <v>440300</v>
+        <v>448400</v>
       </c>
       <c r="K35" s="3">
         <v>138500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1569500</v>
+        <v>1598300</v>
       </c>
       <c r="E41" s="3">
-        <v>2117900</v>
+        <v>2156800</v>
       </c>
       <c r="F41" s="3">
-        <v>622700</v>
+        <v>634100</v>
       </c>
       <c r="G41" s="3">
-        <v>21600</v>
+        <v>22000</v>
       </c>
       <c r="H41" s="3">
-        <v>216100</v>
+        <v>220100</v>
       </c>
       <c r="I41" s="3">
-        <v>348500</v>
+        <v>354900</v>
       </c>
       <c r="J41" s="3">
-        <v>67500</v>
+        <v>68800</v>
       </c>
       <c r="K41" s="3">
         <v>17300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>668600</v>
+        <v>680900</v>
       </c>
       <c r="E43" s="3">
-        <v>742900</v>
+        <v>756500</v>
       </c>
       <c r="F43" s="3">
-        <v>805000</v>
+        <v>819800</v>
       </c>
       <c r="G43" s="3">
-        <v>530800</v>
+        <v>540600</v>
       </c>
       <c r="H43" s="3">
-        <v>513300</v>
+        <v>522700</v>
       </c>
       <c r="I43" s="3">
-        <v>475400</v>
+        <v>484200</v>
       </c>
       <c r="J43" s="3">
-        <v>401200</v>
+        <v>408500</v>
       </c>
       <c r="K43" s="3">
         <v>411500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1393900</v>
+        <v>1419500</v>
       </c>
       <c r="E44" s="3">
-        <v>1433100</v>
+        <v>1459400</v>
       </c>
       <c r="F44" s="3">
-        <v>780700</v>
+        <v>795000</v>
       </c>
       <c r="G44" s="3">
-        <v>984700</v>
+        <v>1002700</v>
       </c>
       <c r="H44" s="3">
-        <v>1068400</v>
+        <v>1088000</v>
       </c>
       <c r="I44" s="3">
-        <v>905000</v>
+        <v>921600</v>
       </c>
       <c r="J44" s="3">
-        <v>784800</v>
+        <v>799200</v>
       </c>
       <c r="K44" s="3">
         <v>840400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>81000</v>
+        <v>82500</v>
       </c>
       <c r="E45" s="3">
-        <v>51300</v>
+        <v>52300</v>
       </c>
       <c r="F45" s="3">
-        <v>16200</v>
+        <v>16500</v>
       </c>
       <c r="G45" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="H45" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="I45" s="3">
-        <v>14900</v>
+        <v>15100</v>
       </c>
       <c r="J45" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="K45" s="3">
         <v>24000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3713100</v>
+        <v>3781200</v>
       </c>
       <c r="E46" s="3">
-        <v>4345200</v>
+        <v>4425000</v>
       </c>
       <c r="F46" s="3">
-        <v>1804500</v>
+        <v>1837700</v>
       </c>
       <c r="G46" s="3">
-        <v>1549300</v>
+        <v>1577700</v>
       </c>
       <c r="H46" s="3">
-        <v>1816700</v>
+        <v>1850000</v>
       </c>
       <c r="I46" s="3">
-        <v>1743800</v>
+        <v>1775800</v>
       </c>
       <c r="J46" s="3">
-        <v>1267000</v>
+        <v>1290200</v>
       </c>
       <c r="K46" s="3">
         <v>1293200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5378500</v>
+        <v>5477200</v>
       </c>
       <c r="E48" s="3">
-        <v>5537900</v>
+        <v>5639600</v>
       </c>
       <c r="F48" s="3">
-        <v>2238100</v>
+        <v>2279200</v>
       </c>
       <c r="G48" s="3">
-        <v>2890500</v>
+        <v>2943600</v>
       </c>
       <c r="H48" s="3">
-        <v>2777000</v>
+        <v>2828000</v>
       </c>
       <c r="I48" s="3">
-        <v>2555500</v>
+        <v>2602400</v>
       </c>
       <c r="J48" s="3">
-        <v>2275900</v>
+        <v>2317700</v>
       </c>
       <c r="K48" s="3">
         <v>2142900</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3659000</v>
+        <v>3726200</v>
       </c>
       <c r="E49" s="3">
-        <v>3792800</v>
+        <v>3862400</v>
       </c>
       <c r="F49" s="3">
-        <v>1300700</v>
+        <v>1324600</v>
       </c>
       <c r="G49" s="3">
-        <v>1708600</v>
+        <v>1740000</v>
       </c>
       <c r="H49" s="3">
-        <v>1728900</v>
+        <v>1760600</v>
       </c>
       <c r="I49" s="3">
-        <v>1707300</v>
+        <v>1738600</v>
       </c>
       <c r="J49" s="3">
-        <v>1245300</v>
+        <v>1268200</v>
       </c>
       <c r="K49" s="3">
         <v>1250600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>719900</v>
+        <v>733100</v>
       </c>
       <c r="E52" s="3">
-        <v>416000</v>
+        <v>423700</v>
       </c>
       <c r="F52" s="3">
-        <v>299900</v>
+        <v>305400</v>
       </c>
       <c r="G52" s="3">
-        <v>156700</v>
+        <v>159600</v>
       </c>
       <c r="H52" s="3">
-        <v>148600</v>
+        <v>151300</v>
       </c>
       <c r="I52" s="3">
-        <v>94500</v>
+        <v>96300</v>
       </c>
       <c r="J52" s="3">
-        <v>74300</v>
+        <v>75700</v>
       </c>
       <c r="K52" s="3">
         <v>154500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13470500</v>
+        <v>13717900</v>
       </c>
       <c r="E54" s="3">
-        <v>14091900</v>
+        <v>14350600</v>
       </c>
       <c r="F54" s="3">
-        <v>5643200</v>
+        <v>5746800</v>
       </c>
       <c r="G54" s="3">
-        <v>6305100</v>
+        <v>6420800</v>
       </c>
       <c r="H54" s="3">
-        <v>6471200</v>
+        <v>6590000</v>
       </c>
       <c r="I54" s="3">
-        <v>6101100</v>
+        <v>6213100</v>
       </c>
       <c r="J54" s="3">
-        <v>4862500</v>
+        <v>4951800</v>
       </c>
       <c r="K54" s="3">
         <v>4841100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>607800</v>
+        <v>619000</v>
       </c>
       <c r="E57" s="3">
-        <v>729400</v>
+        <v>742800</v>
       </c>
       <c r="F57" s="3">
-        <v>305300</v>
+        <v>310900</v>
       </c>
       <c r="G57" s="3">
-        <v>322800</v>
+        <v>328700</v>
       </c>
       <c r="H57" s="3">
-        <v>351200</v>
+        <v>357600</v>
       </c>
       <c r="I57" s="3">
-        <v>329600</v>
+        <v>335600</v>
       </c>
       <c r="J57" s="3">
-        <v>285000</v>
+        <v>290200</v>
       </c>
       <c r="K57" s="3">
         <v>251700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14900</v>
+        <v>15100</v>
       </c>
       <c r="E58" s="3">
-        <v>14900</v>
+        <v>15100</v>
       </c>
       <c r="F58" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="G58" s="3">
-        <v>544300</v>
+        <v>554300</v>
       </c>
       <c r="H58" s="3">
-        <v>100000</v>
+        <v>101800</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="K58" s="3">
         <v>275700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>447100</v>
+        <v>455300</v>
       </c>
       <c r="E59" s="3">
-        <v>884700</v>
+        <v>901000</v>
       </c>
       <c r="F59" s="3">
-        <v>395800</v>
+        <v>403000</v>
       </c>
       <c r="G59" s="3">
-        <v>263400</v>
+        <v>268200</v>
       </c>
       <c r="H59" s="3">
-        <v>352500</v>
+        <v>359000</v>
       </c>
       <c r="I59" s="3">
-        <v>457900</v>
+        <v>466300</v>
       </c>
       <c r="J59" s="3">
-        <v>314700</v>
+        <v>320500</v>
       </c>
       <c r="K59" s="3">
         <v>279700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1069800</v>
+        <v>1089400</v>
       </c>
       <c r="E60" s="3">
-        <v>1628900</v>
+        <v>1658900</v>
       </c>
       <c r="F60" s="3">
-        <v>713200</v>
+        <v>726300</v>
       </c>
       <c r="G60" s="3">
-        <v>1130500</v>
+        <v>1151300</v>
       </c>
       <c r="H60" s="3">
-        <v>803700</v>
+        <v>818400</v>
       </c>
       <c r="I60" s="3">
-        <v>787500</v>
+        <v>801900</v>
       </c>
       <c r="J60" s="3">
-        <v>620000</v>
+        <v>631400</v>
       </c>
       <c r="K60" s="3">
         <v>807100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>709100</v>
+        <v>722100</v>
       </c>
       <c r="E61" s="3">
-        <v>674000</v>
+        <v>686400</v>
       </c>
       <c r="F61" s="3">
-        <v>675400</v>
+        <v>687800</v>
       </c>
       <c r="G61" s="3">
-        <v>888800</v>
+        <v>905100</v>
       </c>
       <c r="H61" s="3">
-        <v>934700</v>
+        <v>951800</v>
       </c>
       <c r="I61" s="3">
-        <v>859000</v>
+        <v>874800</v>
       </c>
       <c r="J61" s="3">
-        <v>557800</v>
+        <v>568100</v>
       </c>
       <c r="K61" s="3">
         <v>563400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1400700</v>
+        <v>1426400</v>
       </c>
       <c r="E62" s="3">
-        <v>1448000</v>
+        <v>1474500</v>
       </c>
       <c r="F62" s="3">
-        <v>907700</v>
+        <v>924300</v>
       </c>
       <c r="G62" s="3">
-        <v>944100</v>
+        <v>961500</v>
       </c>
       <c r="H62" s="3">
-        <v>821200</v>
+        <v>836300</v>
       </c>
       <c r="I62" s="3">
-        <v>772600</v>
+        <v>786800</v>
       </c>
       <c r="J62" s="3">
-        <v>657800</v>
+        <v>669900</v>
       </c>
       <c r="K62" s="3">
         <v>611300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3179500</v>
+        <v>3237900</v>
       </c>
       <c r="E66" s="3">
-        <v>3750900</v>
+        <v>3819800</v>
       </c>
       <c r="F66" s="3">
-        <v>2296200</v>
+        <v>2338300</v>
       </c>
       <c r="G66" s="3">
-        <v>2963400</v>
+        <v>3017800</v>
       </c>
       <c r="H66" s="3">
-        <v>2559600</v>
+        <v>2606600</v>
       </c>
       <c r="I66" s="3">
-        <v>2419100</v>
+        <v>2463500</v>
       </c>
       <c r="J66" s="3">
-        <v>1835600</v>
+        <v>1869300</v>
       </c>
       <c r="K66" s="3">
         <v>1981700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7137100</v>
+        <v>7268100</v>
       </c>
       <c r="E72" s="3">
-        <v>6082200</v>
+        <v>6193900</v>
       </c>
       <c r="F72" s="3">
-        <v>3021500</v>
+        <v>3077000</v>
       </c>
       <c r="G72" s="3">
-        <v>2511000</v>
+        <v>2557100</v>
       </c>
       <c r="H72" s="3">
-        <v>3018800</v>
+        <v>3074200</v>
       </c>
       <c r="I72" s="3">
-        <v>2794600</v>
+        <v>2845900</v>
       </c>
       <c r="J72" s="3">
-        <v>2082800</v>
+        <v>2121000</v>
       </c>
       <c r="K72" s="3">
         <v>1869800</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10291000</v>
+        <v>10479900</v>
       </c>
       <c r="E76" s="3">
-        <v>10341000</v>
+        <v>10530800</v>
       </c>
       <c r="F76" s="3">
-        <v>3347000</v>
+        <v>3408500</v>
       </c>
       <c r="G76" s="3">
-        <v>3341600</v>
+        <v>3403000</v>
       </c>
       <c r="H76" s="3">
-        <v>3911600</v>
+        <v>3983400</v>
       </c>
       <c r="I76" s="3">
-        <v>3682000</v>
+        <v>3749600</v>
       </c>
       <c r="J76" s="3">
-        <v>3026900</v>
+        <v>3082500</v>
       </c>
       <c r="K76" s="3">
         <v>2859400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2667600</v>
+        <v>2716600</v>
       </c>
       <c r="E81" s="3">
-        <v>3980500</v>
+        <v>4053600</v>
       </c>
       <c r="F81" s="3">
-        <v>794200</v>
+        <v>808800</v>
       </c>
       <c r="G81" s="3">
-        <v>-202600</v>
+        <v>-206300</v>
       </c>
       <c r="H81" s="3">
-        <v>1094100</v>
+        <v>1114200</v>
       </c>
       <c r="I81" s="3">
-        <v>805000</v>
+        <v>819800</v>
       </c>
       <c r="J81" s="3">
-        <v>440300</v>
+        <v>448400</v>
       </c>
       <c r="K81" s="3">
         <v>138500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>795600</v>
+        <v>810200</v>
       </c>
       <c r="E83" s="3">
-        <v>788800</v>
+        <v>803300</v>
       </c>
       <c r="F83" s="3">
-        <v>274200</v>
+        <v>279200</v>
       </c>
       <c r="G83" s="3">
-        <v>349800</v>
+        <v>356300</v>
       </c>
       <c r="H83" s="3">
-        <v>347100</v>
+        <v>353500</v>
       </c>
       <c r="I83" s="3">
-        <v>283600</v>
+        <v>288900</v>
       </c>
       <c r="J83" s="3">
-        <v>266100</v>
+        <v>271000</v>
       </c>
       <c r="K83" s="3">
         <v>254400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2981000</v>
+        <v>3035700</v>
       </c>
       <c r="E89" s="3">
-        <v>4797700</v>
+        <v>4885800</v>
       </c>
       <c r="F89" s="3">
-        <v>1307500</v>
+        <v>1331500</v>
       </c>
       <c r="G89" s="3">
-        <v>155300</v>
+        <v>158200</v>
       </c>
       <c r="H89" s="3">
-        <v>1227800</v>
+        <v>1250300</v>
       </c>
       <c r="I89" s="3">
-        <v>1218300</v>
+        <v>1240700</v>
       </c>
       <c r="J89" s="3">
-        <v>930600</v>
+        <v>947700</v>
       </c>
       <c r="K89" s="3">
         <v>400900</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-644300</v>
+        <v>-656100</v>
       </c>
       <c r="E91" s="3">
-        <v>-857700</v>
+        <v>-873400</v>
       </c>
       <c r="F91" s="3">
-        <v>-243100</v>
+        <v>-247600</v>
       </c>
       <c r="G91" s="3">
-        <v>-553800</v>
+        <v>-564000</v>
       </c>
       <c r="H91" s="3">
-        <v>-499800</v>
+        <v>-508900</v>
       </c>
       <c r="I91" s="3">
-        <v>-453800</v>
+        <v>-462200</v>
       </c>
       <c r="J91" s="3">
-        <v>-368700</v>
+        <v>-375500</v>
       </c>
       <c r="K91" s="3">
         <v>-293000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-620000</v>
+        <v>-631400</v>
       </c>
       <c r="E94" s="3">
-        <v>-386300</v>
+        <v>-393400</v>
       </c>
       <c r="F94" s="3">
-        <v>-224200</v>
+        <v>-228300</v>
       </c>
       <c r="G94" s="3">
-        <v>-528100</v>
+        <v>-537800</v>
       </c>
       <c r="H94" s="3">
-        <v>-478100</v>
+        <v>-486900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1153500</v>
+        <v>-1174700</v>
       </c>
       <c r="J94" s="3">
-        <v>-355200</v>
+        <v>-361800</v>
       </c>
       <c r="K94" s="3">
         <v>-383600</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-133700</v>
+        <v>-136200</v>
       </c>
       <c r="E96" s="3">
-        <v>-101300</v>
+        <v>-103200</v>
       </c>
       <c r="F96" s="3">
-        <v>-55400</v>
+        <v>-56400</v>
       </c>
       <c r="G96" s="3">
-        <v>-74300</v>
+        <v>-75700</v>
       </c>
       <c r="H96" s="3">
-        <v>-50000</v>
+        <v>-50900</v>
       </c>
       <c r="I96" s="3">
-        <v>-37800</v>
+        <v>-38500</v>
       </c>
       <c r="J96" s="3">
-        <v>-29700</v>
+        <v>-30300</v>
       </c>
       <c r="K96" s="3">
         <v>-30600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2871600</v>
+        <v>-2924300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2922900</v>
+        <v>-2976600</v>
       </c>
       <c r="F100" s="3">
-        <v>-476800</v>
+        <v>-485600</v>
       </c>
       <c r="G100" s="3">
-        <v>175600</v>
+        <v>178800</v>
       </c>
       <c r="H100" s="3">
-        <v>-919800</v>
+        <v>-936700</v>
       </c>
       <c r="I100" s="3">
-        <v>244500</v>
+        <v>249000</v>
       </c>
       <c r="J100" s="3">
-        <v>-559200</v>
+        <v>-569500</v>
       </c>
       <c r="K100" s="3">
         <v>-50600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-37800</v>
+        <v>-38500</v>
       </c>
       <c r="E101" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="F101" s="3">
-        <v>16200</v>
+        <v>16500</v>
       </c>
       <c r="G101" s="3">
         <v>-1400</v>
       </c>
       <c r="H101" s="3">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="I101" s="3">
-        <v>-8100</v>
+        <v>-8300</v>
       </c>
       <c r="J101" s="3">
-        <v>52700</v>
+        <v>53600</v>
       </c>
       <c r="K101" s="3">
         <v>32000</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-548400</v>
+        <v>-558500</v>
       </c>
       <c r="E102" s="3">
-        <v>1495200</v>
+        <v>1522700</v>
       </c>
       <c r="F102" s="3">
-        <v>622700</v>
+        <v>634100</v>
       </c>
       <c r="G102" s="3">
-        <v>-198600</v>
+        <v>-202200</v>
       </c>
       <c r="H102" s="3">
-        <v>-149900</v>
+        <v>-152700</v>
       </c>
       <c r="I102" s="3">
-        <v>301200</v>
+        <v>306700</v>
       </c>
       <c r="J102" s="3">
-        <v>68900</v>
+        <v>70200</v>
       </c>
       <c r="K102" s="3">
         <v>-1300</v>
